--- a/Tuya.xlsx
+++ b/Tuya.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EN PROCESO (Tuya)'!$A$1:$AM$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EN PROCESO (Tuya)'!$A$1:$AM$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="197">
   <si>
     <t>Asignado a</t>
   </si>
@@ -201,7 +201,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>24/07/2025:</t>
     </r>
@@ -210,7 +209,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Este pundo depende del cliente que se construye con el punto 1. la funcionalidad de envio a pendientes serviria para ambos servicios.
 </t>
@@ -221,7 +219,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>13/08/2025:</t>
     </r>
@@ -230,7 +227,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> en el momento el cliente se encuentra haciendo pruebas de la indexación de anexos, y la cola de espera.
 En cuanto el 3 punto, estamos en espera de la instalación de una libreria para el consumo de un servicio de Soap, esto ya que por medio de métodos manuales no fue posible para todos los casos. Apenas tenga la autorización lo único que haría falta es desarrollar el cliente y traer los datos que se requieren para indexar la solicitud y sus anexos.
@@ -242,7 +238,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 20/08/2025:</t>
@@ -252,7 +247,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> con respecto a el desarrollo del Api, se realizó lo requerido, sin embargo surgió un cambio muy necesario al recibir los documentos, es el siguiente: "Espero que te encuentres bien. Después de revisar la duda planteada, te cuento que:
 El control para la operación de .zip
@@ -271,7 +265,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>22/08/2025:</t>
     </r>
@@ -280,7 +273,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> en cuanto al Api, se realizó la entrega del último método con todos los ajustes y validaciones requeridas, adicionalmente se entregó la documentación técnica al día
 Queda la implementación por parte de ellos, pruebas de integración y paso a producción.
@@ -292,7 +284,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">27/08/2025: </t>
     </r>
@@ -301,7 +292,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Se revisa en conjunto con el cliente  de funcionamiento del ultimo método, punto 4, se realizan ajustes de forma en la generación de mensajes de éxito y se ajusta documentación 
 Se realiza ajuste para q reciba solamente documentación de la solicitud sin anexo, esto en caso de falla al momento de la generación de los anexos.</t>
@@ -323,7 +313,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">14/08/2025: </t>
     </r>
@@ -332,7 +321,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>En cuanto a los desarrollo del Api, ayer definieron que no vamos a realizar la conexión si no que ellos nos envían los datos necesarios, les expliqué la lógica al respecto y como nos deben enviar los datos, surge el cambio en el servicio para recibir y validar los datos.
 En este caso no quisieron avalar la librería solicitada y para poder poner la que nos ofrecieron nos tocaba migrar todo el Api.
@@ -701,6 +689,21 @@
     <t>Solicitud de usuario para validar documentos para cobros</t>
   </si>
   <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radican caso </t>
+  </si>
+  <si>
+    <t>Usuario radica caso con inconvenientes con solicitud, se valida y se evidencia que fue eliminada por parte de Tuya</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Año Nuevo</t>
   </si>
   <si>
@@ -780,7 +783,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -788,20 +790,17 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -809,34 +808,29 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -844,13 +838,11 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -858,20 +850,17 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -879,7 +868,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -887,14 +875,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -902,21 +888,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -924,14 +907,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -939,7 +920,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -947,7 +927,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -955,61 +934,52 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2055,9 +2025,9 @@
   </sheetPr>
   <dimension ref="A1:AM945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2186,7 +2156,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="23">
         <f ca="1">IF(ISBLANK(L2), NETWORKDAYS(J2, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J2, L2, Hoja2!$A$1:$A$18))</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N2" s="24"/>
       <c r="O2" s="25"/>
@@ -2248,7 +2218,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38">
         <f ca="1">IF(ISBLANK(L3), NETWORKDAYS(J3, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J3, L3, Hoja2!$A$1:$A$18))</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N3" s="39"/>
       <c r="O3" s="40"/>
@@ -2310,7 +2280,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23">
         <f ca="1">IF(ISBLANK(L4), NETWORKDAYS(J4, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J4, L4, Hoja2!$A$1:$A$18))</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="25"/>
@@ -2372,7 +2342,7 @@
       <c r="L5" s="36"/>
       <c r="M5" s="38">
         <f ca="1">IF(ISBLANK(L5), NETWORKDAYS(J5, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J5, L5, Hoja2!$A$1:$A$18))</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N5" s="39"/>
       <c r="O5" s="40"/>
@@ -2434,7 +2404,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="23">
         <f ca="1">IF(ISBLANK(L6), NETWORKDAYS(J6, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J6, L6, Hoja2!$A$1:$A$18))</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="25"/>
@@ -2496,7 +2466,7 @@
       <c r="L7" s="45"/>
       <c r="M7" s="38">
         <f ca="1">IF(ISBLANK(L7), NETWORKDAYS(J7, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J7, L7, Hoja2!$A$1:$A$18))</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="47"/>
@@ -2558,7 +2528,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="23">
         <f ca="1">IF(ISBLANK(L8), NETWORKDAYS(J8, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J8, L8, Hoja2!$A$1:$A$18))</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="50"/>
@@ -2620,7 +2590,7 @@
       <c r="L9" s="36"/>
       <c r="M9" s="38">
         <f ca="1">IF(ISBLANK(L9), NETWORKDAYS(J9, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J9, L9, Hoja2!$A$1:$A$18))</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="47"/>
@@ -2682,7 +2652,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="23">
         <f ca="1">IF(ISBLANK(L10), NETWORKDAYS(J16, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J16, L10, Hoja2!$A$1:$A$18))</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="50"/>
@@ -2742,7 +2712,7 @@
       <c r="L11" s="37"/>
       <c r="M11" s="38">
         <f ca="1">IF(ISBLANK(L11), NETWORKDAYS(J17, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J17, L11, Hoja2!$A$1:$A$18))</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N11" s="37"/>
       <c r="O11" s="47"/>
@@ -2804,7 +2774,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="23">
         <f ca="1">IF(ISBLANK(L12), NETWORKDAYS(J18, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J18, L12, Hoja2!$A$1:$A$18))</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="50"/>
@@ -2864,7 +2834,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38">
         <f ca="1">IF(ISBLANK(L13), NETWORKDAYS(J19, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J19, L13, Hoja2!$A$1:$A$18))</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="47"/>
@@ -2928,7 +2898,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="23">
         <f ca="1">IF(ISBLANK(L14), NETWORKDAYS(J20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J20, L14, Hoja2!$A$1:$A$18))</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="50"/>
@@ -2992,7 +2962,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38">
         <f ca="1">IF(ISBLANK(L15), NETWORKDAYS(J21, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J21, L15, Hoja2!$A$1:$A$18))</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="47"/>
@@ -3056,7 +3026,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="23">
         <f ca="1">IF(ISBLANK(L16), NETWORKDAYS(J22, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J22, L16, Hoja2!$A$1:$A$18))</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N16" s="78">
         <v>45940</v>
@@ -3120,7 +3090,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="38">
         <f ca="1">IF(ISBLANK(L17), NETWORKDAYS(J23, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J23, L17, Hoja2!$A$1:$A$18))</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="47"/>
@@ -3184,7 +3154,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="23">
         <f ca="1">IF(ISBLANK(L18), NETWORKDAYS(J24, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J24, L18, Hoja2!$A$1:$A$18))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N18" s="78">
         <v>45940</v>
@@ -3252,7 +3222,7 @@
       <c r="L19" s="37"/>
       <c r="M19" s="38">
         <f ca="1">IF(ISBLANK(L19), NETWORKDAYS(J25, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J25, L19, Hoja2!$A$1:$A$18))</f>
-        <v>32827</v>
+        <v>32829</v>
       </c>
       <c r="N19" s="90">
         <v>45940</v>
@@ -3316,7 +3286,7 @@
       <c r="L20" s="87"/>
       <c r="M20" s="23">
         <f ca="1">IF(ISBLANK(L20), NETWORKDAYS(J26, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J26, L20, Hoja2!$A$1:$A$18))</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N20" s="95"/>
       <c r="O20" s="50"/>
@@ -3514,7 +3484,7 @@
       <c r="O23" s="47"/>
       <c r="P23" s="102"/>
       <c r="Q23" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R23" s="43"/>
       <c r="S23" s="43"/>
@@ -3575,8 +3545,8 @@
       <c r="N24" s="95"/>
       <c r="O24" s="50"/>
       <c r="P24" s="105"/>
-      <c r="Q24" s="42" t="s">
-        <v>191</v>
+      <c r="Q24" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R24" s="28"/>
       <c r="S24" s="28"/>
@@ -3636,7 +3606,7 @@
       <c r="O25" s="47"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R25" s="43"/>
       <c r="S25" s="43"/>
@@ -3699,8 +3669,8 @@
       <c r="P26" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="Q26" s="42" t="s">
-        <v>191</v>
+      <c r="Q26" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R26" s="28"/>
       <c r="S26" s="28"/>
@@ -3764,7 +3734,7 @@
         <v>109</v>
       </c>
       <c r="Q27" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R27" s="43"/>
       <c r="S27" s="43"/>
@@ -3825,8 +3795,8 @@
       <c r="N28" s="95"/>
       <c r="O28" s="50"/>
       <c r="P28" s="105"/>
-      <c r="Q28" s="42" t="s">
-        <v>191</v>
+      <c r="Q28" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
@@ -3890,7 +3860,7 @@
         <v>115</v>
       </c>
       <c r="Q29" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R29" s="43"/>
       <c r="S29" s="43"/>
@@ -3953,8 +3923,8 @@
       <c r="P30" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="Q30" s="42" t="s">
-        <v>191</v>
+      <c r="Q30" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R30" s="28"/>
       <c r="S30" s="28"/>
@@ -4016,7 +3986,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="108"/>
       <c r="Q31" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R31" s="43"/>
       <c r="S31" s="43"/>
@@ -4077,8 +4047,8 @@
       <c r="N32" s="95"/>
       <c r="O32" s="50"/>
       <c r="P32" s="105"/>
-      <c r="Q32" s="42" t="s">
-        <v>191</v>
+      <c r="Q32" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R32" s="28"/>
       <c r="S32" s="28"/>
@@ -4142,7 +4112,7 @@
         <v>128</v>
       </c>
       <c r="Q33" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R33" s="43"/>
       <c r="S33" s="43"/>
@@ -4205,8 +4175,8 @@
       <c r="N34" s="95"/>
       <c r="O34" s="50"/>
       <c r="P34" s="105"/>
-      <c r="Q34" s="42" t="s">
-        <v>191</v>
+      <c r="Q34" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R34" s="28"/>
       <c r="S34" s="28"/>
@@ -4262,7 +4232,7 @@
       <c r="L35" s="45"/>
       <c r="M35" s="38">
         <f ca="1">IF(ISBLANK(L35), NETWORKDAYS(J41, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J41, L35, Hoja2!$A$1:$A$18))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N35" s="90">
         <v>45953</v>
@@ -4272,7 +4242,7 @@
         <v>136</v>
       </c>
       <c r="Q35" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R35" s="43"/>
       <c r="S35" s="43"/>
@@ -4328,7 +4298,7 @@
       <c r="L36" s="87"/>
       <c r="M36" s="23">
         <f ca="1">IF(ISBLANK(L36), NETWORKDAYS(J42, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J42, L36, Hoja2!$A$1:$A$18))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N36" s="78">
         <v>45940</v>
@@ -4339,8 +4309,8 @@
       <c r="P36" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="42" t="s">
-        <v>191</v>
+      <c r="Q36" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
@@ -4402,7 +4372,7 @@
       <c r="O37" s="47"/>
       <c r="P37" s="102"/>
       <c r="Q37" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R37" s="43"/>
       <c r="S37" s="43"/>
@@ -4465,8 +4435,8 @@
       <c r="P38" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="Q38" s="42" t="s">
-        <v>191</v>
+      <c r="Q38" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
@@ -4528,7 +4498,7 @@
       <c r="O39" s="47"/>
       <c r="P39" s="102"/>
       <c r="Q39" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R39" s="128"/>
       <c r="S39" s="128"/>
@@ -4591,8 +4561,8 @@
       <c r="P40" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="Q40" s="42" t="s">
-        <v>191</v>
+      <c r="Q40" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R40" s="130"/>
       <c r="S40" s="130"/>
@@ -4656,7 +4626,7 @@
         <v>154</v>
       </c>
       <c r="Q41" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R41" s="128"/>
       <c r="S41" s="128"/>
@@ -4712,15 +4682,15 @@
       </c>
       <c r="M42" s="23">
         <f ca="1">IF(ISBLANK(L42), NETWORKDAYS(J48, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J48, L42, Hoja2!$A$1:$A$18))</f>
-        <v>32814</v>
+        <v>-16</v>
       </c>
       <c r="N42" s="95"/>
       <c r="O42" s="50"/>
       <c r="P42" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="Q42" s="42" t="s">
-        <v>191</v>
+      <c r="Q42" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R42" s="130"/>
       <c r="S42" s="130"/>
@@ -4774,7 +4744,7 @@
       <c r="L43" s="89"/>
       <c r="M43" s="38">
         <f ca="1">IF(ISBLANK(L43), NETWORKDAYS(J49, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J49, L43, Hoja2!$A$1:$A$18))</f>
-        <v>32827</v>
+        <v>1</v>
       </c>
       <c r="N43" s="46"/>
       <c r="O43" s="47"/>
@@ -4782,7 +4752,7 @@
         <v>150</v>
       </c>
       <c r="Q43" s="42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R43" s="128"/>
       <c r="S43" s="128"/>
@@ -4836,15 +4806,15 @@
       <c r="L44" s="77"/>
       <c r="M44" s="23">
         <f ca="1">IF(ISBLANK(L44), NETWORKDAYS(J50, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J50, L44, Hoja2!$A$1:$A$18))</f>
-        <v>32827</v>
+        <v>32829</v>
       </c>
       <c r="N44" s="95"/>
       <c r="O44" s="50"/>
       <c r="P44" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="Q44" s="42" t="s">
-        <v>191</v>
+      <c r="Q44" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="R44" s="130"/>
       <c r="S44" s="130"/>
@@ -5012,10 +4982,10 @@
       </c>
       <c r="E47" s="112"/>
       <c r="F47" s="123" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G47" s="124">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H47" s="113"/>
       <c r="I47" s="46"/>
@@ -5023,8 +4993,13 @@
         <v>45980</v>
       </c>
       <c r="K47" s="45"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="38"/>
+      <c r="L47" s="89">
+        <v>45982</v>
+      </c>
+      <c r="M47" s="38">
+        <f ca="1">IF(ISBLANK(L47), NETWORKDAYS(J53, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J53, L47, Hoja2!$A$1:$A$18))</f>
+        <v>32829</v>
+      </c>
       <c r="N47" s="46"/>
       <c r="O47" s="47"/>
       <c r="P47" s="118"/>
@@ -5054,24 +5029,47 @@
       <c r="AL47" s="128"/>
       <c r="AM47" s="129"/>
     </row>
-    <row r="48" spans="1:39">
-      <c r="A48" s="143"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="149"/>
-      <c r="O48" s="153"/>
-      <c r="P48" s="154"/>
-      <c r="Q48" s="155"/>
+    <row r="48" spans="1:39" ht="24" hidden="1">
+      <c r="A48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="109"/>
+      <c r="F48" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="126">
+        <v>100</v>
+      </c>
+      <c r="H48" s="110"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="111">
+        <v>45982</v>
+      </c>
+      <c r="K48" s="87"/>
+      <c r="L48" s="77">
+        <v>45982</v>
+      </c>
+      <c r="M48" s="23">
+        <f ca="1">IF(ISBLANK(L48), NETWORKDAYS(J54, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J54, L48, Hoja2!$A$1:$A$18))</f>
+        <v>32829</v>
+      </c>
+      <c r="N48" s="95"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q48" s="141" t="s">
+        <v>165</v>
+      </c>
       <c r="R48" s="130"/>
       <c r="S48" s="130"/>
       <c r="T48" s="130"/>
@@ -5095,46 +5093,67 @@
       <c r="AL48" s="130"/>
       <c r="AM48" s="131"/>
     </row>
-    <row r="49" spans="1:39">
-      <c r="A49" s="156"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="163"/>
-      <c r="K49" s="164"/>
-      <c r="L49" s="164"/>
-      <c r="M49" s="165"/>
-      <c r="N49" s="162"/>
-      <c r="O49" s="166"/>
-      <c r="P49" s="167"/>
-      <c r="Q49" s="168"/>
-      <c r="R49" s="136"/>
-      <c r="S49" s="136"/>
-      <c r="T49" s="136"/>
-      <c r="U49" s="136"/>
-      <c r="V49" s="136"/>
-      <c r="W49" s="136"/>
-      <c r="X49" s="136"/>
-      <c r="Y49" s="136"/>
-      <c r="Z49" s="136"/>
-      <c r="AA49" s="136"/>
-      <c r="AB49" s="136"/>
-      <c r="AC49" s="136"/>
-      <c r="AD49" s="136"/>
-      <c r="AE49" s="136"/>
-      <c r="AF49" s="136"/>
-      <c r="AG49" s="136"/>
-      <c r="AH49" s="136"/>
-      <c r="AI49" s="136"/>
-      <c r="AJ49" s="136"/>
-      <c r="AK49" s="136"/>
-      <c r="AL49" s="136"/>
-      <c r="AM49" s="137"/>
+    <row r="49" spans="1:39" hidden="1">
+      <c r="A49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="112"/>
+      <c r="F49" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="124">
+        <v>100</v>
+      </c>
+      <c r="H49" s="113"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="114">
+        <v>45982</v>
+      </c>
+      <c r="K49" s="45"/>
+      <c r="L49" s="89">
+        <v>45982</v>
+      </c>
+      <c r="M49" s="38">
+        <f ca="1">IF(ISBLANK(L49), NETWORKDAYS(J55, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J55, L49, Hoja2!$A$1:$A$18))</f>
+        <v>32829</v>
+      </c>
+      <c r="N49" s="46"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="R49" s="128"/>
+      <c r="S49" s="128"/>
+      <c r="T49" s="128"/>
+      <c r="U49" s="128"/>
+      <c r="V49" s="128"/>
+      <c r="W49" s="128"/>
+      <c r="X49" s="128"/>
+      <c r="Y49" s="128"/>
+      <c r="Z49" s="128"/>
+      <c r="AA49" s="128"/>
+      <c r="AB49" s="128"/>
+      <c r="AC49" s="128"/>
+      <c r="AD49" s="128"/>
+      <c r="AE49" s="128"/>
+      <c r="AF49" s="128"/>
+      <c r="AG49" s="128"/>
+      <c r="AH49" s="128"/>
+      <c r="AI49" s="128"/>
+      <c r="AJ49" s="128"/>
+      <c r="AK49" s="128"/>
+      <c r="AL49" s="128"/>
+      <c r="AM49" s="129"/>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="143"/>
@@ -41873,7 +41892,7 @@
       <c r="AM945" s="185"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM47">
+  <autoFilter ref="A1:AM49">
     <filterColumn colId="16">
       <filters>
         <filter val="VERDADERO"/>
@@ -41914,7 +41933,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="187" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -41922,7 +41941,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="187" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -41930,7 +41949,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="187" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -41938,7 +41957,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -41946,7 +41965,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="187" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -41954,7 +41973,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="187" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -41962,7 +41981,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="187" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -41970,7 +41989,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="187" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -41978,7 +41997,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="187" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -41986,7 +42005,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="187" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -41994,7 +42013,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="187" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -42002,7 +42021,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="187" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -42010,7 +42029,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="187" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -42018,7 +42037,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="187" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -42026,7 +42045,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="187" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -42034,7 +42053,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="187" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -42042,7 +42061,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="187" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -42050,7 +42069,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="187" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1"/>

--- a/Tuya.xlsx
+++ b/Tuya.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="267">
   <si>
     <t>Asignado a</t>
   </si>
@@ -885,6 +885,30 @@
   </si>
   <si>
     <t>31/12/2025: Se realiza la validación con el area encargada y se brinda colaboración para volver a inciar el servicio el cual quedo inactivo luego de un reinicio</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Soporte Imagine</t>
+  </si>
+  <si>
+    <t>Solicitaron revision de reporte de imagenes eliminadas ya que no encuentran las imagenes</t>
+  </si>
+  <si>
+    <t>05/01/2026: Se realizan las validaciones sobre las solicitudes reprotadas, se hace un analisis de los los y se brinda la información sobre el proceso para las imagenes eliminadas y como funciona la revisión de los logs.</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>Ajuste Log API Imagine</t>
+  </si>
+  <si>
+    <t>Se recibe requerimiento en el cual se solicita ajustar los logs del API de Imagine para que guarde el body que se esta enviando en las peticiones que fallan al entregar documentos al servicio del cliente</t>
   </si>
   <si>
     <t xml:space="preserve"> Año Nuevo</t>
@@ -1918,22 +1942,7 @@
     <xf borderId="5" fillId="3" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="5" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1955,6 +1964,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2478,7 +2502,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="23">
         <f>IF(ISBLANK(L2), NETWORKDAYS(J2, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J2, L2, Hoja2!$A$1:$A$18))</f>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N2" s="24"/>
       <c r="O2" s="25"/>
@@ -2540,7 +2564,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38">
         <f>IF(ISBLANK(L3), NETWORKDAYS(J3, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J3, L3, Hoja2!$A$1:$A$18))</f>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N3" s="39"/>
       <c r="O3" s="40"/>
@@ -2602,7 +2626,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23">
         <f>IF(ISBLANK(L4), NETWORKDAYS(J4, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J4, L4, Hoja2!$A$1:$A$18))</f>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="25"/>
@@ -2664,7 +2688,7 @@
       <c r="L5" s="36"/>
       <c r="M5" s="38">
         <f>IF(ISBLANK(L5), NETWORKDAYS(J5, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J5, L5, Hoja2!$A$1:$A$18))</f>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N5" s="39"/>
       <c r="O5" s="40"/>
@@ -2726,7 +2750,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="23">
         <f>IF(ISBLANK(L6), NETWORKDAYS(J6, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J6, L6, Hoja2!$A$1:$A$18))</f>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="25"/>
@@ -2788,7 +2812,7 @@
       <c r="L7" s="46"/>
       <c r="M7" s="38">
         <f>IF(ISBLANK(L7), NETWORKDAYS(J7, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J7, L7, Hoja2!$A$1:$A$18))</f>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N7" s="47"/>
       <c r="O7" s="48"/>
@@ -2850,7 +2874,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="23">
         <f>IF(ISBLANK(L8), NETWORKDAYS(J8, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J8, L8, Hoja2!$A$1:$A$18))</f>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="52"/>
@@ -2912,7 +2936,7 @@
       <c r="L9" s="36"/>
       <c r="M9" s="38">
         <f>IF(ISBLANK(L9), NETWORKDAYS(J9, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J9, L9, Hoja2!$A$1:$A$18))</f>
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N9" s="47"/>
       <c r="O9" s="48"/>
@@ -2974,7 +2998,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="23">
         <f>IF(ISBLANK(L10), NETWORKDAYS(J10, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J10, L10, Hoja2!$A$1:$A$18))</f>
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="52"/>
@@ -3034,7 +3058,7 @@
       <c r="L11" s="37"/>
       <c r="M11" s="38">
         <f>IF(ISBLANK(L11), NETWORKDAYS(J11, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J11, L11, Hoja2!$A$1:$A$18))</f>
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N11" s="37"/>
       <c r="O11" s="48"/>
@@ -3096,7 +3120,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="23">
         <f>IF(ISBLANK(L12), NETWORKDAYS(J12, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J12, L12, Hoja2!$A$1:$A$18))</f>
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="52"/>
@@ -3156,7 +3180,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38">
         <f>IF(ISBLANK(L13), NETWORKDAYS(J13, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J13, L13, Hoja2!$A$1:$A$18))</f>
-        <v>32857</v>
+        <v>32861</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="48"/>
@@ -3220,7 +3244,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="23">
         <f>IF(ISBLANK(L14), NETWORKDAYS(J14, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J14, L14, Hoja2!$A$1:$A$18))</f>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="52"/>
@@ -3284,7 +3308,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38">
         <f>IF(ISBLANK(L15), NETWORKDAYS(J15, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J15, L15, Hoja2!$A$1:$A$18))</f>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="48"/>
@@ -3414,7 +3438,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="38">
         <f>IF(ISBLANK(L17), NETWORKDAYS(J17, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J17, L17, Hoja2!$A$1:$A$18))</f>
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="48"/>
@@ -3616,7 +3640,7 @@
       <c r="L20" s="88"/>
       <c r="M20" s="23">
         <f>IF(ISBLANK(L20), NETWORKDAYS(J20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J20, L20, Hoja2!$A$1:$A$18))</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N20" s="96"/>
       <c r="O20" s="52"/>
@@ -4562,7 +4586,7 @@
       <c r="L35" s="46"/>
       <c r="M35" s="38">
         <f>IF(ISBLANK(L35), NETWORKDAYS(J35, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J35, L35, Hoja2!$A$1:$A$18))</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N35" s="92">
         <v>45953.0</v>
@@ -5076,7 +5100,7 @@
       <c r="L43" s="90"/>
       <c r="M43" s="38">
         <f>IF(ISBLANK(L43), NETWORKDAYS(J43, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J43, L43, Hoja2!$A$1:$A$18))</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N43" s="47"/>
       <c r="O43" s="48"/>
@@ -6862,23 +6886,46 @@
       <c r="AM70" s="132"/>
     </row>
     <row r="71">
-      <c r="A71" s="167"/>
-      <c r="B71" s="168"/>
-      <c r="C71" s="169"/>
-      <c r="D71" s="114"/>
+      <c r="A71" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="108" t="s">
+        <v>209</v>
+      </c>
       <c r="E71" s="114"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="170"/>
+      <c r="F71" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="125">
+        <v>100.0</v>
+      </c>
       <c r="H71" s="115"/>
       <c r="I71" s="47"/>
-      <c r="J71" s="46"/>
+      <c r="J71" s="116">
+        <v>45662.0</v>
+      </c>
       <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="64"/>
+      <c r="L71" s="116">
+        <v>45662.0</v>
+      </c>
+      <c r="M71" s="151">
+        <f>IF(ISBLANK(L71), NETWORKDAYS(J71, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J71, L71, Hoja2!$A$1:$A$18))</f>
+        <v>0</v>
+      </c>
       <c r="N71" s="47"/>
       <c r="O71" s="48"/>
-      <c r="P71" s="171"/>
-      <c r="Q71" s="172"/>
+      <c r="P71" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q71" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="R71" s="134"/>
       <c r="S71" s="135"/>
       <c r="T71" s="135"/>
@@ -6903,23 +6950,43 @@
       <c r="AM71" s="136"/>
     </row>
     <row r="72">
-      <c r="A72" s="173"/>
-      <c r="B72" s="174"/>
-      <c r="C72" s="175"/>
-      <c r="D72" s="111"/>
+      <c r="A72" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="166" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="158" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="109" t="s">
+        <v>244</v>
+      </c>
       <c r="E72" s="111"/>
-      <c r="F72" s="176"/>
-      <c r="G72" s="177"/>
+      <c r="F72" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="127">
+        <v>100.0</v>
+      </c>
       <c r="H72" s="112"/>
       <c r="I72" s="96"/>
-      <c r="J72" s="88"/>
+      <c r="J72" s="77">
+        <v>46027.0</v>
+      </c>
       <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
+      <c r="L72" s="77">
+        <v>46034.0</v>
+      </c>
       <c r="M72" s="68"/>
       <c r="N72" s="96"/>
       <c r="O72" s="52"/>
-      <c r="P72" s="178"/>
-      <c r="Q72" s="179"/>
+      <c r="P72" s="160" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q72" s="161" t="s">
+        <v>16</v>
+      </c>
       <c r="R72" s="138"/>
       <c r="S72" s="131"/>
       <c r="T72" s="131"/>
@@ -6944,13 +7011,25 @@
       <c r="AM72" s="132"/>
     </row>
     <row r="73">
-      <c r="A73" s="167"/>
-      <c r="B73" s="168"/>
-      <c r="C73" s="169"/>
-      <c r="D73" s="114"/>
+      <c r="A73" s="133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="162" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="163" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" s="108" t="s">
+        <v>248</v>
+      </c>
       <c r="E73" s="114"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="170"/>
+      <c r="F73" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="125">
+        <v>0.0</v>
+      </c>
       <c r="H73" s="115"/>
       <c r="I73" s="47"/>
       <c r="J73" s="46"/>
@@ -6959,8 +7038,10 @@
       <c r="M73" s="64"/>
       <c r="N73" s="47"/>
       <c r="O73" s="48"/>
-      <c r="P73" s="171"/>
-      <c r="Q73" s="172"/>
+      <c r="P73" s="167"/>
+      <c r="Q73" s="165" t="s">
+        <v>16</v>
+      </c>
       <c r="R73" s="134"/>
       <c r="S73" s="135"/>
       <c r="T73" s="135"/>
@@ -6985,13 +7066,13 @@
       <c r="AM73" s="136"/>
     </row>
     <row r="74">
-      <c r="A74" s="173"/>
-      <c r="B74" s="174"/>
-      <c r="C74" s="175"/>
+      <c r="A74" s="168"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="170"/>
       <c r="D74" s="111"/>
       <c r="E74" s="111"/>
-      <c r="F74" s="176"/>
-      <c r="G74" s="177"/>
+      <c r="F74" s="171"/>
+      <c r="G74" s="172"/>
       <c r="H74" s="112"/>
       <c r="I74" s="96"/>
       <c r="J74" s="88"/>
@@ -7000,8 +7081,8 @@
       <c r="M74" s="68"/>
       <c r="N74" s="96"/>
       <c r="O74" s="52"/>
-      <c r="P74" s="178"/>
-      <c r="Q74" s="179"/>
+      <c r="P74" s="173"/>
+      <c r="Q74" s="174"/>
       <c r="R74" s="138"/>
       <c r="S74" s="131"/>
       <c r="T74" s="131"/>
@@ -7026,13 +7107,13 @@
       <c r="AM74" s="132"/>
     </row>
     <row r="75">
-      <c r="A75" s="167"/>
-      <c r="B75" s="168"/>
-      <c r="C75" s="169"/>
+      <c r="A75" s="175"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="177"/>
       <c r="D75" s="114"/>
       <c r="E75" s="114"/>
       <c r="F75" s="45"/>
-      <c r="G75" s="170"/>
+      <c r="G75" s="178"/>
       <c r="H75" s="115"/>
       <c r="I75" s="47"/>
       <c r="J75" s="46"/>
@@ -7041,8 +7122,8 @@
       <c r="M75" s="64"/>
       <c r="N75" s="47"/>
       <c r="O75" s="48"/>
-      <c r="P75" s="171"/>
-      <c r="Q75" s="172"/>
+      <c r="P75" s="167"/>
+      <c r="Q75" s="179"/>
       <c r="R75" s="134"/>
       <c r="S75" s="135"/>
       <c r="T75" s="135"/>
@@ -7067,13 +7148,13 @@
       <c r="AM75" s="136"/>
     </row>
     <row r="76">
-      <c r="A76" s="173"/>
-      <c r="B76" s="174"/>
-      <c r="C76" s="175"/>
+      <c r="A76" s="168"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="170"/>
       <c r="D76" s="111"/>
       <c r="E76" s="111"/>
-      <c r="F76" s="176"/>
-      <c r="G76" s="177"/>
+      <c r="F76" s="171"/>
+      <c r="G76" s="172"/>
       <c r="H76" s="112"/>
       <c r="I76" s="96"/>
       <c r="J76" s="88"/>
@@ -7082,8 +7163,8 @@
       <c r="M76" s="68"/>
       <c r="N76" s="96"/>
       <c r="O76" s="52"/>
-      <c r="P76" s="178"/>
-      <c r="Q76" s="179"/>
+      <c r="P76" s="173"/>
+      <c r="Q76" s="174"/>
       <c r="R76" s="138"/>
       <c r="S76" s="131"/>
       <c r="T76" s="131"/>
@@ -7108,13 +7189,13 @@
       <c r="AM76" s="132"/>
     </row>
     <row r="77">
-      <c r="A77" s="167"/>
-      <c r="B77" s="168"/>
-      <c r="C77" s="169"/>
+      <c r="A77" s="175"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="177"/>
       <c r="D77" s="114"/>
       <c r="E77" s="114"/>
       <c r="F77" s="45"/>
-      <c r="G77" s="170"/>
+      <c r="G77" s="178"/>
       <c r="H77" s="115"/>
       <c r="I77" s="47"/>
       <c r="J77" s="46"/>
@@ -7123,8 +7204,8 @@
       <c r="M77" s="64"/>
       <c r="N77" s="47"/>
       <c r="O77" s="48"/>
-      <c r="P77" s="171"/>
-      <c r="Q77" s="172"/>
+      <c r="P77" s="167"/>
+      <c r="Q77" s="179"/>
       <c r="R77" s="134"/>
       <c r="S77" s="135"/>
       <c r="T77" s="135"/>
@@ -42858,7 +42939,7 @@
         <v>45292.0</v>
       </c>
       <c r="B1" s="232" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -42866,7 +42947,7 @@
         <v>45299.0</v>
       </c>
       <c r="B2" s="232" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -42874,7 +42955,7 @@
         <v>45376.0</v>
       </c>
       <c r="B3" s="232" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
@@ -42882,7 +42963,7 @@
         <v>45379.0</v>
       </c>
       <c r="B4" s="232" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
@@ -42890,7 +42971,7 @@
         <v>45380.0</v>
       </c>
       <c r="B5" s="232" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
@@ -42898,7 +42979,7 @@
         <v>45413.0</v>
       </c>
       <c r="B6" s="232" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
@@ -42906,7 +42987,7 @@
         <v>45425.0</v>
       </c>
       <c r="B7" s="232" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
@@ -42914,7 +42995,7 @@
         <v>45446.0</v>
       </c>
       <c r="B8" s="232" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
@@ -42922,7 +43003,7 @@
         <v>45453.0</v>
       </c>
       <c r="B9" s="232" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
@@ -42930,7 +43011,7 @@
         <v>45474.0</v>
       </c>
       <c r="B10" s="232" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
@@ -42938,7 +43019,7 @@
         <v>45493.0</v>
       </c>
       <c r="B11" s="232" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
@@ -42946,7 +43027,7 @@
         <v>45511.0</v>
       </c>
       <c r="B12" s="232" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
@@ -42954,7 +43035,7 @@
         <v>45523.0</v>
       </c>
       <c r="B13" s="232" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
@@ -42962,7 +43043,7 @@
         <v>45579.0</v>
       </c>
       <c r="B14" s="232" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -42970,7 +43051,7 @@
         <v>45600.0</v>
       </c>
       <c r="B15" s="232" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -42978,7 +43059,7 @@
         <v>45607.0</v>
       </c>
       <c r="B16" s="232" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
@@ -42986,7 +43067,7 @@
         <v>45634.0</v>
       </c>
       <c r="B17" s="232" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -42994,7 +43075,7 @@
         <v>45651.0</v>
       </c>
       <c r="B18" s="232" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1"/>

--- a/Tuya.xlsx
+++ b/Tuya.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="338">
   <si>
     <t>Asignado a</t>
   </si>
@@ -102,7 +102,7 @@
     <t>Se encuentra pausado por el momendo debido a temas de definición de contrato con el cliente</t>
   </si>
   <si>
-    <t>True</t>
+    <t>False</t>
   </si>
   <si>
     <t>Natalia</t>
@@ -150,6 +150,9 @@
   <si>
     <t>Se encuentra pausado por el momendo debido a temas de definición de contrato con el cliente
 02/12/2025: Este aplicativo ya se encuentra deshabilitado, no se tiene mas contrato con el cliente</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
   <si>
     <t>3-1</t>
@@ -211,7 +214,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>24/07/2025:</t>
     </r>
@@ -220,7 +222,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Este pundo depende del cliente que se construye con el punto 1. la funcionalidad de envio a pendientes serviria para ambos servicios.
 </t>
@@ -231,7 +232,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>13/08/2025:</t>
     </r>
@@ -240,7 +240,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> en el momento el cliente se encuentra haciendo pruebas de la indexación de anexos, y la cola de espera.
 En cuanto el 3 punto, estamos en espera de la instalación de una libreria para el consumo de un servicio de Soap, esto ya que por medio de métodos manuales no fue posible para todos los casos. Apenas tenga la autorización lo único que haría falta es desarrollar el cliente y traer los datos que se requieren para indexar la solicitud y sus anexos.
@@ -252,7 +251,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 20/08/2025:</t>
@@ -262,7 +260,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> con respecto a el desarrollo del Api, se realizó lo requerido, sin embargo surgió un cambio muy necesario al recibir los documentos, es el siguiente: "Espero que te encuentres bien. Después de revisar la duda planteada, te cuento que:
 El control para la operación de .zip
@@ -281,7 +278,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>22/08/2025:</t>
     </r>
@@ -290,7 +286,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> en cuanto al Api, se realizó la entrega del último método con todos los ajustes y validaciones requeridas, adicionalmente se entregó la documentación técnica al día
 Queda la implementación por parte de ellos, pruebas de integración y paso a producción.
@@ -302,7 +297,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">27/08/2025: </t>
     </r>
@@ -311,7 +305,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Se revisa en conjunto con el cliente  de funcionamiento del ultimo método, punto 4, se realizan ajustes de forma en la generación de mensajes de éxito y se ajusta documentación 
 Se realiza ajuste para q reciba solamente documentación de la solicitud sin anexo, esto en caso de falla al momento de la generación de los anexos.</t>
@@ -333,7 +326,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">14/08/2025: </t>
     </r>
@@ -342,7 +334,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>En cuanto a los desarrollo del Api, ayer definieron que no vamos a realizar la conexión si no que ellos nos envían los datos necesarios, les expliqué la lógica al respecto y como nos deben enviar los datos, surge el cambio en el servicio para recibir y validar los datos.
 En este caso no quisieron avalar la librería solicitada y para poder poner la que nos ofrecieron nos tocaba migrar todo el Api.
@@ -1216,7 +1207,6 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1224,20 +1214,17 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1245,21 +1232,18 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1271,7 +1255,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1279,19 +1262,16 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1299,27 +1279,23 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1327,7 +1303,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1335,28 +1310,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1364,7 +1335,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1372,14 +1342,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1387,7 +1355,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1395,7 +1362,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1403,55 +1369,47 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1462,13 +1420,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2293,8 +2249,8 @@
   <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2435,7 +2391,7 @@
       NETWORKDAYS(J2,L2,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -2504,7 +2460,7 @@
       NETWORKDAYS(J3,L3,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
@@ -2575,7 +2531,7 @@
       NETWORKDAYS(J4,L4,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -2646,7 +2602,7 @@
       NETWORKDAYS(J5,L5,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -2717,7 +2673,7 @@
       NETWORKDAYS(J6,L6,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -2788,7 +2744,7 @@
       NETWORKDAYS(J7,L7,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -2797,7 +2753,7 @@
         <v>39</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -2827,10 +2783,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>28</v>
@@ -2859,7 +2815,7 @@
       NETWORKDAYS(J8,L8,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -2868,7 +2824,7 @@
         <v>39</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
@@ -2895,16 +2851,16 @@
     </row>
     <row r="9" spans="1:40" ht="53.25" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="39" t="s">
@@ -2930,16 +2886,16 @@
       NETWORKDAYS(J9,L9,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -2966,16 +2922,16 @@
     </row>
     <row r="10" spans="1:40" ht="53.25" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="42" t="s">
@@ -3001,16 +2957,16 @@
       NETWORKDAYS(J10,L10,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
@@ -3037,13 +2993,13 @@
     </row>
     <row r="11" spans="1:40" ht="25.5">
       <c r="A11" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="44"/>
@@ -3070,16 +3026,16 @@
       NETWORKDAYS(J11,L11,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R11" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -3106,16 +3062,16 @@
     </row>
     <row r="12" spans="1:40" ht="408">
       <c r="A12" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="42" t="s">
@@ -3141,16 +3097,16 @@
       NETWORKDAYS(J12,L12,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
@@ -3177,16 +3133,16 @@
     </row>
     <row r="13" spans="1:40" ht="108">
       <c r="A13" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="39" t="s">
@@ -3216,10 +3172,10 @@
       <c r="O13" s="34"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -3249,13 +3205,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="42" t="s">
@@ -3283,16 +3239,16 @@
       NETWORKDAYS(J14,L14,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
@@ -3322,13 +3278,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="39" t="s">
@@ -3356,16 +3312,16 @@
       NETWORKDAYS(J15,L15,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="40"/>
       <c r="Q15" s="46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R15" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -3395,13 +3351,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="42" t="s">
@@ -3441,10 +3397,10 @@
         <v>45974</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
@@ -3474,13 +3430,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="67" t="s">
@@ -3504,13 +3460,13 @@
       NETWORKDAYS(J17,L17,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="40"/>
       <c r="Q17" s="69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" s="37" t="s">
         <v>24</v>
@@ -3543,13 +3499,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="42" t="s">
@@ -3589,10 +3545,10 @@
         <v>45974</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
@@ -3622,13 +3578,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="72"/>
       <c r="F19" s="39" t="s">
@@ -3668,10 +3624,10 @@
         <v>45974</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
@@ -3701,13 +3657,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" s="75"/>
       <c r="F20" s="76" t="s">
@@ -3733,16 +3689,16 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -3772,13 +3728,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="80" t="s">
@@ -3812,10 +3768,10 @@
       <c r="O21" s="34"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R21" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
@@ -3845,13 +3801,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="81" t="s">
@@ -3885,10 +3841,10 @@
       <c r="O22" s="21"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
@@ -3918,13 +3874,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E23" s="83"/>
       <c r="F23" s="80" t="s">
@@ -3959,7 +3915,7 @@
       <c r="P23" s="40"/>
       <c r="Q23" s="84"/>
       <c r="R23" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
@@ -3989,13 +3945,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E24" s="86"/>
       <c r="F24" s="81" t="s">
@@ -4030,7 +3986,7 @@
       <c r="P24" s="43"/>
       <c r="Q24" s="87"/>
       <c r="R24" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
@@ -4060,13 +4016,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" s="83"/>
       <c r="F25" s="80" t="s">
@@ -4099,7 +4055,7 @@
       <c r="P25" s="40"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
@@ -4129,13 +4085,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26" s="86"/>
       <c r="F26" s="81" t="s">
@@ -4169,10 +4125,10 @@
       <c r="O26" s="43"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
@@ -4199,16 +4155,16 @@
     </row>
     <row r="27" spans="1:40" ht="38.25">
       <c r="A27" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E27" s="83"/>
       <c r="F27" s="80" t="s">
@@ -4242,10 +4198,10 @@
       <c r="O27" s="40"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R27" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
@@ -4272,16 +4228,16 @@
     </row>
     <row r="28" spans="1:40" ht="38.25">
       <c r="A28" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" s="91"/>
       <c r="F28" s="81" t="s">
@@ -4316,7 +4272,7 @@
       <c r="P28" s="43"/>
       <c r="Q28" s="87"/>
       <c r="R28" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
@@ -4343,16 +4299,16 @@
     </row>
     <row r="29" spans="1:40" ht="36">
       <c r="A29" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29" s="93"/>
       <c r="F29" s="80" t="s">
@@ -4386,10 +4342,10 @@
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
@@ -4419,13 +4375,13 @@
         <v>18</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" s="91"/>
       <c r="F30" s="81" t="s">
@@ -4459,10 +4415,10 @@
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
       <c r="Q30" s="52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R30" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -4492,13 +4448,13 @@
         <v>18</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" s="88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="93"/>
       <c r="F31" s="80" t="s">
@@ -4533,7 +4489,7 @@
       <c r="P31" s="40"/>
       <c r="Q31" s="90"/>
       <c r="R31" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
@@ -4560,16 +4516,16 @@
     </row>
     <row r="32" spans="1:40" ht="38.25">
       <c r="A32" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="81" t="s">
@@ -4604,7 +4560,7 @@
       <c r="P32" s="43"/>
       <c r="Q32" s="87"/>
       <c r="R32" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
@@ -4634,13 +4590,13 @@
         <v>18</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="80" t="s">
@@ -4674,10 +4630,10 @@
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
       <c r="Q33" s="98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
@@ -4704,16 +4660,16 @@
     </row>
     <row r="34" spans="1:40" ht="38.25">
       <c r="A34" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D34" s="85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E34" s="91"/>
       <c r="F34" s="81" t="s">
@@ -4748,7 +4704,7 @@
       <c r="P34" s="43"/>
       <c r="Q34" s="87"/>
       <c r="R34" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
@@ -4778,17 +4734,17 @@
         <v>18</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D35" s="99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G35" s="31">
         <v>95</v>
@@ -4812,7 +4768,7 @@
       NETWORKDAYS(J35,L35,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N35" s="73"/>
       <c r="O35" s="73">
@@ -4820,10 +4776,10 @@
       </c>
       <c r="P35" s="40"/>
       <c r="Q35" s="36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R35" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S35" s="38"/>
       <c r="T35" s="38"/>
@@ -4850,16 +4806,16 @@
     </row>
     <row r="36" spans="1:40" ht="108">
       <c r="A36" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="42" t="s">
@@ -4899,10 +4855,10 @@
         <v>45974</v>
       </c>
       <c r="Q36" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R36" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
@@ -4932,13 +4888,13 @@
         <v>18</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D37" s="88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="101" t="s">
@@ -4973,7 +4929,7 @@
       <c r="P37" s="40"/>
       <c r="Q37" s="84"/>
       <c r="R37" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
@@ -5003,13 +4959,13 @@
         <v>18</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D38" s="85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E38" s="91"/>
       <c r="F38" s="103" t="s">
@@ -5043,10 +4999,10 @@
       <c r="O38" s="43"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R38" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
@@ -5076,13 +5032,13 @@
         <v>18</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D39" s="88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E39" s="93"/>
       <c r="F39" s="101" t="s">
@@ -5117,7 +5073,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="84"/>
       <c r="R39" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S39" s="106"/>
       <c r="T39" s="106"/>
@@ -5147,13 +5103,13 @@
         <v>18</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C40" s="85" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D40" s="89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E40" s="91"/>
       <c r="F40" s="103" t="s">
@@ -5187,10 +5143,10 @@
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R40" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S40" s="108"/>
       <c r="T40" s="108"/>
@@ -5220,13 +5176,13 @@
         <v>25</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D41" s="88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41" s="93"/>
       <c r="F41" s="101" t="s">
@@ -5260,10 +5216,10 @@
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
       <c r="Q41" s="98" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R41" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S41" s="106"/>
       <c r="T41" s="106"/>
@@ -5293,13 +5249,13 @@
         <v>25</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D42" s="89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42" s="91"/>
       <c r="F42" s="103" t="s">
@@ -5333,10 +5289,10 @@
       <c r="O42" s="43"/>
       <c r="P42" s="43"/>
       <c r="Q42" s="105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R42" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S42" s="108"/>
       <c r="T42" s="108"/>
@@ -5366,17 +5322,17 @@
         <v>18</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E43" s="93"/>
       <c r="F43" s="101" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G43" s="102"/>
       <c r="H43" s="32">
@@ -5396,16 +5352,16 @@
       NETWORKDAYS(J43,L43,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
       <c r="Q43" s="98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R43" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S43" s="106"/>
       <c r="T43" s="106"/>
@@ -5435,13 +5391,13 @@
         <v>18</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E44" s="91"/>
       <c r="F44" s="103" t="s">
@@ -5475,10 +5431,10 @@
       <c r="O44" s="43"/>
       <c r="P44" s="43"/>
       <c r="Q44" s="105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R44" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S44" s="108"/>
       <c r="T44" s="108"/>
@@ -5508,13 +5464,13 @@
         <v>18</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D45" s="88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E45" s="93"/>
       <c r="F45" s="101" t="s">
@@ -5550,10 +5506,10 @@
         <v>45992</v>
       </c>
       <c r="Q45" s="98" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R45" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S45" s="111"/>
       <c r="T45" s="112"/>
@@ -5583,13 +5539,13 @@
         <v>18</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E46" s="91"/>
       <c r="F46" s="103" t="s">
@@ -5623,10 +5579,10 @@
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="105" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S46" s="115"/>
       <c r="T46" s="108"/>
@@ -5656,13 +5612,13 @@
         <v>18</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D47" s="88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E47" s="93"/>
       <c r="F47" s="101" t="s">
@@ -5697,7 +5653,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="98"/>
       <c r="R47" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S47" s="106"/>
       <c r="T47" s="106"/>
@@ -5724,16 +5680,16 @@
     </row>
     <row r="48" spans="1:40" ht="24">
       <c r="A48" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" s="85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E48" s="91"/>
       <c r="F48" s="103" t="s">
@@ -5767,10 +5723,10 @@
       <c r="O48" s="43"/>
       <c r="P48" s="43"/>
       <c r="Q48" s="105" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R48" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S48" s="108"/>
       <c r="T48" s="108"/>
@@ -5800,13 +5756,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D49" s="88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E49" s="93"/>
       <c r="F49" s="101" t="s">
@@ -5840,10 +5796,10 @@
       <c r="O49" s="40"/>
       <c r="P49" s="40"/>
       <c r="Q49" s="98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R49" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S49" s="106"/>
       <c r="T49" s="106"/>
@@ -5873,13 +5829,13 @@
         <v>18</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D50" s="89" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E50" s="91"/>
       <c r="F50" s="103" t="s">
@@ -5915,10 +5871,10 @@
       <c r="O50" s="43"/>
       <c r="P50" s="43"/>
       <c r="Q50" s="105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R50" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S50" s="115"/>
       <c r="T50" s="108"/>
@@ -5948,13 +5904,13 @@
         <v>25</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" s="88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E51" s="93"/>
       <c r="F51" s="101" t="s">
@@ -5990,10 +5946,10 @@
       <c r="O51" s="40"/>
       <c r="P51" s="40"/>
       <c r="Q51" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R51" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S51" s="111"/>
       <c r="T51" s="112"/>
@@ -6023,13 +5979,13 @@
         <v>18</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" s="85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D52" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E52" s="91"/>
       <c r="F52" s="103" t="s">
@@ -6069,10 +6025,10 @@
         <v>46002</v>
       </c>
       <c r="Q52" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R52" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S52" s="116"/>
       <c r="T52" s="117"/>
@@ -6102,13 +6058,13 @@
         <v>18</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D53" s="88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E53" s="93"/>
       <c r="F53" s="101" t="s">
@@ -6150,10 +6106,10 @@
         <v>45992</v>
       </c>
       <c r="Q53" s="36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R53" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S53" s="119"/>
       <c r="T53" s="106"/>
@@ -6180,16 +6136,16 @@
     </row>
     <row r="54" spans="1:40" ht="38.25">
       <c r="A54" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D54" s="89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" s="91"/>
       <c r="F54" s="103" t="s">
@@ -6225,10 +6181,10 @@
       <c r="O54" s="43"/>
       <c r="P54" s="43"/>
       <c r="Q54" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R54" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S54" s="116"/>
       <c r="T54" s="117"/>
@@ -6258,13 +6214,13 @@
         <v>18</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D55" s="82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E55" s="93"/>
       <c r="F55" s="101" t="s">
@@ -6304,10 +6260,10 @@
       </c>
       <c r="P55" s="40"/>
       <c r="Q55" s="36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R55" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S55" s="111"/>
       <c r="T55" s="112"/>
@@ -6334,16 +6290,16 @@
     </row>
     <row r="56" spans="1:40" ht="24">
       <c r="A56" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D56" s="89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E56" s="91"/>
       <c r="F56" s="103" t="s">
@@ -6377,10 +6333,10 @@
       <c r="O56" s="43"/>
       <c r="P56" s="43"/>
       <c r="Q56" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R56" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S56" s="116"/>
       <c r="T56" s="117"/>
@@ -6410,13 +6366,13 @@
         <v>18</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" s="88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E57" s="93"/>
       <c r="F57" s="101" t="s">
@@ -6450,10 +6406,10 @@
       <c r="O57" s="40"/>
       <c r="P57" s="40"/>
       <c r="Q57" s="98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R57" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S57" s="111"/>
       <c r="T57" s="112"/>
@@ -6483,13 +6439,13 @@
         <v>25</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D58" s="89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E58" s="91"/>
       <c r="F58" s="103" t="s">
@@ -6523,10 +6479,10 @@
       <c r="O58" s="43"/>
       <c r="P58" s="43"/>
       <c r="Q58" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S58" s="116"/>
       <c r="T58" s="117"/>
@@ -6553,16 +6509,16 @@
     </row>
     <row r="59" spans="1:40" ht="24">
       <c r="A59" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="88" t="s">
         <v>211</v>
-      </c>
-      <c r="C59" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="D59" s="88" t="s">
-        <v>210</v>
       </c>
       <c r="E59" s="93"/>
       <c r="F59" s="101" t="s">
@@ -6596,10 +6552,10 @@
       <c r="O59" s="40"/>
       <c r="P59" s="40"/>
       <c r="Q59" s="98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R59" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S59" s="111"/>
       <c r="T59" s="112"/>
@@ -6626,16 +6582,16 @@
     </row>
     <row r="60" spans="1:40" ht="24">
       <c r="A60" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D60" s="89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E60" s="91"/>
       <c r="F60" s="103" t="s">
@@ -6669,10 +6625,10 @@
       <c r="O60" s="43"/>
       <c r="P60" s="43"/>
       <c r="Q60" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R60" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S60" s="116"/>
       <c r="T60" s="117"/>
@@ -6702,13 +6658,13 @@
         <v>18</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E61" s="120"/>
       <c r="F61" s="101" t="s">
@@ -6742,10 +6698,10 @@
       <c r="O61" s="122"/>
       <c r="P61" s="122"/>
       <c r="Q61" s="123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R61" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S61" s="124"/>
       <c r="T61" s="125"/>
@@ -6772,16 +6728,16 @@
     </row>
     <row r="62" spans="1:40" ht="24">
       <c r="A62" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D62" s="89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E62" s="91"/>
       <c r="F62" s="103" t="s">
@@ -6815,10 +6771,10 @@
       <c r="O62" s="43"/>
       <c r="P62" s="43"/>
       <c r="Q62" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R62" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S62" s="116"/>
       <c r="T62" s="117"/>
@@ -6845,16 +6801,16 @@
     </row>
     <row r="63" spans="1:40" ht="25.5">
       <c r="A63" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E63" s="93"/>
       <c r="F63" s="101" t="s">
@@ -6888,10 +6844,10 @@
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
       <c r="Q63" s="98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R63" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S63" s="111"/>
       <c r="T63" s="112"/>
@@ -6921,13 +6877,13 @@
         <v>18</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D64" s="89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E64" s="91"/>
       <c r="F64" s="103" t="s">
@@ -6961,10 +6917,10 @@
       <c r="O64" s="43"/>
       <c r="P64" s="43"/>
       <c r="Q64" s="105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R64" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S64" s="116"/>
       <c r="T64" s="117"/>
@@ -6991,16 +6947,16 @@
     </row>
     <row r="65" spans="1:40" ht="38.25">
       <c r="A65" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C65" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D65" s="88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E65" s="93"/>
       <c r="F65" s="101" t="s">
@@ -7034,10 +6990,10 @@
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
       <c r="Q65" s="98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R65" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S65" s="111"/>
       <c r="T65" s="112"/>
@@ -7067,13 +7023,13 @@
         <v>25</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E66" s="91"/>
       <c r="F66" s="103" t="s">
@@ -7107,10 +7063,10 @@
       <c r="O66" s="43"/>
       <c r="P66" s="43"/>
       <c r="Q66" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R66" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S66" s="116"/>
       <c r="T66" s="117"/>
@@ -7140,13 +7096,13 @@
         <v>25</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C67" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E67" s="93"/>
       <c r="F67" s="101" t="s">
@@ -7180,10 +7136,10 @@
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
       <c r="Q67" s="98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R67" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S67" s="111"/>
       <c r="T67" s="112"/>
@@ -7210,16 +7166,16 @@
     </row>
     <row r="68" spans="1:40">
       <c r="A68" s="114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C68" s="127" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="128" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E68" s="91"/>
       <c r="F68" s="103" t="s">
@@ -7253,10 +7209,10 @@
       <c r="O68" s="43"/>
       <c r="P68" s="43"/>
       <c r="Q68" s="129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R68" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S68" s="115"/>
       <c r="T68" s="108"/>
@@ -7286,13 +7242,13 @@
         <v>18</v>
       </c>
       <c r="B69" s="131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C69" s="132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D69" s="88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E69" s="93"/>
       <c r="F69" s="101" t="s">
@@ -7326,10 +7282,10 @@
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
       <c r="Q69" s="133" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R69" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S69" s="111"/>
       <c r="T69" s="112"/>
@@ -7359,13 +7315,13 @@
         <v>18</v>
       </c>
       <c r="B70" s="135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C70" s="127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D70" s="128" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E70" s="91"/>
       <c r="F70" s="103" t="s">
@@ -7399,10 +7355,10 @@
       <c r="O70" s="43"/>
       <c r="P70" s="43"/>
       <c r="Q70" s="129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R70" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S70" s="115"/>
       <c r="T70" s="108"/>
@@ -7432,13 +7388,13 @@
         <v>25</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E71" s="93"/>
       <c r="F71" s="101" t="s">
@@ -7472,10 +7428,10 @@
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
       <c r="Q71" s="98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R71" s="37" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S71" s="111"/>
       <c r="T71" s="112"/>
@@ -7505,13 +7461,13 @@
         <v>18</v>
       </c>
       <c r="B72" s="135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C72" s="127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D72" s="89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E72" s="91"/>
       <c r="F72" s="103" t="s">
@@ -7545,10 +7501,10 @@
       <c r="O72" s="43"/>
       <c r="P72" s="43"/>
       <c r="Q72" s="129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R72" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S72" s="115"/>
       <c r="T72" s="108"/>
@@ -7578,17 +7534,17 @@
         <v>18</v>
       </c>
       <c r="B73" s="131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C73" s="132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D73" s="88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E73" s="93"/>
       <c r="F73" s="101" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G73" s="102"/>
       <c r="H73" s="32">
@@ -7613,7 +7569,7 @@
       <c r="P73" s="40"/>
       <c r="Q73" s="136"/>
       <c r="R73" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S73" s="111"/>
       <c r="T73" s="112"/>
@@ -7643,13 +7599,13 @@
         <v>25</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D74" s="89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E74" s="91"/>
       <c r="F74" s="103" t="s">
@@ -7683,10 +7639,10 @@
       <c r="O74" s="43"/>
       <c r="P74" s="43"/>
       <c r="Q74" s="105" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R74" s="24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S74" s="116"/>
       <c r="T74" s="117"/>
@@ -7716,13 +7672,13 @@
         <v>18</v>
       </c>
       <c r="B75" s="131" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C75" s="82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D75" s="88" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E75" s="93"/>
       <c r="F75" s="101" t="s">
@@ -7760,10 +7716,10 @@
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
       <c r="Q75" s="98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R75" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S75" s="111"/>
       <c r="T75" s="112"/>
@@ -7793,13 +7749,13 @@
         <v>18</v>
       </c>
       <c r="B76" s="135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C76" s="85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D76" s="89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E76" s="91"/>
       <c r="F76" s="103" t="s">
@@ -7835,10 +7791,10 @@
       <c r="O76" s="43"/>
       <c r="P76" s="43"/>
       <c r="Q76" s="105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R76" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S76" s="116"/>
       <c r="T76" s="117"/>
@@ -7868,13 +7824,13 @@
         <v>18</v>
       </c>
       <c r="B77" s="131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C77" s="82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D77" s="88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E77" s="93"/>
       <c r="F77" s="101" t="s">
@@ -7910,10 +7866,10 @@
       <c r="O77" s="40"/>
       <c r="P77" s="40"/>
       <c r="Q77" s="98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R77" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S77" s="111"/>
       <c r="T77" s="112"/>
@@ -7943,13 +7899,13 @@
         <v>18</v>
       </c>
       <c r="B78" s="135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D78" s="89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E78" s="91"/>
       <c r="F78" s="103" t="s">
@@ -7983,10 +7939,10 @@
       <c r="O78" s="43"/>
       <c r="P78" s="43"/>
       <c r="Q78" s="105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R78" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S78" s="116"/>
       <c r="T78" s="117"/>
@@ -8016,13 +7972,13 @@
         <v>18</v>
       </c>
       <c r="B79" s="131" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C79" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D79" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E79" s="93"/>
       <c r="F79" s="101" t="s">
@@ -8056,10 +8012,10 @@
       <c r="O79" s="40"/>
       <c r="P79" s="40"/>
       <c r="Q79" s="98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R79" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S79" s="111"/>
       <c r="T79" s="112"/>
@@ -8089,13 +8045,13 @@
         <v>18</v>
       </c>
       <c r="B80" s="135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D80" s="89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E80" s="91"/>
       <c r="F80" s="103" t="s">
@@ -8135,10 +8091,10 @@
         <v>46043</v>
       </c>
       <c r="Q80" s="105" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R80" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S80" s="116"/>
       <c r="T80" s="117"/>
@@ -8165,16 +8121,16 @@
     </row>
     <row r="81" spans="1:40">
       <c r="A81" s="110" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B81" s="131" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D81" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E81" s="93"/>
       <c r="F81" s="101" t="s">
@@ -8208,10 +8164,10 @@
       <c r="O81" s="40"/>
       <c r="P81" s="40"/>
       <c r="Q81" s="98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R81" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S81" s="111"/>
       <c r="T81" s="112"/>
@@ -8241,13 +8197,13 @@
         <v>18</v>
       </c>
       <c r="B82" s="135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C82" s="85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D82" s="89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E82" s="91"/>
       <c r="F82" s="103" t="s">
@@ -8289,10 +8245,10 @@
         <v>46043</v>
       </c>
       <c r="Q82" s="52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R82" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S82" s="116"/>
       <c r="T82" s="117"/>
@@ -8322,13 +8278,13 @@
         <v>18</v>
       </c>
       <c r="B83" s="131" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C83" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D83" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E83" s="93"/>
       <c r="F83" s="101" t="s">
@@ -8364,10 +8320,10 @@
       <c r="O83" s="40"/>
       <c r="P83" s="40"/>
       <c r="Q83" s="90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R83" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S83" s="111"/>
       <c r="T83" s="112"/>
@@ -8394,16 +8350,16 @@
     </row>
     <row r="84" spans="1:40" ht="24">
       <c r="A84" s="114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B84" s="135" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C84" s="85" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D84" s="89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E84" s="91"/>
       <c r="F84" s="103" t="s">
@@ -8437,10 +8393,10 @@
       <c r="O84" s="43"/>
       <c r="P84" s="43"/>
       <c r="Q84" s="52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R84" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S84" s="116"/>
       <c r="T84" s="117"/>
@@ -8470,13 +8426,13 @@
         <v>18</v>
       </c>
       <c r="B85" s="131" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C85" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D85" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E85" s="93"/>
       <c r="F85" s="101" t="s">
@@ -8510,10 +8466,10 @@
       <c r="O85" s="40"/>
       <c r="P85" s="40"/>
       <c r="Q85" s="90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R85" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S85" s="111"/>
       <c r="T85" s="112"/>
@@ -8540,16 +8496,16 @@
     </row>
     <row r="86" spans="1:40" ht="38.25">
       <c r="A86" s="114" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B86" s="135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C86" s="85" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D86" s="89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E86" s="91"/>
       <c r="F86" s="103" t="s">
@@ -8583,10 +8539,10 @@
       <c r="O86" s="43"/>
       <c r="P86" s="43"/>
       <c r="Q86" s="52" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R86" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S86" s="116"/>
       <c r="T86" s="117"/>
@@ -8616,17 +8572,17 @@
         <v>18</v>
       </c>
       <c r="B87" s="131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C87" s="82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D87" s="88" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E87" s="93"/>
       <c r="F87" s="101" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G87" s="102">
         <v>0</v>
@@ -8653,7 +8609,7 @@
       <c r="P87" s="40"/>
       <c r="Q87" s="90"/>
       <c r="R87" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S87" s="111"/>
       <c r="T87" s="112"/>
@@ -8683,13 +8639,13 @@
         <v>18</v>
       </c>
       <c r="B88" s="135" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C88" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D88" s="89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E88" s="91"/>
       <c r="F88" s="103" t="s">
@@ -8725,10 +8681,10 @@
       <c r="O88" s="43"/>
       <c r="P88" s="43"/>
       <c r="Q88" s="52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R88" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S88" s="116"/>
       <c r="T88" s="117"/>
@@ -8758,13 +8714,13 @@
         <v>18</v>
       </c>
       <c r="B89" s="131" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C89" s="82" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D89" s="88" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E89" s="93"/>
       <c r="F89" s="101" t="s">
@@ -8802,10 +8758,10 @@
       <c r="O89" s="40"/>
       <c r="P89" s="40"/>
       <c r="Q89" s="90" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R89" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S89" s="111"/>
       <c r="T89" s="112"/>
@@ -8832,16 +8788,16 @@
     </row>
     <row r="90" spans="1:40">
       <c r="A90" s="114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B90" s="135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C90" s="85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D90" s="89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E90" s="91"/>
       <c r="F90" s="103" t="s">
@@ -8875,10 +8831,10 @@
       <c r="O90" s="43"/>
       <c r="P90" s="43"/>
       <c r="Q90" s="52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R90" s="130" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S90" s="116"/>
       <c r="T90" s="117"/>
@@ -8908,13 +8864,13 @@
         <v>25</v>
       </c>
       <c r="B91" s="131" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C91" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D91" s="88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E91" s="93"/>
       <c r="F91" s="101" t="s">
@@ -8948,10 +8904,10 @@
       <c r="O91" s="40"/>
       <c r="P91" s="40"/>
       <c r="Q91" s="90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R91" s="134" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="S91" s="111"/>
       <c r="T91" s="112"/>
@@ -9012,7 +8968,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -9020,7 +8976,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -9028,7 +8984,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -9036,7 +8992,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -9044,7 +9000,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -9052,7 +9008,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -9060,7 +9016,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -9068,7 +9024,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -9076,7 +9032,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -9084,7 +9040,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -9092,7 +9048,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -9100,7 +9056,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="138" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -9108,7 +9064,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -9116,7 +9072,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -9124,7 +9080,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -9132,7 +9088,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -9140,7 +9096,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -9148,7 +9104,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -9156,7 +9112,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -9164,7 +9120,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -9172,7 +9128,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="139" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -9180,7 +9136,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="139" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -9188,7 +9144,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="139" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -9196,7 +9152,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="139" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -9204,7 +9160,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="139" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -9212,7 +9168,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="139" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -9220,7 +9176,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="139" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -9228,7 +9184,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="139" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -9236,7 +9192,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="139" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -9244,7 +9200,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="139" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -9252,7 +9208,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -9260,7 +9216,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="139" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -9268,7 +9224,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="139" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -9276,7 +9232,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -9284,7 +9240,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="139" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -9292,7 +9248,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -9300,7 +9256,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -9308,7 +9264,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="139" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -9316,7 +9272,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="139" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -9324,7 +9280,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="139" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -9332,7 +9288,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="139" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -9340,7 +9296,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="139" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -9348,7 +9304,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="139" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -9356,7 +9312,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -9364,7 +9320,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="139" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -9372,7 +9328,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="139" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -9380,7 +9336,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="139" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -9388,7 +9344,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="139" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -9396,7 +9352,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -9404,7 +9360,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="139" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -9412,7 +9368,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="139" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -9420,7 +9376,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -9428,7 +9384,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="139" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>

--- a/Tuya.xlsx
+++ b/Tuya.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="349">
   <si>
     <t>Asignado a</t>
   </si>
@@ -1074,6 +1074,39 @@
   </si>
   <si>
     <t>349</t>
+  </si>
+  <si>
+    <t>Faver Lopez</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Solicitud Investigacion</t>
+  </si>
+  <si>
+    <t>Se requiere información relacionado a la anulacion de unos documentos, esto por una investigacion del area de antifraude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/02/2026: Se realiza la consulta de información y se da respuesta a quien solicita los datos sobre el cliente y el usuario que proceso la solicitud </t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>Reunion Area Anti Fraude</t>
+  </si>
+  <si>
+    <t>Se tuvo reunion con persona del area antifraude para ver informes y log que se les puede proporcionara cceso para los procesos que ellos realizan</t>
+  </si>
+  <si>
+    <t>13/02/2025: Se queda pendiente definir si se pueden mejorar algunos reportes</t>
   </si>
   <si>
     <t xml:space="preserve"> Año Nuevo</t>
@@ -2246,11 +2279,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2391,7 +2424,7 @@
       NETWORKDAYS(J2,L2,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -2460,7 +2493,7 @@
       NETWORKDAYS(J3,L3,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
@@ -2531,7 +2564,7 @@
       NETWORKDAYS(J4,L4,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -2602,7 +2635,7 @@
       NETWORKDAYS(J5,L5,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -2673,7 +2706,7 @@
       NETWORKDAYS(J6,L6,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -2744,7 +2777,7 @@
       NETWORKDAYS(J7,L7,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -2815,7 +2848,7 @@
       NETWORKDAYS(J8,L8,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -2886,7 +2919,7 @@
       NETWORKDAYS(J9,L9,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
@@ -2957,7 +2990,7 @@
       NETWORKDAYS(J10,L10,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -3026,7 +3059,7 @@
       NETWORKDAYS(J11,L11,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
@@ -3097,7 +3130,7 @@
       NETWORKDAYS(J12,L12,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -3239,7 +3272,7 @@
       NETWORKDAYS(J14,L14,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -3312,7 +3345,7 @@
       NETWORKDAYS(J15,L15,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
@@ -3460,7 +3493,7 @@
       NETWORKDAYS(J17,L17,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
@@ -3689,7 +3722,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
@@ -4768,7 +4801,7 @@
       NETWORKDAYS(J35,L35,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N35" s="73"/>
       <c r="O35" s="73">
@@ -5352,7 +5385,7 @@
       NETWORKDAYS(J43,L43,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
@@ -8932,18 +8965,310 @@
       <c r="AM91" s="112"/>
       <c r="AN91" s="113"/>
     </row>
+    <row r="92" spans="1:40" ht="38.25">
+      <c r="A92" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="B92" s="135" t="s">
+        <v>302</v>
+      </c>
+      <c r="C92" s="127" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="E92" s="91"/>
+      <c r="F92" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="104">
+        <v>100</v>
+      </c>
+      <c r="H92" s="19">
+        <f>IF(OR(J92="",K92="",K92&lt;J92),0,NETWORKDAYS(J92,K92,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="43"/>
+      <c r="J92" s="64">
+        <v>46064</v>
+      </c>
+      <c r="K92" s="43"/>
+      <c r="L92" s="64">
+        <v>46064</v>
+      </c>
+      <c r="M92" s="22">
+        <f ca="1">IF(OR(J92="",AND(L92="",TODAY()&lt;J92),AND(L92&lt;&gt;"",L92&lt;J92)),0,
+   IF(L92="",
+      NETWORKDAYS(J92,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J92,L92,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="129" t="s">
+        <v>305</v>
+      </c>
+      <c r="R92" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="S92" s="116"/>
+      <c r="T92" s="117"/>
+      <c r="U92" s="117"/>
+      <c r="V92" s="117"/>
+      <c r="W92" s="117"/>
+      <c r="X92" s="117"/>
+      <c r="Y92" s="117"/>
+      <c r="Z92" s="117"/>
+      <c r="AA92" s="117"/>
+      <c r="AB92" s="117"/>
+      <c r="AC92" s="117"/>
+      <c r="AD92" s="117"/>
+      <c r="AE92" s="117"/>
+      <c r="AF92" s="117"/>
+      <c r="AG92" s="117"/>
+      <c r="AH92" s="117"/>
+      <c r="AI92" s="117"/>
+      <c r="AJ92" s="117"/>
+      <c r="AK92" s="117"/>
+      <c r="AL92" s="117"/>
+      <c r="AM92" s="117"/>
+      <c r="AN92" s="118"/>
+    </row>
+    <row r="93" spans="1:40">
+      <c r="A93" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="131" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="93"/>
+      <c r="F93" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="102">
+        <v>100</v>
+      </c>
+      <c r="H93" s="32">
+        <f>IF(OR(J93="",K93="",K93&lt;J93),0,NETWORKDAYS(J93,K93,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="40"/>
+      <c r="J93" s="73">
+        <v>46064</v>
+      </c>
+      <c r="K93" s="40"/>
+      <c r="L93" s="73">
+        <v>46064</v>
+      </c>
+      <c r="M93" s="35">
+        <f ca="1">IF(OR(J93="",AND(L93="",TODAY()&lt;J93),AND(L93&lt;&gt;"",L93&lt;J93)),0,
+   IF(L93="",
+      NETWORKDAYS(J93,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J93,L93,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="R93" s="134" t="s">
+        <v>40</v>
+      </c>
+      <c r="S93" s="111"/>
+      <c r="T93" s="112"/>
+      <c r="U93" s="112"/>
+      <c r="V93" s="112"/>
+      <c r="W93" s="112"/>
+      <c r="X93" s="112"/>
+      <c r="Y93" s="112"/>
+      <c r="Z93" s="112"/>
+      <c r="AA93" s="112"/>
+      <c r="AB93" s="112"/>
+      <c r="AC93" s="112"/>
+      <c r="AD93" s="112"/>
+      <c r="AE93" s="112"/>
+      <c r="AF93" s="112"/>
+      <c r="AG93" s="112"/>
+      <c r="AH93" s="112"/>
+      <c r="AI93" s="112"/>
+      <c r="AJ93" s="112"/>
+      <c r="AK93" s="112"/>
+      <c r="AL93" s="112"/>
+      <c r="AM93" s="112"/>
+      <c r="AN93" s="113"/>
+    </row>
+    <row r="94" spans="1:40">
+      <c r="A94" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="C94" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="91"/>
+      <c r="F94" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="104">
+        <v>100</v>
+      </c>
+      <c r="H94" s="19">
+        <f>IF(OR(J94="",K94="",K94&lt;J94),0,NETWORKDAYS(J94,K94,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="43"/>
+      <c r="J94" s="64">
+        <v>46065</v>
+      </c>
+      <c r="K94" s="43"/>
+      <c r="L94" s="64">
+        <v>46065</v>
+      </c>
+      <c r="M94" s="22">
+        <f ca="1">IF(OR(J94="",AND(L94="",TODAY()&lt;J94),AND(L94&lt;&gt;"",L94&lt;J94)),0,
+   IF(L94="",
+      NETWORKDAYS(J94,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J94,L94,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="R94" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="S94" s="116"/>
+      <c r="T94" s="117"/>
+      <c r="U94" s="117"/>
+      <c r="V94" s="117"/>
+      <c r="W94" s="117"/>
+      <c r="X94" s="117"/>
+      <c r="Y94" s="117"/>
+      <c r="Z94" s="117"/>
+      <c r="AA94" s="117"/>
+      <c r="AB94" s="117"/>
+      <c r="AC94" s="117"/>
+      <c r="AD94" s="117"/>
+      <c r="AE94" s="117"/>
+      <c r="AF94" s="117"/>
+      <c r="AG94" s="117"/>
+      <c r="AH94" s="117"/>
+      <c r="AI94" s="117"/>
+      <c r="AJ94" s="117"/>
+      <c r="AK94" s="117"/>
+      <c r="AL94" s="117"/>
+      <c r="AM94" s="117"/>
+      <c r="AN94" s="118"/>
+    </row>
+    <row r="95" spans="1:40">
+      <c r="A95" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="131" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" s="132" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E95" s="93"/>
+      <c r="F95" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="102">
+        <v>100</v>
+      </c>
+      <c r="H95" s="32">
+        <f>IF(OR(J95="",K95="",K95&lt;J95),0,NETWORKDAYS(J95,K95,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="40"/>
+      <c r="J95" s="73">
+        <v>46066</v>
+      </c>
+      <c r="K95" s="40"/>
+      <c r="L95" s="73">
+        <v>46066</v>
+      </c>
+      <c r="M95" s="35">
+        <f ca="1">IF(OR(J95="",AND(L95="",TODAY()&lt;J95),AND(L95&lt;&gt;"",L95&lt;J95)),0,
+   IF(L95="",
+      NETWORKDAYS(J95,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J95,L95,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="133" t="s">
+        <v>311</v>
+      </c>
+      <c r="R95" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="S95" s="111"/>
+      <c r="T95" s="112"/>
+      <c r="U95" s="112"/>
+      <c r="V95" s="112"/>
+      <c r="W95" s="112"/>
+      <c r="X95" s="112"/>
+      <c r="Y95" s="112"/>
+      <c r="Z95" s="112"/>
+      <c r="AA95" s="112"/>
+      <c r="AB95" s="112"/>
+      <c r="AC95" s="112"/>
+      <c r="AD95" s="112"/>
+      <c r="AE95" s="112"/>
+      <c r="AF95" s="112"/>
+      <c r="AG95" s="112"/>
+      <c r="AH95" s="112"/>
+      <c r="AI95" s="112"/>
+      <c r="AJ95" s="112"/>
+      <c r="AK95" s="112"/>
+      <c r="AL95" s="112"/>
+      <c r="AM95" s="112"/>
+      <c r="AN95" s="113"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN41"/>
-  <conditionalFormatting sqref="B2:B91">
+  <conditionalFormatting sqref="B2:B95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(B$2:B$16,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L9 J10:L10 I11:L54 N2:P54 I56:L91 N56:P91">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L9 J10:L10 I11:L54 N2:P54 I56:L95 N56:P95">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F91">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F95">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE,PASO A PRODUCCION"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8968,7 +9293,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="138" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -8976,7 +9301,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -8984,7 +9309,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -8992,7 +9317,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -9000,7 +9325,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -9008,7 +9333,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -9016,7 +9341,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -9024,7 +9349,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -9032,7 +9357,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -9040,7 +9365,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="138" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -9048,7 +9373,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -9056,7 +9381,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="138" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -9064,7 +9389,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -9072,7 +9397,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -9080,7 +9405,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -9088,7 +9413,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -9096,7 +9421,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -9104,7 +9429,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -9112,7 +9437,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -9120,7 +9445,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="139" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -9128,7 +9453,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="139" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -9136,7 +9461,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="139" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -9144,7 +9469,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="139" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -9152,7 +9477,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="139" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -9160,7 +9485,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="139" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -9168,7 +9493,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="139" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -9176,7 +9501,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="139" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -9184,7 +9509,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="139" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -9192,7 +9517,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="139" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -9200,7 +9525,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="139" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -9208,7 +9533,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="139" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -9216,7 +9541,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="139" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -9224,7 +9549,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="139" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -9232,7 +9557,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="139" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -9240,7 +9565,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="139" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -9248,7 +9573,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -9256,7 +9581,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="139" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -9264,7 +9589,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="139" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -9272,7 +9597,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="139" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -9280,7 +9605,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="139" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -9288,7 +9613,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="139" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -9296,7 +9621,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="139" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -9304,7 +9629,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="139" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -9312,7 +9637,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="139" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -9320,7 +9645,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="139" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -9328,7 +9653,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="139" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -9336,7 +9661,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="139" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -9344,7 +9669,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="139" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -9352,7 +9677,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="139" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -9360,7 +9685,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="139" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -9368,7 +9693,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="139" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -9376,7 +9701,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="139" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -9384,7 +9709,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="139" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>

--- a/Tuya.xlsx
+++ b/Tuya.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="350">
   <si>
     <t>Asignado a</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>13/02/2025: Se queda pendiente definir si se pueden mejorar algunos reportes</t>
+  </si>
+  <si>
+    <t>354</t>
   </si>
   <si>
     <t xml:space="preserve"> Año Nuevo</t>
@@ -2279,11 +2282,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2424,7 +2427,7 @@
       NETWORKDAYS(J2,L2,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -2493,7 +2496,7 @@
       NETWORKDAYS(J3,L3,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
@@ -2564,7 +2567,7 @@
       NETWORKDAYS(J4,L4,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -2635,7 +2638,7 @@
       NETWORKDAYS(J5,L5,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -2706,7 +2709,7 @@
       NETWORKDAYS(J6,L6,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -2777,7 +2780,7 @@
       NETWORKDAYS(J7,L7,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -2848,7 +2851,7 @@
       NETWORKDAYS(J8,L8,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -2919,7 +2922,7 @@
       NETWORKDAYS(J9,L9,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
@@ -2990,7 +2993,7 @@
       NETWORKDAYS(J10,L10,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -3059,7 +3062,7 @@
       NETWORKDAYS(J11,L11,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
@@ -3130,7 +3133,7 @@
       NETWORKDAYS(J12,L12,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -3272,7 +3275,7 @@
       NETWORKDAYS(J14,L14,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -3345,7 +3348,7 @@
       NETWORKDAYS(J15,L15,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
@@ -3493,7 +3496,7 @@
       NETWORKDAYS(J17,L17,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
@@ -3722,7 +3725,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
@@ -4801,7 +4804,7 @@
       NETWORKDAYS(J35,L35,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N35" s="73"/>
       <c r="O35" s="73">
@@ -5385,7 +5388,7 @@
       NETWORKDAYS(J43,L43,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
@@ -9257,18 +9260,91 @@
       <c r="AM95" s="112"/>
       <c r="AN95" s="113"/>
     </row>
+    <row r="96" spans="1:40">
+      <c r="A96" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96" s="135" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="91"/>
+      <c r="F96" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="104">
+        <v>100</v>
+      </c>
+      <c r="H96" s="19">
+        <f>IF(OR(J96="",K96="",K96&lt;J96),0,NETWORKDAYS(J96,K96,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="43"/>
+      <c r="J96" s="64">
+        <v>46069</v>
+      </c>
+      <c r="K96" s="43"/>
+      <c r="L96" s="64">
+        <v>46069</v>
+      </c>
+      <c r="M96" s="22">
+        <f ca="1">IF(OR(J96="",AND(L96="",TODAY()&lt;J96),AND(L96&lt;&gt;"",L96&lt;J96)),0,
+   IF(L96="",
+      NETWORKDAYS(J96,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J96,L96,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="R96" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="S96" s="116"/>
+      <c r="T96" s="117"/>
+      <c r="U96" s="117"/>
+      <c r="V96" s="117"/>
+      <c r="W96" s="117"/>
+      <c r="X96" s="117"/>
+      <c r="Y96" s="117"/>
+      <c r="Z96" s="117"/>
+      <c r="AA96" s="117"/>
+      <c r="AB96" s="117"/>
+      <c r="AC96" s="117"/>
+      <c r="AD96" s="117"/>
+      <c r="AE96" s="117"/>
+      <c r="AF96" s="117"/>
+      <c r="AG96" s="117"/>
+      <c r="AH96" s="117"/>
+      <c r="AI96" s="117"/>
+      <c r="AJ96" s="117"/>
+      <c r="AK96" s="117"/>
+      <c r="AL96" s="117"/>
+      <c r="AM96" s="117"/>
+      <c r="AN96" s="118"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN41"/>
-  <conditionalFormatting sqref="B2:B95">
+  <conditionalFormatting sqref="B2:B96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(B$2:B$16,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L9 J10:L10 I11:L54 N2:P54 I56:L95 N56:P95">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L9 J10:L10 I11:L54 N2:P54 I56:L96 N56:P96">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F95">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F96">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE,PASO A PRODUCCION"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9293,7 +9369,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -9301,7 +9377,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -9309,7 +9385,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -9317,7 +9393,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -9325,7 +9401,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -9333,7 +9409,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -9341,7 +9417,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -9349,7 +9425,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -9357,7 +9433,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -9365,7 +9441,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="138" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -9373,7 +9449,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -9381,7 +9457,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="138" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -9389,7 +9465,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="138" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -9397,7 +9473,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -9405,7 +9481,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="138" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -9413,7 +9489,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -9421,7 +9497,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -9429,7 +9505,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -9437,7 +9513,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -9445,7 +9521,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="139" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -9453,7 +9529,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="139" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -9461,7 +9537,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -9469,7 +9545,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="139" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -9477,7 +9553,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -9485,7 +9561,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="139" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -9493,7 +9569,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="139" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -9501,7 +9577,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="139" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -9509,7 +9585,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="139" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -9517,7 +9593,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="139" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -9525,7 +9601,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="139" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -9533,7 +9609,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="139" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -9541,7 +9617,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="139" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -9549,7 +9625,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="139" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -9557,7 +9633,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="139" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -9565,7 +9641,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="139" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -9573,7 +9649,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -9581,7 +9657,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="139" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -9589,7 +9665,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="139" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -9597,7 +9673,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -9605,7 +9681,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="139" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -9613,7 +9689,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -9621,7 +9697,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="139" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -9629,7 +9705,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="139" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -9637,7 +9713,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="139" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -9645,7 +9721,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="139" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -9653,7 +9729,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="139" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -9661,7 +9737,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="139" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -9669,7 +9745,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="139" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -9677,7 +9753,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="139" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -9685,7 +9761,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="139" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -9693,7 +9769,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="139" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -9701,7 +9777,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="139" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -9709,7 +9785,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="139" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>

--- a/Tuya.xlsx
+++ b/Tuya.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="353">
   <si>
     <t>Asignado a</t>
   </si>
@@ -1110,6 +1110,15 @@
   </si>
   <si>
     <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>Reporte Venta Cartera</t>
+  </si>
+  <si>
+    <t>Solicitan entregar un reporte de documentos para validar la posibilidad para venta de cartera</t>
   </si>
   <si>
     <t xml:space="preserve"> Año Nuevo</t>
@@ -1495,7 +1504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1652,11 +1661,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1934,9 +1958,6 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2024,9 +2045,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2049,6 +2067,33 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2282,11 +2327,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2427,7 +2472,7 @@
       NETWORKDAYS(J2,L2,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -2496,7 +2541,7 @@
       NETWORKDAYS(J3,L3,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
@@ -2567,7 +2612,7 @@
       NETWORKDAYS(J4,L4,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -2638,7 +2683,7 @@
       NETWORKDAYS(J5,L5,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -2709,7 +2754,7 @@
       NETWORKDAYS(J6,L6,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -2780,7 +2825,7 @@
       NETWORKDAYS(J7,L7,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -2851,7 +2896,7 @@
       NETWORKDAYS(J8,L8,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -2922,7 +2967,7 @@
       NETWORKDAYS(J9,L9,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
@@ -2993,7 +3038,7 @@
       NETWORKDAYS(J10,L10,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -3062,7 +3107,7 @@
       NETWORKDAYS(J11,L11,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
@@ -3133,7 +3178,7 @@
       NETWORKDAYS(J12,L12,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -3275,7 +3320,7 @@
       NETWORKDAYS(J14,L14,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -3348,7 +3393,7 @@
       NETWORKDAYS(J15,L15,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
@@ -3496,7 +3541,7 @@
       NETWORKDAYS(J17,L17,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
@@ -3725,7 +3770,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
@@ -4631,7 +4676,7 @@
       <c r="C33" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="88" t="s">
         <v>130</v>
       </c>
       <c r="E33" s="93"/>
@@ -4665,7 +4710,7 @@
       <c r="N33" s="40"/>
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
-      <c r="Q33" s="98" t="s">
+      <c r="Q33" s="97" t="s">
         <v>131</v>
       </c>
       <c r="R33" s="37" t="s">
@@ -4775,7 +4820,7 @@
       <c r="C35" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="D35" s="98" t="s">
         <v>136</v>
       </c>
       <c r="E35" s="29"/>
@@ -4804,7 +4849,7 @@
       NETWORKDAYS(J35,L35,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N35" s="73"/>
       <c r="O35" s="73">
@@ -4850,7 +4895,7 @@
       <c r="C36" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="99" t="s">
         <v>141</v>
       </c>
       <c r="E36" s="16"/>
@@ -4933,10 +4978,10 @@
         <v>144</v>
       </c>
       <c r="E37" s="93"/>
-      <c r="F37" s="101" t="s">
+      <c r="F37" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="102">
+      <c r="G37" s="101">
         <v>100</v>
       </c>
       <c r="H37" s="32">
@@ -5004,10 +5049,10 @@
         <v>111</v>
       </c>
       <c r="E38" s="91"/>
-      <c r="F38" s="103" t="s">
+      <c r="F38" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="104">
+      <c r="G38" s="103">
         <v>100</v>
       </c>
       <c r="H38" s="19">
@@ -5034,7 +5079,7 @@
       <c r="N38" s="43"/>
       <c r="O38" s="43"/>
       <c r="P38" s="43"/>
-      <c r="Q38" s="105" t="s">
+      <c r="Q38" s="104" t="s">
         <v>147</v>
       </c>
       <c r="R38" s="24" t="s">
@@ -5077,10 +5122,10 @@
         <v>149</v>
       </c>
       <c r="E39" s="93"/>
-      <c r="F39" s="101" t="s">
+      <c r="F39" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="102">
+      <c r="G39" s="101">
         <v>100</v>
       </c>
       <c r="H39" s="32">
@@ -5111,28 +5156,28 @@
       <c r="R39" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S39" s="106"/>
-      <c r="T39" s="106"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="106"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="106"/>
-      <c r="AA39" s="106"/>
-      <c r="AB39" s="106"/>
-      <c r="AC39" s="106"/>
-      <c r="AD39" s="106"/>
-      <c r="AE39" s="106"/>
-      <c r="AF39" s="106"/>
-      <c r="AG39" s="106"/>
-      <c r="AH39" s="106"/>
-      <c r="AI39" s="106"/>
-      <c r="AJ39" s="106"/>
-      <c r="AK39" s="106"/>
-      <c r="AL39" s="106"/>
-      <c r="AM39" s="106"/>
-      <c r="AN39" s="107"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="105"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="105"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="105"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="105"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="105"/>
+      <c r="AJ39" s="105"/>
+      <c r="AK39" s="105"/>
+      <c r="AL39" s="105"/>
+      <c r="AM39" s="105"/>
+      <c r="AN39" s="106"/>
     </row>
     <row r="40" spans="1:40" ht="25.5">
       <c r="A40" s="13" t="s">
@@ -5148,10 +5193,10 @@
         <v>151</v>
       </c>
       <c r="E40" s="91"/>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="104">
+      <c r="G40" s="103">
         <v>100</v>
       </c>
       <c r="H40" s="19">
@@ -5178,34 +5223,34 @@
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
-      <c r="Q40" s="105" t="s">
+      <c r="Q40" s="104" t="s">
         <v>152</v>
       </c>
       <c r="R40" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="108"/>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="108"/>
-      <c r="AC40" s="108"/>
-      <c r="AD40" s="108"/>
-      <c r="AE40" s="108"/>
-      <c r="AF40" s="108"/>
-      <c r="AG40" s="108"/>
-      <c r="AH40" s="108"/>
-      <c r="AI40" s="108"/>
-      <c r="AJ40" s="108"/>
-      <c r="AK40" s="108"/>
-      <c r="AL40" s="108"/>
-      <c r="AM40" s="108"/>
-      <c r="AN40" s="109"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="107"/>
+      <c r="AJ40" s="107"/>
+      <c r="AK40" s="107"/>
+      <c r="AL40" s="107"/>
+      <c r="AM40" s="107"/>
+      <c r="AN40" s="108"/>
     </row>
     <row r="41" spans="1:40">
       <c r="A41" s="26" t="s">
@@ -5221,10 +5266,10 @@
         <v>155</v>
       </c>
       <c r="E41" s="93"/>
-      <c r="F41" s="101" t="s">
+      <c r="F41" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="102">
+      <c r="G41" s="101">
         <v>100</v>
       </c>
       <c r="H41" s="32">
@@ -5251,34 +5296,34 @@
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
-      <c r="Q41" s="98" t="s">
+      <c r="Q41" s="97" t="s">
         <v>156</v>
       </c>
       <c r="R41" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S41" s="106"/>
-      <c r="T41" s="106"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="106"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="106"/>
-      <c r="Y41" s="106"/>
-      <c r="Z41" s="106"/>
-      <c r="AA41" s="106"/>
-      <c r="AB41" s="106"/>
-      <c r="AC41" s="106"/>
-      <c r="AD41" s="106"/>
-      <c r="AE41" s="106"/>
-      <c r="AF41" s="106"/>
-      <c r="AG41" s="106"/>
-      <c r="AH41" s="106"/>
-      <c r="AI41" s="106"/>
-      <c r="AJ41" s="106"/>
-      <c r="AK41" s="106"/>
-      <c r="AL41" s="106"/>
-      <c r="AM41" s="106"/>
-      <c r="AN41" s="107"/>
+      <c r="S41" s="105"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="105"/>
+      <c r="W41" s="105"/>
+      <c r="X41" s="105"/>
+      <c r="Y41" s="105"/>
+      <c r="Z41" s="105"/>
+      <c r="AA41" s="105"/>
+      <c r="AB41" s="105"/>
+      <c r="AC41" s="105"/>
+      <c r="AD41" s="105"/>
+      <c r="AE41" s="105"/>
+      <c r="AF41" s="105"/>
+      <c r="AG41" s="105"/>
+      <c r="AH41" s="105"/>
+      <c r="AI41" s="105"/>
+      <c r="AJ41" s="105"/>
+      <c r="AK41" s="105"/>
+      <c r="AL41" s="105"/>
+      <c r="AM41" s="105"/>
+      <c r="AN41" s="106"/>
     </row>
     <row r="42" spans="1:40">
       <c r="A42" s="13" t="s">
@@ -5294,10 +5339,10 @@
         <v>155</v>
       </c>
       <c r="E42" s="91"/>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="104">
+      <c r="G42" s="103">
         <v>100</v>
       </c>
       <c r="H42" s="19">
@@ -5324,34 +5369,34 @@
       <c r="N42" s="43"/>
       <c r="O42" s="43"/>
       <c r="P42" s="43"/>
-      <c r="Q42" s="105" t="s">
+      <c r="Q42" s="104" t="s">
         <v>156</v>
       </c>
       <c r="R42" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S42" s="108"/>
-      <c r="T42" s="108"/>
-      <c r="U42" s="108"/>
-      <c r="V42" s="108"/>
-      <c r="W42" s="108"/>
-      <c r="X42" s="108"/>
-      <c r="Y42" s="108"/>
-      <c r="Z42" s="108"/>
-      <c r="AA42" s="108"/>
-      <c r="AB42" s="108"/>
-      <c r="AC42" s="108"/>
-      <c r="AD42" s="108"/>
-      <c r="AE42" s="108"/>
-      <c r="AF42" s="108"/>
-      <c r="AG42" s="108"/>
-      <c r="AH42" s="108"/>
-      <c r="AI42" s="108"/>
-      <c r="AJ42" s="108"/>
-      <c r="AK42" s="108"/>
-      <c r="AL42" s="108"/>
-      <c r="AM42" s="108"/>
-      <c r="AN42" s="109"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="107"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="107"/>
+      <c r="AK42" s="107"/>
+      <c r="AL42" s="107"/>
+      <c r="AM42" s="107"/>
+      <c r="AN42" s="108"/>
     </row>
     <row r="43" spans="1:40" ht="25.5">
       <c r="A43" s="26" t="s">
@@ -5367,10 +5412,10 @@
         <v>160</v>
       </c>
       <c r="E43" s="93"/>
-      <c r="F43" s="101" t="s">
+      <c r="F43" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="102"/>
+      <c r="G43" s="101"/>
       <c r="H43" s="32">
         <f>IF(OR(J43="",K43="",K43&lt;J43),0,NETWORKDAYS(J43,K43,Hoja2!$A$2:$A$53))</f>
         <v>0</v>
@@ -5388,39 +5433,39 @@
       NETWORKDAYS(J43,L43,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
-      <c r="Q43" s="98" t="s">
+      <c r="Q43" s="97" t="s">
         <v>152</v>
       </c>
       <c r="R43" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S43" s="106"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
-      <c r="AB43" s="106"/>
-      <c r="AC43" s="106"/>
-      <c r="AD43" s="106"/>
-      <c r="AE43" s="106"/>
-      <c r="AF43" s="106"/>
-      <c r="AG43" s="106"/>
-      <c r="AH43" s="106"/>
-      <c r="AI43" s="106"/>
-      <c r="AJ43" s="106"/>
-      <c r="AK43" s="106"/>
-      <c r="AL43" s="106"/>
-      <c r="AM43" s="106"/>
-      <c r="AN43" s="107"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="105"/>
+      <c r="Y43" s="105"/>
+      <c r="Z43" s="105"/>
+      <c r="AA43" s="105"/>
+      <c r="AB43" s="105"/>
+      <c r="AC43" s="105"/>
+      <c r="AD43" s="105"/>
+      <c r="AE43" s="105"/>
+      <c r="AF43" s="105"/>
+      <c r="AG43" s="105"/>
+      <c r="AH43" s="105"/>
+      <c r="AI43" s="105"/>
+      <c r="AJ43" s="105"/>
+      <c r="AK43" s="105"/>
+      <c r="AL43" s="105"/>
+      <c r="AM43" s="105"/>
+      <c r="AN43" s="106"/>
     </row>
     <row r="44" spans="1:40" ht="25.5">
       <c r="A44" s="13" t="s">
@@ -5436,10 +5481,10 @@
         <v>164</v>
       </c>
       <c r="E44" s="91"/>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="104">
+      <c r="G44" s="103">
         <v>100</v>
       </c>
       <c r="H44" s="19">
@@ -5466,37 +5511,37 @@
       <c r="N44" s="43"/>
       <c r="O44" s="43"/>
       <c r="P44" s="43"/>
-      <c r="Q44" s="105" t="s">
+      <c r="Q44" s="104" t="s">
         <v>165</v>
       </c>
       <c r="R44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
-      <c r="AD44" s="108"/>
-      <c r="AE44" s="108"/>
-      <c r="AF44" s="108"/>
-      <c r="AG44" s="108"/>
-      <c r="AH44" s="108"/>
-      <c r="AI44" s="108"/>
-      <c r="AJ44" s="108"/>
-      <c r="AK44" s="108"/>
-      <c r="AL44" s="108"/>
-      <c r="AM44" s="108"/>
-      <c r="AN44" s="109"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="107"/>
+      <c r="AB44" s="107"/>
+      <c r="AC44" s="107"/>
+      <c r="AD44" s="107"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="107"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="107"/>
+      <c r="AI44" s="107"/>
+      <c r="AJ44" s="107"/>
+      <c r="AK44" s="107"/>
+      <c r="AL44" s="107"/>
+      <c r="AM44" s="107"/>
+      <c r="AN44" s="108"/>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -5509,10 +5554,10 @@
         <v>155</v>
       </c>
       <c r="E45" s="93"/>
-      <c r="F45" s="101" t="s">
+      <c r="F45" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="102">
+      <c r="G45" s="101">
         <v>100</v>
       </c>
       <c r="H45" s="32">
@@ -5541,37 +5586,37 @@
       <c r="P45" s="73">
         <v>45992</v>
       </c>
-      <c r="Q45" s="98" t="s">
+      <c r="Q45" s="97" t="s">
         <v>167</v>
       </c>
       <c r="R45" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S45" s="111"/>
-      <c r="T45" s="112"/>
-      <c r="U45" s="112"/>
-      <c r="V45" s="112"/>
-      <c r="W45" s="112"/>
-      <c r="X45" s="112"/>
-      <c r="Y45" s="112"/>
-      <c r="Z45" s="112"/>
-      <c r="AA45" s="112"/>
-      <c r="AB45" s="112"/>
-      <c r="AC45" s="112"/>
-      <c r="AD45" s="112"/>
-      <c r="AE45" s="112"/>
-      <c r="AF45" s="112"/>
-      <c r="AG45" s="112"/>
-      <c r="AH45" s="112"/>
-      <c r="AI45" s="112"/>
-      <c r="AJ45" s="112"/>
-      <c r="AK45" s="112"/>
-      <c r="AL45" s="112"/>
-      <c r="AM45" s="112"/>
-      <c r="AN45" s="113"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="111"/>
+      <c r="AC45" s="111"/>
+      <c r="AD45" s="111"/>
+      <c r="AE45" s="111"/>
+      <c r="AF45" s="111"/>
+      <c r="AG45" s="111"/>
+      <c r="AH45" s="111"/>
+      <c r="AI45" s="111"/>
+      <c r="AJ45" s="111"/>
+      <c r="AK45" s="111"/>
+      <c r="AL45" s="111"/>
+      <c r="AM45" s="111"/>
+      <c r="AN45" s="112"/>
     </row>
     <row r="46" spans="1:40" ht="25.5">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="113" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -5584,10 +5629,10 @@
         <v>170</v>
       </c>
       <c r="E46" s="91"/>
-      <c r="F46" s="103" t="s">
+      <c r="F46" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="104">
+      <c r="G46" s="103">
         <v>100</v>
       </c>
       <c r="H46" s="19">
@@ -5614,34 +5659,34 @@
       <c r="N46" s="43"/>
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
-      <c r="Q46" s="105" t="s">
+      <c r="Q46" s="104" t="s">
         <v>171</v>
       </c>
       <c r="R46" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S46" s="115"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="108"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="108"/>
-      <c r="Z46" s="108"/>
-      <c r="AA46" s="108"/>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="108"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108"/>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108"/>
-      <c r="AK46" s="108"/>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="108"/>
-      <c r="AN46" s="109"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="107"/>
+      <c r="V46" s="107"/>
+      <c r="W46" s="107"/>
+      <c r="X46" s="107"/>
+      <c r="Y46" s="107"/>
+      <c r="Z46" s="107"/>
+      <c r="AA46" s="107"/>
+      <c r="AB46" s="107"/>
+      <c r="AC46" s="107"/>
+      <c r="AD46" s="107"/>
+      <c r="AE46" s="107"/>
+      <c r="AF46" s="107"/>
+      <c r="AG46" s="107"/>
+      <c r="AH46" s="107"/>
+      <c r="AI46" s="107"/>
+      <c r="AJ46" s="107"/>
+      <c r="AK46" s="107"/>
+      <c r="AL46" s="107"/>
+      <c r="AM46" s="107"/>
+      <c r="AN46" s="108"/>
     </row>
     <row r="47" spans="1:40" ht="25.5">
       <c r="A47" s="26" t="s">
@@ -5657,10 +5702,10 @@
         <v>174</v>
       </c>
       <c r="E47" s="93"/>
-      <c r="F47" s="101" t="s">
+      <c r="F47" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="102">
+      <c r="G47" s="101">
         <v>100</v>
       </c>
       <c r="H47" s="32">
@@ -5687,32 +5732,32 @@
       <c r="N47" s="40"/>
       <c r="O47" s="40"/>
       <c r="P47" s="40"/>
-      <c r="Q47" s="98"/>
+      <c r="Q47" s="97"/>
       <c r="R47" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S47" s="106"/>
-      <c r="T47" s="106"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="106"/>
-      <c r="W47" s="106"/>
-      <c r="X47" s="106"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="106"/>
-      <c r="AA47" s="106"/>
-      <c r="AB47" s="106"/>
-      <c r="AC47" s="106"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="106"/>
-      <c r="AF47" s="106"/>
-      <c r="AG47" s="106"/>
-      <c r="AH47" s="106"/>
-      <c r="AI47" s="106"/>
-      <c r="AJ47" s="106"/>
-      <c r="AK47" s="106"/>
-      <c r="AL47" s="106"/>
-      <c r="AM47" s="106"/>
-      <c r="AN47" s="107"/>
+      <c r="S47" s="105"/>
+      <c r="T47" s="105"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="105"/>
+      <c r="X47" s="105"/>
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="105"/>
+      <c r="AA47" s="105"/>
+      <c r="AB47" s="105"/>
+      <c r="AC47" s="105"/>
+      <c r="AD47" s="105"/>
+      <c r="AE47" s="105"/>
+      <c r="AF47" s="105"/>
+      <c r="AG47" s="105"/>
+      <c r="AH47" s="105"/>
+      <c r="AI47" s="105"/>
+      <c r="AJ47" s="105"/>
+      <c r="AK47" s="105"/>
+      <c r="AL47" s="105"/>
+      <c r="AM47" s="105"/>
+      <c r="AN47" s="106"/>
     </row>
     <row r="48" spans="1:40" ht="24">
       <c r="A48" s="13" t="s">
@@ -5728,10 +5773,10 @@
         <v>177</v>
       </c>
       <c r="E48" s="91"/>
-      <c r="F48" s="103" t="s">
+      <c r="F48" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="104">
+      <c r="G48" s="103">
         <v>100</v>
       </c>
       <c r="H48" s="19">
@@ -5758,34 +5803,34 @@
       <c r="N48" s="43"/>
       <c r="O48" s="43"/>
       <c r="P48" s="43"/>
-      <c r="Q48" s="105" t="s">
+      <c r="Q48" s="104" t="s">
         <v>178</v>
       </c>
       <c r="R48" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S48" s="108"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="108"/>
-      <c r="V48" s="108"/>
-      <c r="W48" s="108"/>
-      <c r="X48" s="108"/>
-      <c r="Y48" s="108"/>
-      <c r="Z48" s="108"/>
-      <c r="AA48" s="108"/>
-      <c r="AB48" s="108"/>
-      <c r="AC48" s="108"/>
-      <c r="AD48" s="108"/>
-      <c r="AE48" s="108"/>
-      <c r="AF48" s="108"/>
-      <c r="AG48" s="108"/>
-      <c r="AH48" s="108"/>
-      <c r="AI48" s="108"/>
-      <c r="AJ48" s="108"/>
-      <c r="AK48" s="108"/>
-      <c r="AL48" s="108"/>
-      <c r="AM48" s="108"/>
-      <c r="AN48" s="109"/>
+      <c r="S48" s="107"/>
+      <c r="T48" s="107"/>
+      <c r="U48" s="107"/>
+      <c r="V48" s="107"/>
+      <c r="W48" s="107"/>
+      <c r="X48" s="107"/>
+      <c r="Y48" s="107"/>
+      <c r="Z48" s="107"/>
+      <c r="AA48" s="107"/>
+      <c r="AB48" s="107"/>
+      <c r="AC48" s="107"/>
+      <c r="AD48" s="107"/>
+      <c r="AE48" s="107"/>
+      <c r="AF48" s="107"/>
+      <c r="AG48" s="107"/>
+      <c r="AH48" s="107"/>
+      <c r="AI48" s="107"/>
+      <c r="AJ48" s="107"/>
+      <c r="AK48" s="107"/>
+      <c r="AL48" s="107"/>
+      <c r="AM48" s="107"/>
+      <c r="AN48" s="108"/>
     </row>
     <row r="49" spans="1:40">
       <c r="A49" s="26" t="s">
@@ -5801,10 +5846,10 @@
         <v>177</v>
       </c>
       <c r="E49" s="93"/>
-      <c r="F49" s="101" t="s">
+      <c r="F49" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="102">
+      <c r="G49" s="101">
         <v>100</v>
       </c>
       <c r="H49" s="32">
@@ -5831,37 +5876,37 @@
       <c r="N49" s="40"/>
       <c r="O49" s="40"/>
       <c r="P49" s="40"/>
-      <c r="Q49" s="98" t="s">
+      <c r="Q49" s="97" t="s">
         <v>180</v>
       </c>
       <c r="R49" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S49" s="106"/>
-      <c r="T49" s="106"/>
-      <c r="U49" s="106"/>
-      <c r="V49" s="106"/>
-      <c r="W49" s="106"/>
-      <c r="X49" s="106"/>
-      <c r="Y49" s="106"/>
-      <c r="Z49" s="106"/>
-      <c r="AA49" s="106"/>
-      <c r="AB49" s="106"/>
-      <c r="AC49" s="106"/>
-      <c r="AD49" s="106"/>
-      <c r="AE49" s="106"/>
-      <c r="AF49" s="106"/>
-      <c r="AG49" s="106"/>
-      <c r="AH49" s="106"/>
-      <c r="AI49" s="106"/>
-      <c r="AJ49" s="106"/>
-      <c r="AK49" s="106"/>
-      <c r="AL49" s="106"/>
-      <c r="AM49" s="106"/>
-      <c r="AN49" s="107"/>
+      <c r="S49" s="105"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="105"/>
+      <c r="V49" s="105"/>
+      <c r="W49" s="105"/>
+      <c r="X49" s="105"/>
+      <c r="Y49" s="105"/>
+      <c r="Z49" s="105"/>
+      <c r="AA49" s="105"/>
+      <c r="AB49" s="105"/>
+      <c r="AC49" s="105"/>
+      <c r="AD49" s="105"/>
+      <c r="AE49" s="105"/>
+      <c r="AF49" s="105"/>
+      <c r="AG49" s="105"/>
+      <c r="AH49" s="105"/>
+      <c r="AI49" s="105"/>
+      <c r="AJ49" s="105"/>
+      <c r="AK49" s="105"/>
+      <c r="AL49" s="105"/>
+      <c r="AM49" s="105"/>
+      <c r="AN49" s="106"/>
     </row>
     <row r="50" spans="1:40">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="113" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -5874,10 +5919,10 @@
         <v>183</v>
       </c>
       <c r="E50" s="91"/>
-      <c r="F50" s="103" t="s">
+      <c r="F50" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="104">
+      <c r="G50" s="103">
         <v>100</v>
       </c>
       <c r="H50" s="19">
@@ -5906,34 +5951,34 @@
       <c r="N50" s="43"/>
       <c r="O50" s="43"/>
       <c r="P50" s="43"/>
-      <c r="Q50" s="105" t="s">
+      <c r="Q50" s="104" t="s">
         <v>180</v>
       </c>
       <c r="R50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S50" s="115"/>
-      <c r="T50" s="108"/>
-      <c r="U50" s="108"/>
-      <c r="V50" s="108"/>
-      <c r="W50" s="108"/>
-      <c r="X50" s="108"/>
-      <c r="Y50" s="108"/>
-      <c r="Z50" s="108"/>
-      <c r="AA50" s="108"/>
-      <c r="AB50" s="108"/>
-      <c r="AC50" s="108"/>
-      <c r="AD50" s="108"/>
-      <c r="AE50" s="108"/>
-      <c r="AF50" s="108"/>
-      <c r="AG50" s="108"/>
-      <c r="AH50" s="108"/>
-      <c r="AI50" s="108"/>
-      <c r="AJ50" s="108"/>
-      <c r="AK50" s="108"/>
-      <c r="AL50" s="108"/>
-      <c r="AM50" s="108"/>
-      <c r="AN50" s="109"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="107"/>
+      <c r="U50" s="107"/>
+      <c r="V50" s="107"/>
+      <c r="W50" s="107"/>
+      <c r="X50" s="107"/>
+      <c r="Y50" s="107"/>
+      <c r="Z50" s="107"/>
+      <c r="AA50" s="107"/>
+      <c r="AB50" s="107"/>
+      <c r="AC50" s="107"/>
+      <c r="AD50" s="107"/>
+      <c r="AE50" s="107"/>
+      <c r="AF50" s="107"/>
+      <c r="AG50" s="107"/>
+      <c r="AH50" s="107"/>
+      <c r="AI50" s="107"/>
+      <c r="AJ50" s="107"/>
+      <c r="AK50" s="107"/>
+      <c r="AL50" s="107"/>
+      <c r="AM50" s="107"/>
+      <c r="AN50" s="108"/>
     </row>
     <row r="51" spans="1:40" ht="36">
       <c r="A51" s="26" t="s">
@@ -5949,10 +5994,10 @@
         <v>186</v>
       </c>
       <c r="E51" s="93"/>
-      <c r="F51" s="101" t="s">
+      <c r="F51" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="102">
+      <c r="G51" s="101">
         <v>100</v>
       </c>
       <c r="H51" s="32">
@@ -5987,31 +6032,31 @@
       <c r="R51" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S51" s="111"/>
-      <c r="T51" s="112"/>
-      <c r="U51" s="112"/>
-      <c r="V51" s="112"/>
-      <c r="W51" s="112"/>
-      <c r="X51" s="112"/>
-      <c r="Y51" s="112"/>
-      <c r="Z51" s="112"/>
-      <c r="AA51" s="112"/>
-      <c r="AB51" s="112"/>
-      <c r="AC51" s="112"/>
-      <c r="AD51" s="112"/>
-      <c r="AE51" s="112"/>
-      <c r="AF51" s="112"/>
-      <c r="AG51" s="112"/>
-      <c r="AH51" s="112"/>
-      <c r="AI51" s="112"/>
-      <c r="AJ51" s="112"/>
-      <c r="AK51" s="112"/>
-      <c r="AL51" s="112"/>
-      <c r="AM51" s="112"/>
-      <c r="AN51" s="113"/>
+      <c r="S51" s="110"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="111"/>
+      <c r="AF51" s="111"/>
+      <c r="AG51" s="111"/>
+      <c r="AH51" s="111"/>
+      <c r="AI51" s="111"/>
+      <c r="AJ51" s="111"/>
+      <c r="AK51" s="111"/>
+      <c r="AL51" s="111"/>
+      <c r="AM51" s="111"/>
+      <c r="AN51" s="112"/>
     </row>
     <row r="52" spans="1:40" ht="48">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="113" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -6024,10 +6069,10 @@
         <v>190</v>
       </c>
       <c r="E52" s="91"/>
-      <c r="F52" s="103" t="s">
+      <c r="F52" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G52" s="104">
+      <c r="G52" s="103">
         <v>100</v>
       </c>
       <c r="H52" s="19">
@@ -6066,31 +6111,31 @@
       <c r="R52" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S52" s="116"/>
-      <c r="T52" s="117"/>
-      <c r="U52" s="117"/>
-      <c r="V52" s="117"/>
-      <c r="W52" s="117"/>
-      <c r="X52" s="117"/>
-      <c r="Y52" s="117"/>
-      <c r="Z52" s="117"/>
-      <c r="AA52" s="117"/>
-      <c r="AB52" s="117"/>
-      <c r="AC52" s="117"/>
-      <c r="AD52" s="117"/>
-      <c r="AE52" s="117"/>
-      <c r="AF52" s="117"/>
-      <c r="AG52" s="117"/>
-      <c r="AH52" s="117"/>
-      <c r="AI52" s="117"/>
-      <c r="AJ52" s="117"/>
-      <c r="AK52" s="117"/>
-      <c r="AL52" s="117"/>
-      <c r="AM52" s="117"/>
-      <c r="AN52" s="118"/>
+      <c r="S52" s="115"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="116"/>
+      <c r="V52" s="116"/>
+      <c r="W52" s="116"/>
+      <c r="X52" s="116"/>
+      <c r="Y52" s="116"/>
+      <c r="Z52" s="116"/>
+      <c r="AA52" s="116"/>
+      <c r="AB52" s="116"/>
+      <c r="AC52" s="116"/>
+      <c r="AD52" s="116"/>
+      <c r="AE52" s="116"/>
+      <c r="AF52" s="116"/>
+      <c r="AG52" s="116"/>
+      <c r="AH52" s="116"/>
+      <c r="AI52" s="116"/>
+      <c r="AJ52" s="116"/>
+      <c r="AK52" s="116"/>
+      <c r="AL52" s="116"/>
+      <c r="AM52" s="116"/>
+      <c r="AN52" s="117"/>
     </row>
     <row r="53" spans="1:40" ht="38.25">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -6103,10 +6148,10 @@
         <v>194</v>
       </c>
       <c r="E53" s="93"/>
-      <c r="F53" s="101" t="s">
+      <c r="F53" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="102">
+      <c r="G53" s="101">
         <v>100</v>
       </c>
       <c r="H53" s="32">
@@ -6147,28 +6192,28 @@
       <c r="R53" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S53" s="119"/>
-      <c r="T53" s="106"/>
-      <c r="U53" s="106"/>
-      <c r="V53" s="106"/>
-      <c r="W53" s="106"/>
-      <c r="X53" s="106"/>
-      <c r="Y53" s="106"/>
-      <c r="Z53" s="106"/>
-      <c r="AA53" s="106"/>
-      <c r="AB53" s="106"/>
-      <c r="AC53" s="106"/>
-      <c r="AD53" s="106"/>
-      <c r="AE53" s="106"/>
-      <c r="AF53" s="106"/>
-      <c r="AG53" s="106"/>
-      <c r="AH53" s="106"/>
-      <c r="AI53" s="106"/>
-      <c r="AJ53" s="106"/>
-      <c r="AK53" s="106"/>
-      <c r="AL53" s="106"/>
-      <c r="AM53" s="106"/>
-      <c r="AN53" s="107"/>
+      <c r="S53" s="118"/>
+      <c r="T53" s="105"/>
+      <c r="U53" s="105"/>
+      <c r="V53" s="105"/>
+      <c r="W53" s="105"/>
+      <c r="X53" s="105"/>
+      <c r="Y53" s="105"/>
+      <c r="Z53" s="105"/>
+      <c r="AA53" s="105"/>
+      <c r="AB53" s="105"/>
+      <c r="AC53" s="105"/>
+      <c r="AD53" s="105"/>
+      <c r="AE53" s="105"/>
+      <c r="AF53" s="105"/>
+      <c r="AG53" s="105"/>
+      <c r="AH53" s="105"/>
+      <c r="AI53" s="105"/>
+      <c r="AJ53" s="105"/>
+      <c r="AK53" s="105"/>
+      <c r="AL53" s="105"/>
+      <c r="AM53" s="105"/>
+      <c r="AN53" s="106"/>
     </row>
     <row r="54" spans="1:40" ht="38.25">
       <c r="A54" s="13" t="s">
@@ -6184,10 +6229,10 @@
         <v>111</v>
       </c>
       <c r="E54" s="91"/>
-      <c r="F54" s="103" t="s">
+      <c r="F54" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="104">
+      <c r="G54" s="103">
         <v>100</v>
       </c>
       <c r="H54" s="19">
@@ -6222,31 +6267,31 @@
       <c r="R54" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S54" s="116"/>
-      <c r="T54" s="117"/>
-      <c r="U54" s="117"/>
-      <c r="V54" s="117"/>
-      <c r="W54" s="117"/>
-      <c r="X54" s="117"/>
-      <c r="Y54" s="117"/>
-      <c r="Z54" s="117"/>
-      <c r="AA54" s="117"/>
-      <c r="AB54" s="117"/>
-      <c r="AC54" s="117"/>
-      <c r="AD54" s="117"/>
-      <c r="AE54" s="117"/>
-      <c r="AF54" s="117"/>
-      <c r="AG54" s="117"/>
-      <c r="AH54" s="117"/>
-      <c r="AI54" s="117"/>
-      <c r="AJ54" s="117"/>
-      <c r="AK54" s="117"/>
-      <c r="AL54" s="117"/>
-      <c r="AM54" s="117"/>
-      <c r="AN54" s="118"/>
+      <c r="S54" s="115"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+      <c r="X54" s="116"/>
+      <c r="Y54" s="116"/>
+      <c r="Z54" s="116"/>
+      <c r="AA54" s="116"/>
+      <c r="AB54" s="116"/>
+      <c r="AC54" s="116"/>
+      <c r="AD54" s="116"/>
+      <c r="AE54" s="116"/>
+      <c r="AF54" s="116"/>
+      <c r="AG54" s="116"/>
+      <c r="AH54" s="116"/>
+      <c r="AI54" s="116"/>
+      <c r="AJ54" s="116"/>
+      <c r="AK54" s="116"/>
+      <c r="AL54" s="116"/>
+      <c r="AM54" s="116"/>
+      <c r="AN54" s="117"/>
     </row>
     <row r="55" spans="1:40" ht="25.5">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -6259,10 +6304,10 @@
         <v>201</v>
       </c>
       <c r="E55" s="93"/>
-      <c r="F55" s="101" t="s">
+      <c r="F55" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="102">
+      <c r="G55" s="101">
         <v>100</v>
       </c>
       <c r="H55" s="32">
@@ -6301,28 +6346,28 @@
       <c r="R55" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S55" s="111"/>
-      <c r="T55" s="112"/>
-      <c r="U55" s="112"/>
-      <c r="V55" s="112"/>
-      <c r="W55" s="112"/>
-      <c r="X55" s="112"/>
-      <c r="Y55" s="112"/>
-      <c r="Z55" s="112"/>
-      <c r="AA55" s="112"/>
-      <c r="AB55" s="112"/>
-      <c r="AC55" s="112"/>
-      <c r="AD55" s="112"/>
-      <c r="AE55" s="112"/>
-      <c r="AF55" s="112"/>
-      <c r="AG55" s="112"/>
-      <c r="AH55" s="112"/>
-      <c r="AI55" s="112"/>
-      <c r="AJ55" s="112"/>
-      <c r="AK55" s="112"/>
-      <c r="AL55" s="112"/>
-      <c r="AM55" s="112"/>
-      <c r="AN55" s="113"/>
+      <c r="S55" s="110"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="111"/>
+      <c r="Y55" s="111"/>
+      <c r="Z55" s="111"/>
+      <c r="AA55" s="111"/>
+      <c r="AB55" s="111"/>
+      <c r="AC55" s="111"/>
+      <c r="AD55" s="111"/>
+      <c r="AE55" s="111"/>
+      <c r="AF55" s="111"/>
+      <c r="AG55" s="111"/>
+      <c r="AH55" s="111"/>
+      <c r="AI55" s="111"/>
+      <c r="AJ55" s="111"/>
+      <c r="AK55" s="111"/>
+      <c r="AL55" s="111"/>
+      <c r="AM55" s="111"/>
+      <c r="AN55" s="112"/>
     </row>
     <row r="56" spans="1:40" ht="24">
       <c r="A56" s="13" t="s">
@@ -6338,10 +6383,10 @@
         <v>155</v>
       </c>
       <c r="E56" s="91"/>
-      <c r="F56" s="103" t="s">
+      <c r="F56" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="104">
+      <c r="G56" s="103">
         <v>100</v>
       </c>
       <c r="H56" s="19">
@@ -6368,34 +6413,34 @@
       <c r="N56" s="43"/>
       <c r="O56" s="43"/>
       <c r="P56" s="43"/>
-      <c r="Q56" s="105" t="s">
+      <c r="Q56" s="104" t="s">
         <v>205</v>
       </c>
       <c r="R56" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S56" s="116"/>
-      <c r="T56" s="117"/>
-      <c r="U56" s="117"/>
-      <c r="V56" s="117"/>
-      <c r="W56" s="117"/>
-      <c r="X56" s="117"/>
-      <c r="Y56" s="117"/>
-      <c r="Z56" s="117"/>
-      <c r="AA56" s="117"/>
-      <c r="AB56" s="117"/>
-      <c r="AC56" s="117"/>
-      <c r="AD56" s="117"/>
-      <c r="AE56" s="117"/>
-      <c r="AF56" s="117"/>
-      <c r="AG56" s="117"/>
-      <c r="AH56" s="117"/>
-      <c r="AI56" s="117"/>
-      <c r="AJ56" s="117"/>
-      <c r="AK56" s="117"/>
-      <c r="AL56" s="117"/>
-      <c r="AM56" s="117"/>
-      <c r="AN56" s="118"/>
+      <c r="S56" s="115"/>
+      <c r="T56" s="116"/>
+      <c r="U56" s="116"/>
+      <c r="V56" s="116"/>
+      <c r="W56" s="116"/>
+      <c r="X56" s="116"/>
+      <c r="Y56" s="116"/>
+      <c r="Z56" s="116"/>
+      <c r="AA56" s="116"/>
+      <c r="AB56" s="116"/>
+      <c r="AC56" s="116"/>
+      <c r="AD56" s="116"/>
+      <c r="AE56" s="116"/>
+      <c r="AF56" s="116"/>
+      <c r="AG56" s="116"/>
+      <c r="AH56" s="116"/>
+      <c r="AI56" s="116"/>
+      <c r="AJ56" s="116"/>
+      <c r="AK56" s="116"/>
+      <c r="AL56" s="116"/>
+      <c r="AM56" s="116"/>
+      <c r="AN56" s="117"/>
     </row>
     <row r="57" spans="1:40">
       <c r="A57" s="26" t="s">
@@ -6411,10 +6456,10 @@
         <v>208</v>
       </c>
       <c r="E57" s="93"/>
-      <c r="F57" s="101" t="s">
+      <c r="F57" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G57" s="102">
+      <c r="G57" s="101">
         <v>100</v>
       </c>
       <c r="H57" s="32">
@@ -6441,34 +6486,34 @@
       <c r="N57" s="40"/>
       <c r="O57" s="40"/>
       <c r="P57" s="40"/>
-      <c r="Q57" s="98" t="s">
+      <c r="Q57" s="97" t="s">
         <v>209</v>
       </c>
       <c r="R57" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S57" s="111"/>
-      <c r="T57" s="112"/>
-      <c r="U57" s="112"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
-      <c r="X57" s="112"/>
-      <c r="Y57" s="112"/>
-      <c r="Z57" s="112"/>
-      <c r="AA57" s="112"/>
-      <c r="AB57" s="112"/>
-      <c r="AC57" s="112"/>
-      <c r="AD57" s="112"/>
-      <c r="AE57" s="112"/>
-      <c r="AF57" s="112"/>
-      <c r="AG57" s="112"/>
-      <c r="AH57" s="112"/>
-      <c r="AI57" s="112"/>
-      <c r="AJ57" s="112"/>
-      <c r="AK57" s="112"/>
-      <c r="AL57" s="112"/>
-      <c r="AM57" s="112"/>
-      <c r="AN57" s="113"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="111"/>
+      <c r="U57" s="111"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
+      <c r="X57" s="111"/>
+      <c r="Y57" s="111"/>
+      <c r="Z57" s="111"/>
+      <c r="AA57" s="111"/>
+      <c r="AB57" s="111"/>
+      <c r="AC57" s="111"/>
+      <c r="AD57" s="111"/>
+      <c r="AE57" s="111"/>
+      <c r="AF57" s="111"/>
+      <c r="AG57" s="111"/>
+      <c r="AH57" s="111"/>
+      <c r="AI57" s="111"/>
+      <c r="AJ57" s="111"/>
+      <c r="AK57" s="111"/>
+      <c r="AL57" s="111"/>
+      <c r="AM57" s="111"/>
+      <c r="AN57" s="112"/>
     </row>
     <row r="58" spans="1:40">
       <c r="A58" s="13" t="s">
@@ -6484,10 +6529,10 @@
         <v>211</v>
       </c>
       <c r="E58" s="91"/>
-      <c r="F58" s="103" t="s">
+      <c r="F58" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G58" s="104">
+      <c r="G58" s="103">
         <v>100</v>
       </c>
       <c r="H58" s="19">
@@ -6514,34 +6559,34 @@
       <c r="N58" s="43"/>
       <c r="O58" s="43"/>
       <c r="P58" s="43"/>
-      <c r="Q58" s="105" t="s">
+      <c r="Q58" s="104" t="s">
         <v>205</v>
       </c>
       <c r="R58" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S58" s="116"/>
-      <c r="T58" s="117"/>
-      <c r="U58" s="117"/>
-      <c r="V58" s="117"/>
-      <c r="W58" s="117"/>
-      <c r="X58" s="117"/>
-      <c r="Y58" s="117"/>
-      <c r="Z58" s="117"/>
-      <c r="AA58" s="117"/>
-      <c r="AB58" s="117"/>
-      <c r="AC58" s="117"/>
-      <c r="AD58" s="117"/>
-      <c r="AE58" s="117"/>
-      <c r="AF58" s="117"/>
-      <c r="AG58" s="117"/>
-      <c r="AH58" s="117"/>
-      <c r="AI58" s="117"/>
-      <c r="AJ58" s="117"/>
-      <c r="AK58" s="117"/>
-      <c r="AL58" s="117"/>
-      <c r="AM58" s="117"/>
-      <c r="AN58" s="118"/>
+      <c r="S58" s="115"/>
+      <c r="T58" s="116"/>
+      <c r="U58" s="116"/>
+      <c r="V58" s="116"/>
+      <c r="W58" s="116"/>
+      <c r="X58" s="116"/>
+      <c r="Y58" s="116"/>
+      <c r="Z58" s="116"/>
+      <c r="AA58" s="116"/>
+      <c r="AB58" s="116"/>
+      <c r="AC58" s="116"/>
+      <c r="AD58" s="116"/>
+      <c r="AE58" s="116"/>
+      <c r="AF58" s="116"/>
+      <c r="AG58" s="116"/>
+      <c r="AH58" s="116"/>
+      <c r="AI58" s="116"/>
+      <c r="AJ58" s="116"/>
+      <c r="AK58" s="116"/>
+      <c r="AL58" s="116"/>
+      <c r="AM58" s="116"/>
+      <c r="AN58" s="117"/>
     </row>
     <row r="59" spans="1:40" ht="24">
       <c r="A59" s="26" t="s">
@@ -6557,10 +6602,10 @@
         <v>211</v>
       </c>
       <c r="E59" s="93"/>
-      <c r="F59" s="101" t="s">
+      <c r="F59" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G59" s="102">
+      <c r="G59" s="101">
         <v>100</v>
       </c>
       <c r="H59" s="32">
@@ -6587,34 +6632,34 @@
       <c r="N59" s="40"/>
       <c r="O59" s="40"/>
       <c r="P59" s="40"/>
-      <c r="Q59" s="98" t="s">
+      <c r="Q59" s="97" t="s">
         <v>205</v>
       </c>
       <c r="R59" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S59" s="111"/>
-      <c r="T59" s="112"/>
-      <c r="U59" s="112"/>
-      <c r="V59" s="112"/>
-      <c r="W59" s="112"/>
-      <c r="X59" s="112"/>
-      <c r="Y59" s="112"/>
-      <c r="Z59" s="112"/>
-      <c r="AA59" s="112"/>
-      <c r="AB59" s="112"/>
-      <c r="AC59" s="112"/>
-      <c r="AD59" s="112"/>
-      <c r="AE59" s="112"/>
-      <c r="AF59" s="112"/>
-      <c r="AG59" s="112"/>
-      <c r="AH59" s="112"/>
-      <c r="AI59" s="112"/>
-      <c r="AJ59" s="112"/>
-      <c r="AK59" s="112"/>
-      <c r="AL59" s="112"/>
-      <c r="AM59" s="112"/>
-      <c r="AN59" s="113"/>
+      <c r="S59" s="110"/>
+      <c r="T59" s="111"/>
+      <c r="U59" s="111"/>
+      <c r="V59" s="111"/>
+      <c r="W59" s="111"/>
+      <c r="X59" s="111"/>
+      <c r="Y59" s="111"/>
+      <c r="Z59" s="111"/>
+      <c r="AA59" s="111"/>
+      <c r="AB59" s="111"/>
+      <c r="AC59" s="111"/>
+      <c r="AD59" s="111"/>
+      <c r="AE59" s="111"/>
+      <c r="AF59" s="111"/>
+      <c r="AG59" s="111"/>
+      <c r="AH59" s="111"/>
+      <c r="AI59" s="111"/>
+      <c r="AJ59" s="111"/>
+      <c r="AK59" s="111"/>
+      <c r="AL59" s="111"/>
+      <c r="AM59" s="111"/>
+      <c r="AN59" s="112"/>
     </row>
     <row r="60" spans="1:40" ht="24">
       <c r="A60" s="13" t="s">
@@ -6630,10 +6675,10 @@
         <v>211</v>
       </c>
       <c r="E60" s="91"/>
-      <c r="F60" s="103" t="s">
+      <c r="F60" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="104">
+      <c r="G60" s="103">
         <v>100</v>
       </c>
       <c r="H60" s="19">
@@ -6660,37 +6705,37 @@
       <c r="N60" s="43"/>
       <c r="O60" s="43"/>
       <c r="P60" s="43"/>
-      <c r="Q60" s="105" t="s">
+      <c r="Q60" s="104" t="s">
         <v>205</v>
       </c>
       <c r="R60" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S60" s="116"/>
-      <c r="T60" s="117"/>
-      <c r="U60" s="117"/>
-      <c r="V60" s="117"/>
-      <c r="W60" s="117"/>
-      <c r="X60" s="117"/>
-      <c r="Y60" s="117"/>
-      <c r="Z60" s="117"/>
-      <c r="AA60" s="117"/>
-      <c r="AB60" s="117"/>
-      <c r="AC60" s="117"/>
-      <c r="AD60" s="117"/>
-      <c r="AE60" s="117"/>
-      <c r="AF60" s="117"/>
-      <c r="AG60" s="117"/>
-      <c r="AH60" s="117"/>
-      <c r="AI60" s="117"/>
-      <c r="AJ60" s="117"/>
-      <c r="AK60" s="117"/>
-      <c r="AL60" s="117"/>
-      <c r="AM60" s="117"/>
-      <c r="AN60" s="118"/>
+      <c r="S60" s="115"/>
+      <c r="T60" s="116"/>
+      <c r="U60" s="116"/>
+      <c r="V60" s="116"/>
+      <c r="W60" s="116"/>
+      <c r="X60" s="116"/>
+      <c r="Y60" s="116"/>
+      <c r="Z60" s="116"/>
+      <c r="AA60" s="116"/>
+      <c r="AB60" s="116"/>
+      <c r="AC60" s="116"/>
+      <c r="AD60" s="116"/>
+      <c r="AE60" s="116"/>
+      <c r="AF60" s="116"/>
+      <c r="AG60" s="116"/>
+      <c r="AH60" s="116"/>
+      <c r="AI60" s="116"/>
+      <c r="AJ60" s="116"/>
+      <c r="AK60" s="116"/>
+      <c r="AL60" s="116"/>
+      <c r="AM60" s="116"/>
+      <c r="AN60" s="117"/>
     </row>
     <row r="61" spans="1:40" ht="25.5">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="27" t="s">
@@ -6702,22 +6747,22 @@
       <c r="D61" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="120"/>
-      <c r="F61" s="101" t="s">
+      <c r="E61" s="119"/>
+      <c r="F61" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G61" s="121">
+      <c r="G61" s="120">
         <v>100</v>
       </c>
       <c r="H61" s="32">
         <f>IF(OR(J61="",K61="",K61&lt;J61),0,NETWORKDAYS(J61,K61,Hoja2!$A$2:$A$53))</f>
         <v>0</v>
       </c>
-      <c r="I61" s="122"/>
+      <c r="I61" s="121"/>
       <c r="J61" s="94">
         <v>46007</v>
       </c>
-      <c r="K61" s="122"/>
+      <c r="K61" s="121"/>
       <c r="L61" s="94">
         <v>46007</v>
       </c>
@@ -6730,37 +6775,37 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N61" s="122"/>
-      <c r="O61" s="122"/>
-      <c r="P61" s="122"/>
-      <c r="Q61" s="123" t="s">
+      <c r="N61" s="121"/>
+      <c r="O61" s="121"/>
+      <c r="P61" s="121"/>
+      <c r="Q61" s="122" t="s">
         <v>217</v>
       </c>
       <c r="R61" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S61" s="124"/>
-      <c r="T61" s="125"/>
-      <c r="U61" s="125"/>
-      <c r="V61" s="125"/>
-      <c r="W61" s="125"/>
-      <c r="X61" s="125"/>
-      <c r="Y61" s="125"/>
-      <c r="Z61" s="125"/>
-      <c r="AA61" s="125"/>
-      <c r="AB61" s="125"/>
-      <c r="AC61" s="125"/>
-      <c r="AD61" s="125"/>
-      <c r="AE61" s="125"/>
-      <c r="AF61" s="125"/>
-      <c r="AG61" s="125"/>
-      <c r="AH61" s="125"/>
-      <c r="AI61" s="125"/>
-      <c r="AJ61" s="125"/>
-      <c r="AK61" s="125"/>
-      <c r="AL61" s="125"/>
-      <c r="AM61" s="125"/>
-      <c r="AN61" s="126"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="124"/>
+      <c r="U61" s="124"/>
+      <c r="V61" s="124"/>
+      <c r="W61" s="124"/>
+      <c r="X61" s="124"/>
+      <c r="Y61" s="124"/>
+      <c r="Z61" s="124"/>
+      <c r="AA61" s="124"/>
+      <c r="AB61" s="124"/>
+      <c r="AC61" s="124"/>
+      <c r="AD61" s="124"/>
+      <c r="AE61" s="124"/>
+      <c r="AF61" s="124"/>
+      <c r="AG61" s="124"/>
+      <c r="AH61" s="124"/>
+      <c r="AI61" s="124"/>
+      <c r="AJ61" s="124"/>
+      <c r="AK61" s="124"/>
+      <c r="AL61" s="124"/>
+      <c r="AM61" s="124"/>
+      <c r="AN61" s="125"/>
     </row>
     <row r="62" spans="1:40" ht="24">
       <c r="A62" s="13" t="s">
@@ -6776,10 +6821,10 @@
         <v>211</v>
       </c>
       <c r="E62" s="91"/>
-      <c r="F62" s="103" t="s">
+      <c r="F62" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="104">
+      <c r="G62" s="103">
         <v>100</v>
       </c>
       <c r="H62" s="19">
@@ -6806,34 +6851,34 @@
       <c r="N62" s="43"/>
       <c r="O62" s="43"/>
       <c r="P62" s="43"/>
-      <c r="Q62" s="105" t="s">
+      <c r="Q62" s="104" t="s">
         <v>205</v>
       </c>
       <c r="R62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S62" s="116"/>
-      <c r="T62" s="117"/>
-      <c r="U62" s="117"/>
-      <c r="V62" s="117"/>
-      <c r="W62" s="117"/>
-      <c r="X62" s="117"/>
-      <c r="Y62" s="117"/>
-      <c r="Z62" s="117"/>
-      <c r="AA62" s="117"/>
-      <c r="AB62" s="117"/>
-      <c r="AC62" s="117"/>
-      <c r="AD62" s="117"/>
-      <c r="AE62" s="117"/>
-      <c r="AF62" s="117"/>
-      <c r="AG62" s="117"/>
-      <c r="AH62" s="117"/>
-      <c r="AI62" s="117"/>
-      <c r="AJ62" s="117"/>
-      <c r="AK62" s="117"/>
-      <c r="AL62" s="117"/>
-      <c r="AM62" s="117"/>
-      <c r="AN62" s="118"/>
+      <c r="S62" s="115"/>
+      <c r="T62" s="116"/>
+      <c r="U62" s="116"/>
+      <c r="V62" s="116"/>
+      <c r="W62" s="116"/>
+      <c r="X62" s="116"/>
+      <c r="Y62" s="116"/>
+      <c r="Z62" s="116"/>
+      <c r="AA62" s="116"/>
+      <c r="AB62" s="116"/>
+      <c r="AC62" s="116"/>
+      <c r="AD62" s="116"/>
+      <c r="AE62" s="116"/>
+      <c r="AF62" s="116"/>
+      <c r="AG62" s="116"/>
+      <c r="AH62" s="116"/>
+      <c r="AI62" s="116"/>
+      <c r="AJ62" s="116"/>
+      <c r="AK62" s="116"/>
+      <c r="AL62" s="116"/>
+      <c r="AM62" s="116"/>
+      <c r="AN62" s="117"/>
     </row>
     <row r="63" spans="1:40" ht="25.5">
       <c r="A63" s="26" t="s">
@@ -6849,10 +6894,10 @@
         <v>221</v>
       </c>
       <c r="E63" s="93"/>
-      <c r="F63" s="101" t="s">
+      <c r="F63" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="102">
+      <c r="G63" s="101">
         <v>100</v>
       </c>
       <c r="H63" s="32">
@@ -6879,34 +6924,34 @@
       <c r="N63" s="40"/>
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
-      <c r="Q63" s="98" t="s">
+      <c r="Q63" s="97" t="s">
         <v>222</v>
       </c>
       <c r="R63" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S63" s="111"/>
-      <c r="T63" s="112"/>
-      <c r="U63" s="112"/>
-      <c r="V63" s="112"/>
-      <c r="W63" s="112"/>
-      <c r="X63" s="112"/>
-      <c r="Y63" s="112"/>
-      <c r="Z63" s="112"/>
-      <c r="AA63" s="112"/>
-      <c r="AB63" s="112"/>
-      <c r="AC63" s="112"/>
-      <c r="AD63" s="112"/>
-      <c r="AE63" s="112"/>
-      <c r="AF63" s="112"/>
-      <c r="AG63" s="112"/>
-      <c r="AH63" s="112"/>
-      <c r="AI63" s="112"/>
-      <c r="AJ63" s="112"/>
-      <c r="AK63" s="112"/>
-      <c r="AL63" s="112"/>
-      <c r="AM63" s="112"/>
-      <c r="AN63" s="113"/>
+      <c r="S63" s="110"/>
+      <c r="T63" s="111"/>
+      <c r="U63" s="111"/>
+      <c r="V63" s="111"/>
+      <c r="W63" s="111"/>
+      <c r="X63" s="111"/>
+      <c r="Y63" s="111"/>
+      <c r="Z63" s="111"/>
+      <c r="AA63" s="111"/>
+      <c r="AB63" s="111"/>
+      <c r="AC63" s="111"/>
+      <c r="AD63" s="111"/>
+      <c r="AE63" s="111"/>
+      <c r="AF63" s="111"/>
+      <c r="AG63" s="111"/>
+      <c r="AH63" s="111"/>
+      <c r="AI63" s="111"/>
+      <c r="AJ63" s="111"/>
+      <c r="AK63" s="111"/>
+      <c r="AL63" s="111"/>
+      <c r="AM63" s="111"/>
+      <c r="AN63" s="112"/>
     </row>
     <row r="64" spans="1:40" ht="38.25">
       <c r="A64" s="13" t="s">
@@ -6922,10 +6967,10 @@
         <v>225</v>
       </c>
       <c r="E64" s="91"/>
-      <c r="F64" s="103" t="s">
+      <c r="F64" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="104">
+      <c r="G64" s="103">
         <v>100</v>
       </c>
       <c r="H64" s="19">
@@ -6952,34 +6997,34 @@
       <c r="N64" s="43"/>
       <c r="O64" s="43"/>
       <c r="P64" s="43"/>
-      <c r="Q64" s="105" t="s">
+      <c r="Q64" s="104" t="s">
         <v>226</v>
       </c>
       <c r="R64" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S64" s="116"/>
-      <c r="T64" s="117"/>
-      <c r="U64" s="117"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="117"/>
-      <c r="X64" s="117"/>
-      <c r="Y64" s="117"/>
-      <c r="Z64" s="117"/>
-      <c r="AA64" s="117"/>
-      <c r="AB64" s="117"/>
-      <c r="AC64" s="117"/>
-      <c r="AD64" s="117"/>
-      <c r="AE64" s="117"/>
-      <c r="AF64" s="117"/>
-      <c r="AG64" s="117"/>
-      <c r="AH64" s="117"/>
-      <c r="AI64" s="117"/>
-      <c r="AJ64" s="117"/>
-      <c r="AK64" s="117"/>
-      <c r="AL64" s="117"/>
-      <c r="AM64" s="117"/>
-      <c r="AN64" s="118"/>
+      <c r="S64" s="115"/>
+      <c r="T64" s="116"/>
+      <c r="U64" s="116"/>
+      <c r="V64" s="116"/>
+      <c r="W64" s="116"/>
+      <c r="X64" s="116"/>
+      <c r="Y64" s="116"/>
+      <c r="Z64" s="116"/>
+      <c r="AA64" s="116"/>
+      <c r="AB64" s="116"/>
+      <c r="AC64" s="116"/>
+      <c r="AD64" s="116"/>
+      <c r="AE64" s="116"/>
+      <c r="AF64" s="116"/>
+      <c r="AG64" s="116"/>
+      <c r="AH64" s="116"/>
+      <c r="AI64" s="116"/>
+      <c r="AJ64" s="116"/>
+      <c r="AK64" s="116"/>
+      <c r="AL64" s="116"/>
+      <c r="AM64" s="116"/>
+      <c r="AN64" s="117"/>
     </row>
     <row r="65" spans="1:40" ht="38.25">
       <c r="A65" s="26" t="s">
@@ -6995,10 +7040,10 @@
         <v>111</v>
       </c>
       <c r="E65" s="93"/>
-      <c r="F65" s="101" t="s">
+      <c r="F65" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="102">
+      <c r="G65" s="101">
         <v>100</v>
       </c>
       <c r="H65" s="32">
@@ -7025,34 +7070,34 @@
       <c r="N65" s="40"/>
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
-      <c r="Q65" s="98" t="s">
+      <c r="Q65" s="97" t="s">
         <v>229</v>
       </c>
       <c r="R65" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S65" s="111"/>
-      <c r="T65" s="112"/>
-      <c r="U65" s="112"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="112"/>
-      <c r="Y65" s="112"/>
-      <c r="Z65" s="112"/>
-      <c r="AA65" s="112"/>
-      <c r="AB65" s="112"/>
-      <c r="AC65" s="112"/>
-      <c r="AD65" s="112"/>
-      <c r="AE65" s="112"/>
-      <c r="AF65" s="112"/>
-      <c r="AG65" s="112"/>
-      <c r="AH65" s="112"/>
-      <c r="AI65" s="112"/>
-      <c r="AJ65" s="112"/>
-      <c r="AK65" s="112"/>
-      <c r="AL65" s="112"/>
-      <c r="AM65" s="112"/>
-      <c r="AN65" s="113"/>
+      <c r="S65" s="110"/>
+      <c r="T65" s="111"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="111"/>
+      <c r="X65" s="111"/>
+      <c r="Y65" s="111"/>
+      <c r="Z65" s="111"/>
+      <c r="AA65" s="111"/>
+      <c r="AB65" s="111"/>
+      <c r="AC65" s="111"/>
+      <c r="AD65" s="111"/>
+      <c r="AE65" s="111"/>
+      <c r="AF65" s="111"/>
+      <c r="AG65" s="111"/>
+      <c r="AH65" s="111"/>
+      <c r="AI65" s="111"/>
+      <c r="AJ65" s="111"/>
+      <c r="AK65" s="111"/>
+      <c r="AL65" s="111"/>
+      <c r="AM65" s="111"/>
+      <c r="AN65" s="112"/>
     </row>
     <row r="66" spans="1:40">
       <c r="A66" s="13" t="s">
@@ -7068,10 +7113,10 @@
         <v>211</v>
       </c>
       <c r="E66" s="91"/>
-      <c r="F66" s="103" t="s">
+      <c r="F66" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="104">
+      <c r="G66" s="103">
         <v>100</v>
       </c>
       <c r="H66" s="19">
@@ -7098,34 +7143,34 @@
       <c r="N66" s="43"/>
       <c r="O66" s="43"/>
       <c r="P66" s="43"/>
-      <c r="Q66" s="105" t="s">
+      <c r="Q66" s="104" t="s">
         <v>205</v>
       </c>
       <c r="R66" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S66" s="116"/>
-      <c r="T66" s="117"/>
-      <c r="U66" s="117"/>
-      <c r="V66" s="117"/>
-      <c r="W66" s="117"/>
-      <c r="X66" s="117"/>
-      <c r="Y66" s="117"/>
-      <c r="Z66" s="117"/>
-      <c r="AA66" s="117"/>
-      <c r="AB66" s="117"/>
-      <c r="AC66" s="117"/>
-      <c r="AD66" s="117"/>
-      <c r="AE66" s="117"/>
-      <c r="AF66" s="117"/>
-      <c r="AG66" s="117"/>
-      <c r="AH66" s="117"/>
-      <c r="AI66" s="117"/>
-      <c r="AJ66" s="117"/>
-      <c r="AK66" s="117"/>
-      <c r="AL66" s="117"/>
-      <c r="AM66" s="117"/>
-      <c r="AN66" s="118"/>
+      <c r="S66" s="115"/>
+      <c r="T66" s="116"/>
+      <c r="U66" s="116"/>
+      <c r="V66" s="116"/>
+      <c r="W66" s="116"/>
+      <c r="X66" s="116"/>
+      <c r="Y66" s="116"/>
+      <c r="Z66" s="116"/>
+      <c r="AA66" s="116"/>
+      <c r="AB66" s="116"/>
+      <c r="AC66" s="116"/>
+      <c r="AD66" s="116"/>
+      <c r="AE66" s="116"/>
+      <c r="AF66" s="116"/>
+      <c r="AG66" s="116"/>
+      <c r="AH66" s="116"/>
+      <c r="AI66" s="116"/>
+      <c r="AJ66" s="116"/>
+      <c r="AK66" s="116"/>
+      <c r="AL66" s="116"/>
+      <c r="AM66" s="116"/>
+      <c r="AN66" s="117"/>
     </row>
     <row r="67" spans="1:40">
       <c r="A67" s="26" t="s">
@@ -7141,10 +7186,10 @@
         <v>211</v>
       </c>
       <c r="E67" s="93"/>
-      <c r="F67" s="101" t="s">
+      <c r="F67" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="102">
+      <c r="G67" s="101">
         <v>100</v>
       </c>
       <c r="H67" s="32">
@@ -7171,53 +7216,53 @@
       <c r="N67" s="40"/>
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
-      <c r="Q67" s="98" t="s">
+      <c r="Q67" s="97" t="s">
         <v>205</v>
       </c>
       <c r="R67" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S67" s="111"/>
-      <c r="T67" s="112"/>
-      <c r="U67" s="112"/>
-      <c r="V67" s="112"/>
-      <c r="W67" s="112"/>
-      <c r="X67" s="112"/>
-      <c r="Y67" s="112"/>
-      <c r="Z67" s="112"/>
-      <c r="AA67" s="112"/>
-      <c r="AB67" s="112"/>
-      <c r="AC67" s="112"/>
-      <c r="AD67" s="112"/>
-      <c r="AE67" s="112"/>
-      <c r="AF67" s="112"/>
-      <c r="AG67" s="112"/>
-      <c r="AH67" s="112"/>
-      <c r="AI67" s="112"/>
-      <c r="AJ67" s="112"/>
-      <c r="AK67" s="112"/>
-      <c r="AL67" s="112"/>
-      <c r="AM67" s="112"/>
-      <c r="AN67" s="113"/>
+      <c r="S67" s="110"/>
+      <c r="T67" s="111"/>
+      <c r="U67" s="111"/>
+      <c r="V67" s="111"/>
+      <c r="W67" s="111"/>
+      <c r="X67" s="111"/>
+      <c r="Y67" s="111"/>
+      <c r="Z67" s="111"/>
+      <c r="AA67" s="111"/>
+      <c r="AB67" s="111"/>
+      <c r="AC67" s="111"/>
+      <c r="AD67" s="111"/>
+      <c r="AE67" s="111"/>
+      <c r="AF67" s="111"/>
+      <c r="AG67" s="111"/>
+      <c r="AH67" s="111"/>
+      <c r="AI67" s="111"/>
+      <c r="AJ67" s="111"/>
+      <c r="AK67" s="111"/>
+      <c r="AL67" s="111"/>
+      <c r="AM67" s="111"/>
+      <c r="AN67" s="112"/>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" s="114" t="s">
+      <c r="A68" s="113" t="s">
         <v>232</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="127" t="s">
+      <c r="C68" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="128" t="s">
+      <c r="D68" s="89" t="s">
         <v>211</v>
       </c>
       <c r="E68" s="91"/>
-      <c r="F68" s="103" t="s">
+      <c r="F68" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="104">
+      <c r="G68" s="103">
         <v>100</v>
       </c>
       <c r="H68" s="19">
@@ -7244,53 +7289,53 @@
       <c r="N68" s="43"/>
       <c r="O68" s="43"/>
       <c r="P68" s="43"/>
-      <c r="Q68" s="129" t="s">
+      <c r="Q68" s="127" t="s">
         <v>234</v>
       </c>
-      <c r="R68" s="130" t="s">
+      <c r="R68" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S68" s="115"/>
-      <c r="T68" s="108"/>
-      <c r="U68" s="108"/>
-      <c r="V68" s="108"/>
-      <c r="W68" s="108"/>
-      <c r="X68" s="108"/>
-      <c r="Y68" s="108"/>
-      <c r="Z68" s="108"/>
-      <c r="AA68" s="108"/>
-      <c r="AB68" s="108"/>
-      <c r="AC68" s="108"/>
-      <c r="AD68" s="108"/>
-      <c r="AE68" s="108"/>
-      <c r="AF68" s="108"/>
-      <c r="AG68" s="108"/>
-      <c r="AH68" s="108"/>
-      <c r="AI68" s="108"/>
-      <c r="AJ68" s="108"/>
-      <c r="AK68" s="108"/>
-      <c r="AL68" s="108"/>
-      <c r="AM68" s="108"/>
-      <c r="AN68" s="109"/>
+      <c r="S68" s="114"/>
+      <c r="T68" s="107"/>
+      <c r="U68" s="107"/>
+      <c r="V68" s="107"/>
+      <c r="W68" s="107"/>
+      <c r="X68" s="107"/>
+      <c r="Y68" s="107"/>
+      <c r="Z68" s="107"/>
+      <c r="AA68" s="107"/>
+      <c r="AB68" s="107"/>
+      <c r="AC68" s="107"/>
+      <c r="AD68" s="107"/>
+      <c r="AE68" s="107"/>
+      <c r="AF68" s="107"/>
+      <c r="AG68" s="107"/>
+      <c r="AH68" s="107"/>
+      <c r="AI68" s="107"/>
+      <c r="AJ68" s="107"/>
+      <c r="AK68" s="107"/>
+      <c r="AL68" s="107"/>
+      <c r="AM68" s="107"/>
+      <c r="AN68" s="108"/>
     </row>
     <row r="69" spans="1:40" ht="25.5">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="131" t="s">
+      <c r="B69" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="132" t="s">
+      <c r="C69" s="130" t="s">
         <v>236</v>
       </c>
       <c r="D69" s="88" t="s">
         <v>237</v>
       </c>
       <c r="E69" s="93"/>
-      <c r="F69" s="101" t="s">
+      <c r="F69" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G69" s="102">
+      <c r="G69" s="101">
         <v>100</v>
       </c>
       <c r="H69" s="32">
@@ -7317,53 +7362,53 @@
       <c r="N69" s="40"/>
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
-      <c r="Q69" s="133" t="s">
+      <c r="Q69" s="131" t="s">
         <v>238</v>
       </c>
-      <c r="R69" s="134" t="s">
+      <c r="R69" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S69" s="111"/>
-      <c r="T69" s="112"/>
-      <c r="U69" s="112"/>
-      <c r="V69" s="112"/>
-      <c r="W69" s="112"/>
-      <c r="X69" s="112"/>
-      <c r="Y69" s="112"/>
-      <c r="Z69" s="112"/>
-      <c r="AA69" s="112"/>
-      <c r="AB69" s="112"/>
-      <c r="AC69" s="112"/>
-      <c r="AD69" s="112"/>
-      <c r="AE69" s="112"/>
-      <c r="AF69" s="112"/>
-      <c r="AG69" s="112"/>
-      <c r="AH69" s="112"/>
-      <c r="AI69" s="112"/>
-      <c r="AJ69" s="112"/>
-      <c r="AK69" s="112"/>
-      <c r="AL69" s="112"/>
-      <c r="AM69" s="112"/>
-      <c r="AN69" s="113"/>
-    </row>
-    <row r="70" spans="1:40">
-      <c r="A70" s="114" t="s">
+      <c r="S69" s="110"/>
+      <c r="T69" s="111"/>
+      <c r="U69" s="111"/>
+      <c r="V69" s="111"/>
+      <c r="W69" s="111"/>
+      <c r="X69" s="111"/>
+      <c r="Y69" s="111"/>
+      <c r="Z69" s="111"/>
+      <c r="AA69" s="111"/>
+      <c r="AB69" s="111"/>
+      <c r="AC69" s="111"/>
+      <c r="AD69" s="111"/>
+      <c r="AE69" s="111"/>
+      <c r="AF69" s="111"/>
+      <c r="AG69" s="111"/>
+      <c r="AH69" s="111"/>
+      <c r="AI69" s="111"/>
+      <c r="AJ69" s="111"/>
+      <c r="AK69" s="111"/>
+      <c r="AL69" s="111"/>
+      <c r="AM69" s="111"/>
+      <c r="AN69" s="112"/>
+    </row>
+    <row r="70" spans="1:40" ht="25.5">
+      <c r="A70" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="135" t="s">
+      <c r="B70" s="133" t="s">
         <v>239</v>
       </c>
-      <c r="C70" s="127" t="s">
+      <c r="C70" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="D70" s="128" t="s">
+      <c r="D70" s="89" t="s">
         <v>241</v>
       </c>
       <c r="E70" s="91"/>
-      <c r="F70" s="103" t="s">
+      <c r="F70" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G70" s="104">
+      <c r="G70" s="103">
         <v>100</v>
       </c>
       <c r="H70" s="19">
@@ -7390,34 +7435,34 @@
       <c r="N70" s="43"/>
       <c r="O70" s="43"/>
       <c r="P70" s="43"/>
-      <c r="Q70" s="129" t="s">
+      <c r="Q70" s="127" t="s">
         <v>242</v>
       </c>
-      <c r="R70" s="130" t="s">
+      <c r="R70" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S70" s="115"/>
-      <c r="T70" s="108"/>
-      <c r="U70" s="108"/>
-      <c r="V70" s="108"/>
-      <c r="W70" s="108"/>
-      <c r="X70" s="108"/>
-      <c r="Y70" s="108"/>
-      <c r="Z70" s="108"/>
-      <c r="AA70" s="108"/>
-      <c r="AB70" s="108"/>
-      <c r="AC70" s="108"/>
-      <c r="AD70" s="108"/>
-      <c r="AE70" s="108"/>
-      <c r="AF70" s="108"/>
-      <c r="AG70" s="108"/>
-      <c r="AH70" s="108"/>
-      <c r="AI70" s="108"/>
-      <c r="AJ70" s="108"/>
-      <c r="AK70" s="108"/>
-      <c r="AL70" s="108"/>
-      <c r="AM70" s="108"/>
-      <c r="AN70" s="109"/>
+      <c r="S70" s="114"/>
+      <c r="T70" s="107"/>
+      <c r="U70" s="107"/>
+      <c r="V70" s="107"/>
+      <c r="W70" s="107"/>
+      <c r="X70" s="107"/>
+      <c r="Y70" s="107"/>
+      <c r="Z70" s="107"/>
+      <c r="AA70" s="107"/>
+      <c r="AB70" s="107"/>
+      <c r="AC70" s="107"/>
+      <c r="AD70" s="107"/>
+      <c r="AE70" s="107"/>
+      <c r="AF70" s="107"/>
+      <c r="AG70" s="107"/>
+      <c r="AH70" s="107"/>
+      <c r="AI70" s="107"/>
+      <c r="AJ70" s="107"/>
+      <c r="AK70" s="107"/>
+      <c r="AL70" s="107"/>
+      <c r="AM70" s="107"/>
+      <c r="AN70" s="108"/>
     </row>
     <row r="71" spans="1:40">
       <c r="A71" s="26" t="s">
@@ -7433,10 +7478,10 @@
         <v>211</v>
       </c>
       <c r="E71" s="93"/>
-      <c r="F71" s="101" t="s">
+      <c r="F71" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G71" s="102">
+      <c r="G71" s="101">
         <v>100</v>
       </c>
       <c r="H71" s="32">
@@ -7463,53 +7508,53 @@
       <c r="N71" s="40"/>
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
-      <c r="Q71" s="98" t="s">
+      <c r="Q71" s="97" t="s">
         <v>205</v>
       </c>
       <c r="R71" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S71" s="111"/>
-      <c r="T71" s="112"/>
-      <c r="U71" s="112"/>
-      <c r="V71" s="112"/>
-      <c r="W71" s="112"/>
-      <c r="X71" s="112"/>
-      <c r="Y71" s="112"/>
-      <c r="Z71" s="112"/>
-      <c r="AA71" s="112"/>
-      <c r="AB71" s="112"/>
-      <c r="AC71" s="112"/>
-      <c r="AD71" s="112"/>
-      <c r="AE71" s="112"/>
-      <c r="AF71" s="112"/>
-      <c r="AG71" s="112"/>
-      <c r="AH71" s="112"/>
-      <c r="AI71" s="112"/>
-      <c r="AJ71" s="112"/>
-      <c r="AK71" s="112"/>
-      <c r="AL71" s="112"/>
-      <c r="AM71" s="112"/>
-      <c r="AN71" s="113"/>
+      <c r="S71" s="110"/>
+      <c r="T71" s="111"/>
+      <c r="U71" s="111"/>
+      <c r="V71" s="111"/>
+      <c r="W71" s="111"/>
+      <c r="X71" s="111"/>
+      <c r="Y71" s="111"/>
+      <c r="Z71" s="111"/>
+      <c r="AA71" s="111"/>
+      <c r="AB71" s="111"/>
+      <c r="AC71" s="111"/>
+      <c r="AD71" s="111"/>
+      <c r="AE71" s="111"/>
+      <c r="AF71" s="111"/>
+      <c r="AG71" s="111"/>
+      <c r="AH71" s="111"/>
+      <c r="AI71" s="111"/>
+      <c r="AJ71" s="111"/>
+      <c r="AK71" s="111"/>
+      <c r="AL71" s="111"/>
+      <c r="AM71" s="111"/>
+      <c r="AN71" s="112"/>
     </row>
     <row r="72" spans="1:40" ht="25.5">
-      <c r="A72" s="114" t="s">
+      <c r="A72" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="135" t="s">
+      <c r="B72" s="133" t="s">
         <v>244</v>
       </c>
-      <c r="C72" s="127" t="s">
+      <c r="C72" s="126" t="s">
         <v>245</v>
       </c>
       <c r="D72" s="89" t="s">
         <v>246</v>
       </c>
       <c r="E72" s="91"/>
-      <c r="F72" s="103" t="s">
+      <c r="F72" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="104">
+      <c r="G72" s="103">
         <v>100</v>
       </c>
       <c r="H72" s="19">
@@ -7536,53 +7581,53 @@
       <c r="N72" s="43"/>
       <c r="O72" s="43"/>
       <c r="P72" s="43"/>
-      <c r="Q72" s="129" t="s">
+      <c r="Q72" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="R72" s="130" t="s">
+      <c r="R72" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S72" s="115"/>
-      <c r="T72" s="108"/>
-      <c r="U72" s="108"/>
-      <c r="V72" s="108"/>
-      <c r="W72" s="108"/>
-      <c r="X72" s="108"/>
-      <c r="Y72" s="108"/>
-      <c r="Z72" s="108"/>
-      <c r="AA72" s="108"/>
-      <c r="AB72" s="108"/>
-      <c r="AC72" s="108"/>
-      <c r="AD72" s="108"/>
-      <c r="AE72" s="108"/>
-      <c r="AF72" s="108"/>
-      <c r="AG72" s="108"/>
-      <c r="AH72" s="108"/>
-      <c r="AI72" s="108"/>
-      <c r="AJ72" s="108"/>
-      <c r="AK72" s="108"/>
-      <c r="AL72" s="108"/>
-      <c r="AM72" s="108"/>
-      <c r="AN72" s="109"/>
+      <c r="S72" s="114"/>
+      <c r="T72" s="107"/>
+      <c r="U72" s="107"/>
+      <c r="V72" s="107"/>
+      <c r="W72" s="107"/>
+      <c r="X72" s="107"/>
+      <c r="Y72" s="107"/>
+      <c r="Z72" s="107"/>
+      <c r="AA72" s="107"/>
+      <c r="AB72" s="107"/>
+      <c r="AC72" s="107"/>
+      <c r="AD72" s="107"/>
+      <c r="AE72" s="107"/>
+      <c r="AF72" s="107"/>
+      <c r="AG72" s="107"/>
+      <c r="AH72" s="107"/>
+      <c r="AI72" s="107"/>
+      <c r="AJ72" s="107"/>
+      <c r="AK72" s="107"/>
+      <c r="AL72" s="107"/>
+      <c r="AM72" s="107"/>
+      <c r="AN72" s="108"/>
     </row>
     <row r="73" spans="1:40" ht="51">
-      <c r="A73" s="110" t="s">
+      <c r="A73" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="131" t="s">
+      <c r="B73" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="132" t="s">
+      <c r="C73" s="130" t="s">
         <v>249</v>
       </c>
       <c r="D73" s="88" t="s">
         <v>250</v>
       </c>
       <c r="E73" s="93"/>
-      <c r="F73" s="101" t="s">
+      <c r="F73" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="G73" s="102"/>
+      <c r="G73" s="101"/>
       <c r="H73" s="32">
         <f>IF(OR(J73="",K73="",K73&lt;J73),0,NETWORKDAYS(J73,K73,Hoja2!$A$2:$A$53))</f>
         <v>0</v>
@@ -7603,32 +7648,32 @@
       <c r="N73" s="40"/>
       <c r="O73" s="40"/>
       <c r="P73" s="40"/>
-      <c r="Q73" s="136"/>
-      <c r="R73" s="134" t="s">
+      <c r="Q73" s="134"/>
+      <c r="R73" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S73" s="111"/>
-      <c r="T73" s="112"/>
-      <c r="U73" s="112"/>
-      <c r="V73" s="112"/>
-      <c r="W73" s="112"/>
-      <c r="X73" s="112"/>
-      <c r="Y73" s="112"/>
-      <c r="Z73" s="112"/>
-      <c r="AA73" s="112"/>
-      <c r="AB73" s="112"/>
-      <c r="AC73" s="112"/>
-      <c r="AD73" s="112"/>
-      <c r="AE73" s="112"/>
-      <c r="AF73" s="112"/>
-      <c r="AG73" s="112"/>
-      <c r="AH73" s="112"/>
-      <c r="AI73" s="112"/>
-      <c r="AJ73" s="112"/>
-      <c r="AK73" s="112"/>
-      <c r="AL73" s="112"/>
-      <c r="AM73" s="112"/>
-      <c r="AN73" s="113"/>
+      <c r="S73" s="110"/>
+      <c r="T73" s="111"/>
+      <c r="U73" s="111"/>
+      <c r="V73" s="111"/>
+      <c r="W73" s="111"/>
+      <c r="X73" s="111"/>
+      <c r="Y73" s="111"/>
+      <c r="Z73" s="111"/>
+      <c r="AA73" s="111"/>
+      <c r="AB73" s="111"/>
+      <c r="AC73" s="111"/>
+      <c r="AD73" s="111"/>
+      <c r="AE73" s="111"/>
+      <c r="AF73" s="111"/>
+      <c r="AG73" s="111"/>
+      <c r="AH73" s="111"/>
+      <c r="AI73" s="111"/>
+      <c r="AJ73" s="111"/>
+      <c r="AK73" s="111"/>
+      <c r="AL73" s="111"/>
+      <c r="AM73" s="111"/>
+      <c r="AN73" s="112"/>
     </row>
     <row r="74" spans="1:40">
       <c r="A74" s="13" t="s">
@@ -7644,10 +7689,10 @@
         <v>253</v>
       </c>
       <c r="E74" s="91"/>
-      <c r="F74" s="103" t="s">
+      <c r="F74" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="104">
+      <c r="G74" s="103">
         <v>100</v>
       </c>
       <c r="H74" s="19">
@@ -7674,40 +7719,40 @@
       <c r="N74" s="43"/>
       <c r="O74" s="43"/>
       <c r="P74" s="43"/>
-      <c r="Q74" s="105" t="s">
+      <c r="Q74" s="104" t="s">
         <v>254</v>
       </c>
       <c r="R74" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="S74" s="116"/>
-      <c r="T74" s="117"/>
-      <c r="U74" s="117"/>
-      <c r="V74" s="117"/>
-      <c r="W74" s="117"/>
-      <c r="X74" s="117"/>
-      <c r="Y74" s="117"/>
-      <c r="Z74" s="117"/>
-      <c r="AA74" s="117"/>
-      <c r="AB74" s="117"/>
-      <c r="AC74" s="117"/>
-      <c r="AD74" s="117"/>
-      <c r="AE74" s="117"/>
-      <c r="AF74" s="117"/>
-      <c r="AG74" s="117"/>
-      <c r="AH74" s="117"/>
-      <c r="AI74" s="117"/>
-      <c r="AJ74" s="117"/>
-      <c r="AK74" s="117"/>
-      <c r="AL74" s="117"/>
-      <c r="AM74" s="117"/>
-      <c r="AN74" s="118"/>
+      <c r="S74" s="115"/>
+      <c r="T74" s="116"/>
+      <c r="U74" s="116"/>
+      <c r="V74" s="116"/>
+      <c r="W74" s="116"/>
+      <c r="X74" s="116"/>
+      <c r="Y74" s="116"/>
+      <c r="Z74" s="116"/>
+      <c r="AA74" s="116"/>
+      <c r="AB74" s="116"/>
+      <c r="AC74" s="116"/>
+      <c r="AD74" s="116"/>
+      <c r="AE74" s="116"/>
+      <c r="AF74" s="116"/>
+      <c r="AG74" s="116"/>
+      <c r="AH74" s="116"/>
+      <c r="AI74" s="116"/>
+      <c r="AJ74" s="116"/>
+      <c r="AK74" s="116"/>
+      <c r="AL74" s="116"/>
+      <c r="AM74" s="116"/>
+      <c r="AN74" s="117"/>
     </row>
     <row r="75" spans="1:40" ht="25.5">
-      <c r="A75" s="110" t="s">
+      <c r="A75" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="131" t="s">
+      <c r="B75" s="129" t="s">
         <v>255</v>
       </c>
       <c r="C75" s="82" t="s">
@@ -7717,10 +7762,10 @@
         <v>257</v>
       </c>
       <c r="E75" s="93"/>
-      <c r="F75" s="101" t="s">
+      <c r="F75" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G75" s="102">
+      <c r="G75" s="101">
         <v>100</v>
       </c>
       <c r="H75" s="32">
@@ -7751,40 +7796,40 @@
       <c r="N75" s="40"/>
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
-      <c r="Q75" s="98" t="s">
+      <c r="Q75" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="R75" s="134" t="s">
+      <c r="R75" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S75" s="111"/>
-      <c r="T75" s="112"/>
-      <c r="U75" s="112"/>
-      <c r="V75" s="112"/>
-      <c r="W75" s="112"/>
-      <c r="X75" s="112"/>
-      <c r="Y75" s="112"/>
-      <c r="Z75" s="112"/>
-      <c r="AA75" s="112"/>
-      <c r="AB75" s="112"/>
-      <c r="AC75" s="112"/>
-      <c r="AD75" s="112"/>
-      <c r="AE75" s="112"/>
-      <c r="AF75" s="112"/>
-      <c r="AG75" s="112"/>
-      <c r="AH75" s="112"/>
-      <c r="AI75" s="112"/>
-      <c r="AJ75" s="112"/>
-      <c r="AK75" s="112"/>
-      <c r="AL75" s="112"/>
-      <c r="AM75" s="112"/>
-      <c r="AN75" s="113"/>
+      <c r="S75" s="110"/>
+      <c r="T75" s="111"/>
+      <c r="U75" s="111"/>
+      <c r="V75" s="111"/>
+      <c r="W75" s="111"/>
+      <c r="X75" s="111"/>
+      <c r="Y75" s="111"/>
+      <c r="Z75" s="111"/>
+      <c r="AA75" s="111"/>
+      <c r="AB75" s="111"/>
+      <c r="AC75" s="111"/>
+      <c r="AD75" s="111"/>
+      <c r="AE75" s="111"/>
+      <c r="AF75" s="111"/>
+      <c r="AG75" s="111"/>
+      <c r="AH75" s="111"/>
+      <c r="AI75" s="111"/>
+      <c r="AJ75" s="111"/>
+      <c r="AK75" s="111"/>
+      <c r="AL75" s="111"/>
+      <c r="AM75" s="111"/>
+      <c r="AN75" s="112"/>
     </row>
     <row r="76" spans="1:40" ht="25.5">
-      <c r="A76" s="114" t="s">
+      <c r="A76" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="135" t="s">
+      <c r="B76" s="133" t="s">
         <v>259</v>
       </c>
       <c r="C76" s="85" t="s">
@@ -7794,10 +7839,10 @@
         <v>260</v>
       </c>
       <c r="E76" s="91"/>
-      <c r="F76" s="103" t="s">
+      <c r="F76" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G76" s="104">
+      <c r="G76" s="103">
         <v>100</v>
       </c>
       <c r="H76" s="19">
@@ -7826,40 +7871,40 @@
       <c r="N76" s="43"/>
       <c r="O76" s="43"/>
       <c r="P76" s="43"/>
-      <c r="Q76" s="105" t="s">
+      <c r="Q76" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="R76" s="130" t="s">
+      <c r="R76" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S76" s="116"/>
-      <c r="T76" s="117"/>
-      <c r="U76" s="117"/>
-      <c r="V76" s="117"/>
-      <c r="W76" s="117"/>
-      <c r="X76" s="117"/>
-      <c r="Y76" s="117"/>
-      <c r="Z76" s="117"/>
-      <c r="AA76" s="117"/>
-      <c r="AB76" s="117"/>
-      <c r="AC76" s="117"/>
-      <c r="AD76" s="117"/>
-      <c r="AE76" s="117"/>
-      <c r="AF76" s="117"/>
-      <c r="AG76" s="117"/>
-      <c r="AH76" s="117"/>
-      <c r="AI76" s="117"/>
-      <c r="AJ76" s="117"/>
-      <c r="AK76" s="117"/>
-      <c r="AL76" s="117"/>
-      <c r="AM76" s="117"/>
-      <c r="AN76" s="118"/>
+      <c r="S76" s="115"/>
+      <c r="T76" s="116"/>
+      <c r="U76" s="116"/>
+      <c r="V76" s="116"/>
+      <c r="W76" s="116"/>
+      <c r="X76" s="116"/>
+      <c r="Y76" s="116"/>
+      <c r="Z76" s="116"/>
+      <c r="AA76" s="116"/>
+      <c r="AB76" s="116"/>
+      <c r="AC76" s="116"/>
+      <c r="AD76" s="116"/>
+      <c r="AE76" s="116"/>
+      <c r="AF76" s="116"/>
+      <c r="AG76" s="116"/>
+      <c r="AH76" s="116"/>
+      <c r="AI76" s="116"/>
+      <c r="AJ76" s="116"/>
+      <c r="AK76" s="116"/>
+      <c r="AL76" s="116"/>
+      <c r="AM76" s="116"/>
+      <c r="AN76" s="117"/>
     </row>
     <row r="77" spans="1:40" ht="25.5">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="131" t="s">
+      <c r="B77" s="129" t="s">
         <v>262</v>
       </c>
       <c r="C77" s="82" t="s">
@@ -7869,10 +7914,10 @@
         <v>264</v>
       </c>
       <c r="E77" s="93"/>
-      <c r="F77" s="101" t="s">
+      <c r="F77" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="102">
+      <c r="G77" s="101">
         <v>100</v>
       </c>
       <c r="H77" s="32">
@@ -7901,40 +7946,40 @@
       <c r="N77" s="40"/>
       <c r="O77" s="40"/>
       <c r="P77" s="40"/>
-      <c r="Q77" s="98" t="s">
+      <c r="Q77" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="R77" s="134" t="s">
+      <c r="R77" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S77" s="111"/>
-      <c r="T77" s="112"/>
-      <c r="U77" s="112"/>
-      <c r="V77" s="112"/>
-      <c r="W77" s="112"/>
-      <c r="X77" s="112"/>
-      <c r="Y77" s="112"/>
-      <c r="Z77" s="112"/>
-      <c r="AA77" s="112"/>
-      <c r="AB77" s="112"/>
-      <c r="AC77" s="112"/>
-      <c r="AD77" s="112"/>
-      <c r="AE77" s="112"/>
-      <c r="AF77" s="112"/>
-      <c r="AG77" s="112"/>
-      <c r="AH77" s="112"/>
-      <c r="AI77" s="112"/>
-      <c r="AJ77" s="112"/>
-      <c r="AK77" s="112"/>
-      <c r="AL77" s="112"/>
-      <c r="AM77" s="112"/>
-      <c r="AN77" s="113"/>
+      <c r="S77" s="110"/>
+      <c r="T77" s="111"/>
+      <c r="U77" s="111"/>
+      <c r="V77" s="111"/>
+      <c r="W77" s="111"/>
+      <c r="X77" s="111"/>
+      <c r="Y77" s="111"/>
+      <c r="Z77" s="111"/>
+      <c r="AA77" s="111"/>
+      <c r="AB77" s="111"/>
+      <c r="AC77" s="111"/>
+      <c r="AD77" s="111"/>
+      <c r="AE77" s="111"/>
+      <c r="AF77" s="111"/>
+      <c r="AG77" s="111"/>
+      <c r="AH77" s="111"/>
+      <c r="AI77" s="111"/>
+      <c r="AJ77" s="111"/>
+      <c r="AK77" s="111"/>
+      <c r="AL77" s="111"/>
+      <c r="AM77" s="111"/>
+      <c r="AN77" s="112"/>
     </row>
     <row r="78" spans="1:40">
-      <c r="A78" s="114" t="s">
+      <c r="A78" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="135" t="s">
+      <c r="B78" s="133" t="s">
         <v>265</v>
       </c>
       <c r="C78" s="85" t="s">
@@ -7944,10 +7989,10 @@
         <v>211</v>
       </c>
       <c r="E78" s="91"/>
-      <c r="F78" s="103" t="s">
+      <c r="F78" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="104">
+      <c r="G78" s="103">
         <v>100</v>
       </c>
       <c r="H78" s="19">
@@ -7974,40 +8019,40 @@
       <c r="N78" s="43"/>
       <c r="O78" s="43"/>
       <c r="P78" s="43"/>
-      <c r="Q78" s="105" t="s">
+      <c r="Q78" s="104" t="s">
         <v>266</v>
       </c>
-      <c r="R78" s="130" t="s">
+      <c r="R78" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S78" s="116"/>
-      <c r="T78" s="117"/>
-      <c r="U78" s="117"/>
-      <c r="V78" s="117"/>
-      <c r="W78" s="117"/>
-      <c r="X78" s="117"/>
-      <c r="Y78" s="117"/>
-      <c r="Z78" s="117"/>
-      <c r="AA78" s="117"/>
-      <c r="AB78" s="117"/>
-      <c r="AC78" s="117"/>
-      <c r="AD78" s="117"/>
-      <c r="AE78" s="117"/>
-      <c r="AF78" s="117"/>
-      <c r="AG78" s="117"/>
-      <c r="AH78" s="117"/>
-      <c r="AI78" s="117"/>
-      <c r="AJ78" s="117"/>
-      <c r="AK78" s="117"/>
-      <c r="AL78" s="117"/>
-      <c r="AM78" s="117"/>
-      <c r="AN78" s="118"/>
+      <c r="S78" s="115"/>
+      <c r="T78" s="116"/>
+      <c r="U78" s="116"/>
+      <c r="V78" s="116"/>
+      <c r="W78" s="116"/>
+      <c r="X78" s="116"/>
+      <c r="Y78" s="116"/>
+      <c r="Z78" s="116"/>
+      <c r="AA78" s="116"/>
+      <c r="AB78" s="116"/>
+      <c r="AC78" s="116"/>
+      <c r="AD78" s="116"/>
+      <c r="AE78" s="116"/>
+      <c r="AF78" s="116"/>
+      <c r="AG78" s="116"/>
+      <c r="AH78" s="116"/>
+      <c r="AI78" s="116"/>
+      <c r="AJ78" s="116"/>
+      <c r="AK78" s="116"/>
+      <c r="AL78" s="116"/>
+      <c r="AM78" s="116"/>
+      <c r="AN78" s="117"/>
     </row>
     <row r="79" spans="1:40">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="131" t="s">
+      <c r="B79" s="129" t="s">
         <v>267</v>
       </c>
       <c r="C79" s="82" t="s">
@@ -8017,10 +8062,10 @@
         <v>211</v>
       </c>
       <c r="E79" s="93"/>
-      <c r="F79" s="101" t="s">
+      <c r="F79" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G79" s="102">
+      <c r="G79" s="101">
         <v>100</v>
       </c>
       <c r="H79" s="32">
@@ -8047,40 +8092,40 @@
       <c r="N79" s="40"/>
       <c r="O79" s="40"/>
       <c r="P79" s="40"/>
-      <c r="Q79" s="98" t="s">
+      <c r="Q79" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="R79" s="134" t="s">
+      <c r="R79" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S79" s="111"/>
-      <c r="T79" s="112"/>
-      <c r="U79" s="112"/>
-      <c r="V79" s="112"/>
-      <c r="W79" s="112"/>
-      <c r="X79" s="112"/>
-      <c r="Y79" s="112"/>
-      <c r="Z79" s="112"/>
-      <c r="AA79" s="112"/>
-      <c r="AB79" s="112"/>
-      <c r="AC79" s="112"/>
-      <c r="AD79" s="112"/>
-      <c r="AE79" s="112"/>
-      <c r="AF79" s="112"/>
-      <c r="AG79" s="112"/>
-      <c r="AH79" s="112"/>
-      <c r="AI79" s="112"/>
-      <c r="AJ79" s="112"/>
-      <c r="AK79" s="112"/>
-      <c r="AL79" s="112"/>
-      <c r="AM79" s="112"/>
-      <c r="AN79" s="113"/>
+      <c r="S79" s="110"/>
+      <c r="T79" s="111"/>
+      <c r="U79" s="111"/>
+      <c r="V79" s="111"/>
+      <c r="W79" s="111"/>
+      <c r="X79" s="111"/>
+      <c r="Y79" s="111"/>
+      <c r="Z79" s="111"/>
+      <c r="AA79" s="111"/>
+      <c r="AB79" s="111"/>
+      <c r="AC79" s="111"/>
+      <c r="AD79" s="111"/>
+      <c r="AE79" s="111"/>
+      <c r="AF79" s="111"/>
+      <c r="AG79" s="111"/>
+      <c r="AH79" s="111"/>
+      <c r="AI79" s="111"/>
+      <c r="AJ79" s="111"/>
+      <c r="AK79" s="111"/>
+      <c r="AL79" s="111"/>
+      <c r="AM79" s="111"/>
+      <c r="AN79" s="112"/>
     </row>
     <row r="80" spans="1:40" ht="51">
-      <c r="A80" s="114" t="s">
+      <c r="A80" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="135" t="s">
+      <c r="B80" s="133" t="s">
         <v>269</v>
       </c>
       <c r="C80" s="85" t="s">
@@ -8090,10 +8135,10 @@
         <v>271</v>
       </c>
       <c r="E80" s="91"/>
-      <c r="F80" s="103" t="s">
+      <c r="F80" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G80" s="104">
+      <c r="G80" s="103">
         <v>100</v>
       </c>
       <c r="H80" s="19">
@@ -8126,40 +8171,40 @@
       <c r="P80" s="43">
         <v>46043</v>
       </c>
-      <c r="Q80" s="105" t="s">
+      <c r="Q80" s="104" t="s">
         <v>272</v>
       </c>
-      <c r="R80" s="130" t="s">
+      <c r="R80" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S80" s="116"/>
-      <c r="T80" s="117"/>
-      <c r="U80" s="117"/>
-      <c r="V80" s="117"/>
-      <c r="W80" s="117"/>
-      <c r="X80" s="117"/>
-      <c r="Y80" s="117"/>
-      <c r="Z80" s="117"/>
-      <c r="AA80" s="117"/>
-      <c r="AB80" s="117"/>
-      <c r="AC80" s="117"/>
-      <c r="AD80" s="117"/>
-      <c r="AE80" s="117"/>
-      <c r="AF80" s="117"/>
-      <c r="AG80" s="117"/>
-      <c r="AH80" s="117"/>
-      <c r="AI80" s="117"/>
-      <c r="AJ80" s="117"/>
-      <c r="AK80" s="117"/>
-      <c r="AL80" s="117"/>
-      <c r="AM80" s="117"/>
-      <c r="AN80" s="118"/>
+      <c r="S80" s="115"/>
+      <c r="T80" s="116"/>
+      <c r="U80" s="116"/>
+      <c r="V80" s="116"/>
+      <c r="W80" s="116"/>
+      <c r="X80" s="116"/>
+      <c r="Y80" s="116"/>
+      <c r="Z80" s="116"/>
+      <c r="AA80" s="116"/>
+      <c r="AB80" s="116"/>
+      <c r="AC80" s="116"/>
+      <c r="AD80" s="116"/>
+      <c r="AE80" s="116"/>
+      <c r="AF80" s="116"/>
+      <c r="AG80" s="116"/>
+      <c r="AH80" s="116"/>
+      <c r="AI80" s="116"/>
+      <c r="AJ80" s="116"/>
+      <c r="AK80" s="116"/>
+      <c r="AL80" s="116"/>
+      <c r="AM80" s="116"/>
+      <c r="AN80" s="117"/>
     </row>
     <row r="81" spans="1:40">
-      <c r="A81" s="110" t="s">
+      <c r="A81" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="B81" s="131" t="s">
+      <c r="B81" s="129" t="s">
         <v>273</v>
       </c>
       <c r="C81" s="82" t="s">
@@ -8169,10 +8214,10 @@
         <v>211</v>
       </c>
       <c r="E81" s="93"/>
-      <c r="F81" s="101" t="s">
+      <c r="F81" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G81" s="102">
+      <c r="G81" s="101">
         <v>100</v>
       </c>
       <c r="H81" s="32">
@@ -8199,40 +8244,40 @@
       <c r="N81" s="40"/>
       <c r="O81" s="40"/>
       <c r="P81" s="40"/>
-      <c r="Q81" s="98" t="s">
+      <c r="Q81" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="R81" s="134" t="s">
+      <c r="R81" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S81" s="111"/>
-      <c r="T81" s="112"/>
-      <c r="U81" s="112"/>
-      <c r="V81" s="112"/>
-      <c r="W81" s="112"/>
-      <c r="X81" s="112"/>
-      <c r="Y81" s="112"/>
-      <c r="Z81" s="112"/>
-      <c r="AA81" s="112"/>
-      <c r="AB81" s="112"/>
-      <c r="AC81" s="112"/>
-      <c r="AD81" s="112"/>
-      <c r="AE81" s="112"/>
-      <c r="AF81" s="112"/>
-      <c r="AG81" s="112"/>
-      <c r="AH81" s="112"/>
-      <c r="AI81" s="112"/>
-      <c r="AJ81" s="112"/>
-      <c r="AK81" s="112"/>
-      <c r="AL81" s="112"/>
-      <c r="AM81" s="112"/>
-      <c r="AN81" s="113"/>
+      <c r="S81" s="110"/>
+      <c r="T81" s="111"/>
+      <c r="U81" s="111"/>
+      <c r="V81" s="111"/>
+      <c r="W81" s="111"/>
+      <c r="X81" s="111"/>
+      <c r="Y81" s="111"/>
+      <c r="Z81" s="111"/>
+      <c r="AA81" s="111"/>
+      <c r="AB81" s="111"/>
+      <c r="AC81" s="111"/>
+      <c r="AD81" s="111"/>
+      <c r="AE81" s="111"/>
+      <c r="AF81" s="111"/>
+      <c r="AG81" s="111"/>
+      <c r="AH81" s="111"/>
+      <c r="AI81" s="111"/>
+      <c r="AJ81" s="111"/>
+      <c r="AK81" s="111"/>
+      <c r="AL81" s="111"/>
+      <c r="AM81" s="111"/>
+      <c r="AN81" s="112"/>
     </row>
     <row r="82" spans="1:40" ht="38.25">
-      <c r="A82" s="114" t="s">
+      <c r="A82" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="135" t="s">
+      <c r="B82" s="133" t="s">
         <v>274</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -8242,10 +8287,10 @@
         <v>276</v>
       </c>
       <c r="E82" s="91"/>
-      <c r="F82" s="103" t="s">
+      <c r="F82" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="104">
+      <c r="G82" s="103">
         <v>100</v>
       </c>
       <c r="H82" s="19">
@@ -8283,37 +8328,37 @@
       <c r="Q82" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="R82" s="130" t="s">
+      <c r="R82" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S82" s="116"/>
-      <c r="T82" s="117"/>
-      <c r="U82" s="117"/>
-      <c r="V82" s="117"/>
-      <c r="W82" s="117"/>
-      <c r="X82" s="117"/>
-      <c r="Y82" s="117"/>
-      <c r="Z82" s="117"/>
-      <c r="AA82" s="117"/>
-      <c r="AB82" s="117"/>
-      <c r="AC82" s="117"/>
-      <c r="AD82" s="117"/>
-      <c r="AE82" s="117"/>
-      <c r="AF82" s="117"/>
-      <c r="AG82" s="117"/>
-      <c r="AH82" s="117"/>
-      <c r="AI82" s="117"/>
-      <c r="AJ82" s="117"/>
-      <c r="AK82" s="117"/>
-      <c r="AL82" s="117"/>
-      <c r="AM82" s="117"/>
-      <c r="AN82" s="118"/>
+      <c r="S82" s="115"/>
+      <c r="T82" s="116"/>
+      <c r="U82" s="116"/>
+      <c r="V82" s="116"/>
+      <c r="W82" s="116"/>
+      <c r="X82" s="116"/>
+      <c r="Y82" s="116"/>
+      <c r="Z82" s="116"/>
+      <c r="AA82" s="116"/>
+      <c r="AB82" s="116"/>
+      <c r="AC82" s="116"/>
+      <c r="AD82" s="116"/>
+      <c r="AE82" s="116"/>
+      <c r="AF82" s="116"/>
+      <c r="AG82" s="116"/>
+      <c r="AH82" s="116"/>
+      <c r="AI82" s="116"/>
+      <c r="AJ82" s="116"/>
+      <c r="AK82" s="116"/>
+      <c r="AL82" s="116"/>
+      <c r="AM82" s="116"/>
+      <c r="AN82" s="117"/>
     </row>
     <row r="83" spans="1:40" ht="24">
-      <c r="A83" s="110" t="s">
+      <c r="A83" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="131" t="s">
+      <c r="B83" s="129" t="s">
         <v>278</v>
       </c>
       <c r="C83" s="82" t="s">
@@ -8323,10 +8368,10 @@
         <v>211</v>
       </c>
       <c r="E83" s="93"/>
-      <c r="F83" s="101" t="s">
+      <c r="F83" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G83" s="102">
+      <c r="G83" s="101">
         <v>100</v>
       </c>
       <c r="H83" s="32">
@@ -8358,37 +8403,37 @@
       <c r="Q83" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="R83" s="134" t="s">
+      <c r="R83" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S83" s="111"/>
-      <c r="T83" s="112"/>
-      <c r="U83" s="112"/>
-      <c r="V83" s="112"/>
-      <c r="W83" s="112"/>
-      <c r="X83" s="112"/>
-      <c r="Y83" s="112"/>
-      <c r="Z83" s="112"/>
-      <c r="AA83" s="112"/>
-      <c r="AB83" s="112"/>
-      <c r="AC83" s="112"/>
-      <c r="AD83" s="112"/>
-      <c r="AE83" s="112"/>
-      <c r="AF83" s="112"/>
-      <c r="AG83" s="112"/>
-      <c r="AH83" s="112"/>
-      <c r="AI83" s="112"/>
-      <c r="AJ83" s="112"/>
-      <c r="AK83" s="112"/>
-      <c r="AL83" s="112"/>
-      <c r="AM83" s="112"/>
-      <c r="AN83" s="113"/>
+      <c r="S83" s="110"/>
+      <c r="T83" s="111"/>
+      <c r="U83" s="111"/>
+      <c r="V83" s="111"/>
+      <c r="W83" s="111"/>
+      <c r="X83" s="111"/>
+      <c r="Y83" s="111"/>
+      <c r="Z83" s="111"/>
+      <c r="AA83" s="111"/>
+      <c r="AB83" s="111"/>
+      <c r="AC83" s="111"/>
+      <c r="AD83" s="111"/>
+      <c r="AE83" s="111"/>
+      <c r="AF83" s="111"/>
+      <c r="AG83" s="111"/>
+      <c r="AH83" s="111"/>
+      <c r="AI83" s="111"/>
+      <c r="AJ83" s="111"/>
+      <c r="AK83" s="111"/>
+      <c r="AL83" s="111"/>
+      <c r="AM83" s="111"/>
+      <c r="AN83" s="112"/>
     </row>
     <row r="84" spans="1:40" ht="24">
-      <c r="A84" s="114" t="s">
+      <c r="A84" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B84" s="135" t="s">
+      <c r="B84" s="133" t="s">
         <v>280</v>
       </c>
       <c r="C84" s="85" t="s">
@@ -8398,10 +8443,10 @@
         <v>282</v>
       </c>
       <c r="E84" s="91"/>
-      <c r="F84" s="103" t="s">
+      <c r="F84" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G84" s="104">
+      <c r="G84" s="103">
         <v>100</v>
       </c>
       <c r="H84" s="19">
@@ -8431,37 +8476,37 @@
       <c r="Q84" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="R84" s="130" t="s">
+      <c r="R84" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S84" s="116"/>
-      <c r="T84" s="117"/>
-      <c r="U84" s="117"/>
-      <c r="V84" s="117"/>
-      <c r="W84" s="117"/>
-      <c r="X84" s="117"/>
-      <c r="Y84" s="117"/>
-      <c r="Z84" s="117"/>
-      <c r="AA84" s="117"/>
-      <c r="AB84" s="117"/>
-      <c r="AC84" s="117"/>
-      <c r="AD84" s="117"/>
-      <c r="AE84" s="117"/>
-      <c r="AF84" s="117"/>
-      <c r="AG84" s="117"/>
-      <c r="AH84" s="117"/>
-      <c r="AI84" s="117"/>
-      <c r="AJ84" s="117"/>
-      <c r="AK84" s="117"/>
-      <c r="AL84" s="117"/>
-      <c r="AM84" s="117"/>
-      <c r="AN84" s="118"/>
+      <c r="S84" s="115"/>
+      <c r="T84" s="116"/>
+      <c r="U84" s="116"/>
+      <c r="V84" s="116"/>
+      <c r="W84" s="116"/>
+      <c r="X84" s="116"/>
+      <c r="Y84" s="116"/>
+      <c r="Z84" s="116"/>
+      <c r="AA84" s="116"/>
+      <c r="AB84" s="116"/>
+      <c r="AC84" s="116"/>
+      <c r="AD84" s="116"/>
+      <c r="AE84" s="116"/>
+      <c r="AF84" s="116"/>
+      <c r="AG84" s="116"/>
+      <c r="AH84" s="116"/>
+      <c r="AI84" s="116"/>
+      <c r="AJ84" s="116"/>
+      <c r="AK84" s="116"/>
+      <c r="AL84" s="116"/>
+      <c r="AM84" s="116"/>
+      <c r="AN84" s="117"/>
     </row>
     <row r="85" spans="1:40" ht="24">
-      <c r="A85" s="110" t="s">
+      <c r="A85" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="131" t="s">
+      <c r="B85" s="129" t="s">
         <v>284</v>
       </c>
       <c r="C85" s="82" t="s">
@@ -8471,10 +8516,10 @@
         <v>211</v>
       </c>
       <c r="E85" s="93"/>
-      <c r="F85" s="101" t="s">
+      <c r="F85" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G85" s="102">
+      <c r="G85" s="101">
         <v>100</v>
       </c>
       <c r="H85" s="32">
@@ -8504,37 +8549,37 @@
       <c r="Q85" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="R85" s="134" t="s">
+      <c r="R85" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S85" s="111"/>
-      <c r="T85" s="112"/>
-      <c r="U85" s="112"/>
-      <c r="V85" s="112"/>
-      <c r="W85" s="112"/>
-      <c r="X85" s="112"/>
-      <c r="Y85" s="112"/>
-      <c r="Z85" s="112"/>
-      <c r="AA85" s="112"/>
-      <c r="AB85" s="112"/>
-      <c r="AC85" s="112"/>
-      <c r="AD85" s="112"/>
-      <c r="AE85" s="112"/>
-      <c r="AF85" s="112"/>
-      <c r="AG85" s="112"/>
-      <c r="AH85" s="112"/>
-      <c r="AI85" s="112"/>
-      <c r="AJ85" s="112"/>
-      <c r="AK85" s="112"/>
-      <c r="AL85" s="112"/>
-      <c r="AM85" s="112"/>
-      <c r="AN85" s="113"/>
+      <c r="S85" s="110"/>
+      <c r="T85" s="111"/>
+      <c r="U85" s="111"/>
+      <c r="V85" s="111"/>
+      <c r="W85" s="111"/>
+      <c r="X85" s="111"/>
+      <c r="Y85" s="111"/>
+      <c r="Z85" s="111"/>
+      <c r="AA85" s="111"/>
+      <c r="AB85" s="111"/>
+      <c r="AC85" s="111"/>
+      <c r="AD85" s="111"/>
+      <c r="AE85" s="111"/>
+      <c r="AF85" s="111"/>
+      <c r="AG85" s="111"/>
+      <c r="AH85" s="111"/>
+      <c r="AI85" s="111"/>
+      <c r="AJ85" s="111"/>
+      <c r="AK85" s="111"/>
+      <c r="AL85" s="111"/>
+      <c r="AM85" s="111"/>
+      <c r="AN85" s="112"/>
     </row>
     <row r="86" spans="1:40" ht="38.25">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="B86" s="135" t="s">
+      <c r="B86" s="133" t="s">
         <v>287</v>
       </c>
       <c r="C86" s="85" t="s">
@@ -8544,10 +8589,10 @@
         <v>111</v>
       </c>
       <c r="E86" s="91"/>
-      <c r="F86" s="103" t="s">
+      <c r="F86" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G86" s="104">
+      <c r="G86" s="103">
         <v>100</v>
       </c>
       <c r="H86" s="19">
@@ -8577,37 +8622,37 @@
       <c r="Q86" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="R86" s="130" t="s">
+      <c r="R86" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S86" s="116"/>
-      <c r="T86" s="117"/>
-      <c r="U86" s="117"/>
-      <c r="V86" s="117"/>
-      <c r="W86" s="117"/>
-      <c r="X86" s="117"/>
-      <c r="Y86" s="117"/>
-      <c r="Z86" s="117"/>
-      <c r="AA86" s="117"/>
-      <c r="AB86" s="117"/>
-      <c r="AC86" s="117"/>
-      <c r="AD86" s="117"/>
-      <c r="AE86" s="117"/>
-      <c r="AF86" s="117"/>
-      <c r="AG86" s="117"/>
-      <c r="AH86" s="117"/>
-      <c r="AI86" s="117"/>
-      <c r="AJ86" s="117"/>
-      <c r="AK86" s="117"/>
-      <c r="AL86" s="117"/>
-      <c r="AM86" s="117"/>
-      <c r="AN86" s="118"/>
+      <c r="S86" s="115"/>
+      <c r="T86" s="116"/>
+      <c r="U86" s="116"/>
+      <c r="V86" s="116"/>
+      <c r="W86" s="116"/>
+      <c r="X86" s="116"/>
+      <c r="Y86" s="116"/>
+      <c r="Z86" s="116"/>
+      <c r="AA86" s="116"/>
+      <c r="AB86" s="116"/>
+      <c r="AC86" s="116"/>
+      <c r="AD86" s="116"/>
+      <c r="AE86" s="116"/>
+      <c r="AF86" s="116"/>
+      <c r="AG86" s="116"/>
+      <c r="AH86" s="116"/>
+      <c r="AI86" s="116"/>
+      <c r="AJ86" s="116"/>
+      <c r="AK86" s="116"/>
+      <c r="AL86" s="116"/>
+      <c r="AM86" s="116"/>
+      <c r="AN86" s="117"/>
     </row>
     <row r="87" spans="1:40" ht="51">
-      <c r="A87" s="110" t="s">
+      <c r="A87" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="131" t="s">
+      <c r="B87" s="129" t="s">
         <v>290</v>
       </c>
       <c r="C87" s="82" t="s">
@@ -8617,10 +8662,10 @@
         <v>292</v>
       </c>
       <c r="E87" s="93"/>
-      <c r="F87" s="101" t="s">
+      <c r="F87" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="G87" s="102">
+      <c r="G87" s="101">
         <v>0</v>
       </c>
       <c r="H87" s="32">
@@ -8644,37 +8689,37 @@
       <c r="O87" s="40"/>
       <c r="P87" s="40"/>
       <c r="Q87" s="90"/>
-      <c r="R87" s="134" t="s">
+      <c r="R87" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S87" s="111"/>
-      <c r="T87" s="112"/>
-      <c r="U87" s="112"/>
-      <c r="V87" s="112"/>
-      <c r="W87" s="112"/>
-      <c r="X87" s="112"/>
-      <c r="Y87" s="112"/>
-      <c r="Z87" s="112"/>
-      <c r="AA87" s="112"/>
-      <c r="AB87" s="112"/>
-      <c r="AC87" s="112"/>
-      <c r="AD87" s="112"/>
-      <c r="AE87" s="112"/>
-      <c r="AF87" s="112"/>
-      <c r="AG87" s="112"/>
-      <c r="AH87" s="112"/>
-      <c r="AI87" s="112"/>
-      <c r="AJ87" s="112"/>
-      <c r="AK87" s="112"/>
-      <c r="AL87" s="112"/>
-      <c r="AM87" s="112"/>
-      <c r="AN87" s="113"/>
+      <c r="S87" s="110"/>
+      <c r="T87" s="111"/>
+      <c r="U87" s="111"/>
+      <c r="V87" s="111"/>
+      <c r="W87" s="111"/>
+      <c r="X87" s="111"/>
+      <c r="Y87" s="111"/>
+      <c r="Z87" s="111"/>
+      <c r="AA87" s="111"/>
+      <c r="AB87" s="111"/>
+      <c r="AC87" s="111"/>
+      <c r="AD87" s="111"/>
+      <c r="AE87" s="111"/>
+      <c r="AF87" s="111"/>
+      <c r="AG87" s="111"/>
+      <c r="AH87" s="111"/>
+      <c r="AI87" s="111"/>
+      <c r="AJ87" s="111"/>
+      <c r="AK87" s="111"/>
+      <c r="AL87" s="111"/>
+      <c r="AM87" s="111"/>
+      <c r="AN87" s="112"/>
     </row>
     <row r="88" spans="1:40">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="135" t="s">
+      <c r="B88" s="133" t="s">
         <v>293</v>
       </c>
       <c r="C88" s="85" t="s">
@@ -8684,10 +8729,10 @@
         <v>211</v>
       </c>
       <c r="E88" s="91"/>
-      <c r="F88" s="103" t="s">
+      <c r="F88" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G88" s="104">
+      <c r="G88" s="103">
         <v>100</v>
       </c>
       <c r="H88" s="19">
@@ -8719,37 +8764,37 @@
       <c r="Q88" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="R88" s="130" t="s">
+      <c r="R88" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S88" s="116"/>
-      <c r="T88" s="117"/>
-      <c r="U88" s="117"/>
-      <c r="V88" s="117"/>
-      <c r="W88" s="117"/>
-      <c r="X88" s="117"/>
-      <c r="Y88" s="117"/>
-      <c r="Z88" s="117"/>
-      <c r="AA88" s="117"/>
-      <c r="AB88" s="117"/>
-      <c r="AC88" s="117"/>
-      <c r="AD88" s="117"/>
-      <c r="AE88" s="117"/>
-      <c r="AF88" s="117"/>
-      <c r="AG88" s="117"/>
-      <c r="AH88" s="117"/>
-      <c r="AI88" s="117"/>
-      <c r="AJ88" s="117"/>
-      <c r="AK88" s="117"/>
-      <c r="AL88" s="117"/>
-      <c r="AM88" s="117"/>
-      <c r="AN88" s="118"/>
+      <c r="S88" s="115"/>
+      <c r="T88" s="116"/>
+      <c r="U88" s="116"/>
+      <c r="V88" s="116"/>
+      <c r="W88" s="116"/>
+      <c r="X88" s="116"/>
+      <c r="Y88" s="116"/>
+      <c r="Z88" s="116"/>
+      <c r="AA88" s="116"/>
+      <c r="AB88" s="116"/>
+      <c r="AC88" s="116"/>
+      <c r="AD88" s="116"/>
+      <c r="AE88" s="116"/>
+      <c r="AF88" s="116"/>
+      <c r="AG88" s="116"/>
+      <c r="AH88" s="116"/>
+      <c r="AI88" s="116"/>
+      <c r="AJ88" s="116"/>
+      <c r="AK88" s="116"/>
+      <c r="AL88" s="116"/>
+      <c r="AM88" s="116"/>
+      <c r="AN88" s="117"/>
     </row>
     <row r="89" spans="1:40" ht="63.75">
-      <c r="A89" s="110" t="s">
+      <c r="A89" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="131" t="s">
+      <c r="B89" s="129" t="s">
         <v>295</v>
       </c>
       <c r="C89" s="82" t="s">
@@ -8759,10 +8804,10 @@
         <v>297</v>
       </c>
       <c r="E89" s="93"/>
-      <c r="F89" s="101" t="s">
+      <c r="F89" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G89" s="102">
+      <c r="G89" s="101">
         <v>100</v>
       </c>
       <c r="H89" s="32">
@@ -8796,37 +8841,37 @@
       <c r="Q89" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="R89" s="134" t="s">
+      <c r="R89" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S89" s="111"/>
-      <c r="T89" s="112"/>
-      <c r="U89" s="112"/>
-      <c r="V89" s="112"/>
-      <c r="W89" s="112"/>
-      <c r="X89" s="112"/>
-      <c r="Y89" s="112"/>
-      <c r="Z89" s="112"/>
-      <c r="AA89" s="112"/>
-      <c r="AB89" s="112"/>
-      <c r="AC89" s="112"/>
-      <c r="AD89" s="112"/>
-      <c r="AE89" s="112"/>
-      <c r="AF89" s="112"/>
-      <c r="AG89" s="112"/>
-      <c r="AH89" s="112"/>
-      <c r="AI89" s="112"/>
-      <c r="AJ89" s="112"/>
-      <c r="AK89" s="112"/>
-      <c r="AL89" s="112"/>
-      <c r="AM89" s="112"/>
-      <c r="AN89" s="113"/>
+      <c r="S89" s="110"/>
+      <c r="T89" s="111"/>
+      <c r="U89" s="111"/>
+      <c r="V89" s="111"/>
+      <c r="W89" s="111"/>
+      <c r="X89" s="111"/>
+      <c r="Y89" s="111"/>
+      <c r="Z89" s="111"/>
+      <c r="AA89" s="111"/>
+      <c r="AB89" s="111"/>
+      <c r="AC89" s="111"/>
+      <c r="AD89" s="111"/>
+      <c r="AE89" s="111"/>
+      <c r="AF89" s="111"/>
+      <c r="AG89" s="111"/>
+      <c r="AH89" s="111"/>
+      <c r="AI89" s="111"/>
+      <c r="AJ89" s="111"/>
+      <c r="AK89" s="111"/>
+      <c r="AL89" s="111"/>
+      <c r="AM89" s="111"/>
+      <c r="AN89" s="112"/>
     </row>
     <row r="90" spans="1:40">
-      <c r="A90" s="114" t="s">
+      <c r="A90" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B90" s="135" t="s">
+      <c r="B90" s="133" t="s">
         <v>299</v>
       </c>
       <c r="C90" s="85" t="s">
@@ -8836,10 +8881,10 @@
         <v>211</v>
       </c>
       <c r="E90" s="91"/>
-      <c r="F90" s="103" t="s">
+      <c r="F90" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G90" s="104">
+      <c r="G90" s="103">
         <v>100</v>
       </c>
       <c r="H90" s="19">
@@ -8869,37 +8914,37 @@
       <c r="Q90" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="R90" s="130" t="s">
+      <c r="R90" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S90" s="116"/>
-      <c r="T90" s="117"/>
-      <c r="U90" s="117"/>
-      <c r="V90" s="117"/>
-      <c r="W90" s="117"/>
-      <c r="X90" s="117"/>
-      <c r="Y90" s="117"/>
-      <c r="Z90" s="117"/>
-      <c r="AA90" s="117"/>
-      <c r="AB90" s="117"/>
-      <c r="AC90" s="117"/>
-      <c r="AD90" s="117"/>
-      <c r="AE90" s="117"/>
-      <c r="AF90" s="117"/>
-      <c r="AG90" s="117"/>
-      <c r="AH90" s="117"/>
-      <c r="AI90" s="117"/>
-      <c r="AJ90" s="117"/>
-      <c r="AK90" s="117"/>
-      <c r="AL90" s="117"/>
-      <c r="AM90" s="117"/>
-      <c r="AN90" s="118"/>
+      <c r="S90" s="115"/>
+      <c r="T90" s="116"/>
+      <c r="U90" s="116"/>
+      <c r="V90" s="116"/>
+      <c r="W90" s="116"/>
+      <c r="X90" s="116"/>
+      <c r="Y90" s="116"/>
+      <c r="Z90" s="116"/>
+      <c r="AA90" s="116"/>
+      <c r="AB90" s="116"/>
+      <c r="AC90" s="116"/>
+      <c r="AD90" s="116"/>
+      <c r="AE90" s="116"/>
+      <c r="AF90" s="116"/>
+      <c r="AG90" s="116"/>
+      <c r="AH90" s="116"/>
+      <c r="AI90" s="116"/>
+      <c r="AJ90" s="116"/>
+      <c r="AK90" s="116"/>
+      <c r="AL90" s="116"/>
+      <c r="AM90" s="116"/>
+      <c r="AN90" s="117"/>
     </row>
     <row r="91" spans="1:40">
-      <c r="A91" s="110" t="s">
+      <c r="A91" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="131" t="s">
+      <c r="B91" s="129" t="s">
         <v>300</v>
       </c>
       <c r="C91" s="82" t="s">
@@ -8909,10 +8954,10 @@
         <v>211</v>
       </c>
       <c r="E91" s="93"/>
-      <c r="F91" s="101" t="s">
+      <c r="F91" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G91" s="102">
+      <c r="G91" s="101">
         <v>100</v>
       </c>
       <c r="H91" s="32">
@@ -8942,50 +8987,50 @@
       <c r="Q91" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="R91" s="134" t="s">
+      <c r="R91" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S91" s="111"/>
-      <c r="T91" s="112"/>
-      <c r="U91" s="112"/>
-      <c r="V91" s="112"/>
-      <c r="W91" s="112"/>
-      <c r="X91" s="112"/>
-      <c r="Y91" s="112"/>
-      <c r="Z91" s="112"/>
-      <c r="AA91" s="112"/>
-      <c r="AB91" s="112"/>
-      <c r="AC91" s="112"/>
-      <c r="AD91" s="112"/>
-      <c r="AE91" s="112"/>
-      <c r="AF91" s="112"/>
-      <c r="AG91" s="112"/>
-      <c r="AH91" s="112"/>
-      <c r="AI91" s="112"/>
-      <c r="AJ91" s="112"/>
-      <c r="AK91" s="112"/>
-      <c r="AL91" s="112"/>
-      <c r="AM91" s="112"/>
-      <c r="AN91" s="113"/>
+      <c r="S91" s="110"/>
+      <c r="T91" s="111"/>
+      <c r="U91" s="111"/>
+      <c r="V91" s="111"/>
+      <c r="W91" s="111"/>
+      <c r="X91" s="111"/>
+      <c r="Y91" s="111"/>
+      <c r="Z91" s="111"/>
+      <c r="AA91" s="111"/>
+      <c r="AB91" s="111"/>
+      <c r="AC91" s="111"/>
+      <c r="AD91" s="111"/>
+      <c r="AE91" s="111"/>
+      <c r="AF91" s="111"/>
+      <c r="AG91" s="111"/>
+      <c r="AH91" s="111"/>
+      <c r="AI91" s="111"/>
+      <c r="AJ91" s="111"/>
+      <c r="AK91" s="111"/>
+      <c r="AL91" s="111"/>
+      <c r="AM91" s="111"/>
+      <c r="AN91" s="112"/>
     </row>
     <row r="92" spans="1:40" ht="38.25">
-      <c r="A92" s="114" t="s">
+      <c r="A92" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="B92" s="135" t="s">
+      <c r="B92" s="133" t="s">
         <v>302</v>
       </c>
-      <c r="C92" s="127" t="s">
+      <c r="C92" s="126" t="s">
         <v>303</v>
       </c>
       <c r="D92" s="89" t="s">
         <v>304</v>
       </c>
       <c r="E92" s="91"/>
-      <c r="F92" s="103" t="s">
+      <c r="F92" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G92" s="104">
+      <c r="G92" s="103">
         <v>100</v>
       </c>
       <c r="H92" s="19">
@@ -9012,40 +9057,40 @@
       <c r="N92" s="43"/>
       <c r="O92" s="43"/>
       <c r="P92" s="43"/>
-      <c r="Q92" s="129" t="s">
+      <c r="Q92" s="127" t="s">
         <v>305</v>
       </c>
-      <c r="R92" s="130" t="s">
+      <c r="R92" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S92" s="116"/>
-      <c r="T92" s="117"/>
-      <c r="U92" s="117"/>
-      <c r="V92" s="117"/>
-      <c r="W92" s="117"/>
-      <c r="X92" s="117"/>
-      <c r="Y92" s="117"/>
-      <c r="Z92" s="117"/>
-      <c r="AA92" s="117"/>
-      <c r="AB92" s="117"/>
-      <c r="AC92" s="117"/>
-      <c r="AD92" s="117"/>
-      <c r="AE92" s="117"/>
-      <c r="AF92" s="117"/>
-      <c r="AG92" s="117"/>
-      <c r="AH92" s="117"/>
-      <c r="AI92" s="117"/>
-      <c r="AJ92" s="117"/>
-      <c r="AK92" s="117"/>
-      <c r="AL92" s="117"/>
-      <c r="AM92" s="117"/>
-      <c r="AN92" s="118"/>
+      <c r="S92" s="115"/>
+      <c r="T92" s="116"/>
+      <c r="U92" s="116"/>
+      <c r="V92" s="116"/>
+      <c r="W92" s="116"/>
+      <c r="X92" s="116"/>
+      <c r="Y92" s="116"/>
+      <c r="Z92" s="116"/>
+      <c r="AA92" s="116"/>
+      <c r="AB92" s="116"/>
+      <c r="AC92" s="116"/>
+      <c r="AD92" s="116"/>
+      <c r="AE92" s="116"/>
+      <c r="AF92" s="116"/>
+      <c r="AG92" s="116"/>
+      <c r="AH92" s="116"/>
+      <c r="AI92" s="116"/>
+      <c r="AJ92" s="116"/>
+      <c r="AK92" s="116"/>
+      <c r="AL92" s="116"/>
+      <c r="AM92" s="116"/>
+      <c r="AN92" s="117"/>
     </row>
     <row r="93" spans="1:40">
-      <c r="A93" s="110" t="s">
+      <c r="A93" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="B93" s="131" t="s">
+      <c r="B93" s="129" t="s">
         <v>306</v>
       </c>
       <c r="C93" s="82" t="s">
@@ -9055,10 +9100,10 @@
         <v>211</v>
       </c>
       <c r="E93" s="93"/>
-      <c r="F93" s="101" t="s">
+      <c r="F93" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G93" s="102">
+      <c r="G93" s="101">
         <v>100</v>
       </c>
       <c r="H93" s="32">
@@ -9088,37 +9133,37 @@
       <c r="Q93" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="R93" s="134" t="s">
+      <c r="R93" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S93" s="111"/>
-      <c r="T93" s="112"/>
-      <c r="U93" s="112"/>
-      <c r="V93" s="112"/>
-      <c r="W93" s="112"/>
-      <c r="X93" s="112"/>
-      <c r="Y93" s="112"/>
-      <c r="Z93" s="112"/>
-      <c r="AA93" s="112"/>
-      <c r="AB93" s="112"/>
-      <c r="AC93" s="112"/>
-      <c r="AD93" s="112"/>
-      <c r="AE93" s="112"/>
-      <c r="AF93" s="112"/>
-      <c r="AG93" s="112"/>
-      <c r="AH93" s="112"/>
-      <c r="AI93" s="112"/>
-      <c r="AJ93" s="112"/>
-      <c r="AK93" s="112"/>
-      <c r="AL93" s="112"/>
-      <c r="AM93" s="112"/>
-      <c r="AN93" s="113"/>
+      <c r="S93" s="110"/>
+      <c r="T93" s="111"/>
+      <c r="U93" s="111"/>
+      <c r="V93" s="111"/>
+      <c r="W93" s="111"/>
+      <c r="X93" s="111"/>
+      <c r="Y93" s="111"/>
+      <c r="Z93" s="111"/>
+      <c r="AA93" s="111"/>
+      <c r="AB93" s="111"/>
+      <c r="AC93" s="111"/>
+      <c r="AD93" s="111"/>
+      <c r="AE93" s="111"/>
+      <c r="AF93" s="111"/>
+      <c r="AG93" s="111"/>
+      <c r="AH93" s="111"/>
+      <c r="AI93" s="111"/>
+      <c r="AJ93" s="111"/>
+      <c r="AK93" s="111"/>
+      <c r="AL93" s="111"/>
+      <c r="AM93" s="111"/>
+      <c r="AN93" s="112"/>
     </row>
     <row r="94" spans="1:40">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="135" t="s">
+      <c r="B94" s="133" t="s">
         <v>307</v>
       </c>
       <c r="C94" s="85" t="s">
@@ -9128,10 +9173,10 @@
         <v>211</v>
       </c>
       <c r="E94" s="91"/>
-      <c r="F94" s="103" t="s">
+      <c r="F94" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G94" s="104">
+      <c r="G94" s="103">
         <v>100</v>
       </c>
       <c r="H94" s="19">
@@ -9161,50 +9206,50 @@
       <c r="Q94" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="R94" s="130" t="s">
+      <c r="R94" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S94" s="116"/>
-      <c r="T94" s="117"/>
-      <c r="U94" s="117"/>
-      <c r="V94" s="117"/>
-      <c r="W94" s="117"/>
-      <c r="X94" s="117"/>
-      <c r="Y94" s="117"/>
-      <c r="Z94" s="117"/>
-      <c r="AA94" s="117"/>
-      <c r="AB94" s="117"/>
-      <c r="AC94" s="117"/>
-      <c r="AD94" s="117"/>
-      <c r="AE94" s="117"/>
-      <c r="AF94" s="117"/>
-      <c r="AG94" s="117"/>
-      <c r="AH94" s="117"/>
-      <c r="AI94" s="117"/>
-      <c r="AJ94" s="117"/>
-      <c r="AK94" s="117"/>
-      <c r="AL94" s="117"/>
-      <c r="AM94" s="117"/>
-      <c r="AN94" s="118"/>
-    </row>
-    <row r="95" spans="1:40">
-      <c r="A95" s="110" t="s">
+      <c r="S94" s="115"/>
+      <c r="T94" s="116"/>
+      <c r="U94" s="116"/>
+      <c r="V94" s="116"/>
+      <c r="W94" s="116"/>
+      <c r="X94" s="116"/>
+      <c r="Y94" s="116"/>
+      <c r="Z94" s="116"/>
+      <c r="AA94" s="116"/>
+      <c r="AB94" s="116"/>
+      <c r="AC94" s="116"/>
+      <c r="AD94" s="116"/>
+      <c r="AE94" s="116"/>
+      <c r="AF94" s="116"/>
+      <c r="AG94" s="116"/>
+      <c r="AH94" s="116"/>
+      <c r="AI94" s="116"/>
+      <c r="AJ94" s="116"/>
+      <c r="AK94" s="116"/>
+      <c r="AL94" s="116"/>
+      <c r="AM94" s="116"/>
+      <c r="AN94" s="117"/>
+    </row>
+    <row r="95" spans="1:40" ht="38.25">
+      <c r="A95" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B95" s="131" t="s">
+      <c r="B95" s="129" t="s">
         <v>308</v>
       </c>
-      <c r="C95" s="132" t="s">
+      <c r="C95" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="D95" s="97" t="s">
+      <c r="D95" s="88" t="s">
         <v>310</v>
       </c>
       <c r="E95" s="93"/>
-      <c r="F95" s="101" t="s">
+      <c r="F95" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G95" s="102">
+      <c r="G95" s="101">
         <v>100</v>
       </c>
       <c r="H95" s="32">
@@ -9231,40 +9276,38 @@
       <c r="N95" s="40"/>
       <c r="O95" s="40"/>
       <c r="P95" s="40"/>
-      <c r="Q95" s="133" t="s">
+      <c r="Q95" s="131" t="s">
         <v>311</v>
       </c>
-      <c r="R95" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="S95" s="111"/>
-      <c r="T95" s="112"/>
-      <c r="U95" s="112"/>
-      <c r="V95" s="112"/>
-      <c r="W95" s="112"/>
-      <c r="X95" s="112"/>
-      <c r="Y95" s="112"/>
-      <c r="Z95" s="112"/>
-      <c r="AA95" s="112"/>
-      <c r="AB95" s="112"/>
-      <c r="AC95" s="112"/>
-      <c r="AD95" s="112"/>
-      <c r="AE95" s="112"/>
-      <c r="AF95" s="112"/>
-      <c r="AG95" s="112"/>
-      <c r="AH95" s="112"/>
-      <c r="AI95" s="112"/>
-      <c r="AJ95" s="112"/>
-      <c r="AK95" s="112"/>
-      <c r="AL95" s="112"/>
-      <c r="AM95" s="112"/>
-      <c r="AN95" s="113"/>
+      <c r="R95" s="132"/>
+      <c r="S95" s="110"/>
+      <c r="T95" s="111"/>
+      <c r="U95" s="111"/>
+      <c r="V95" s="111"/>
+      <c r="W95" s="111"/>
+      <c r="X95" s="111"/>
+      <c r="Y95" s="111"/>
+      <c r="Z95" s="111"/>
+      <c r="AA95" s="111"/>
+      <c r="AB95" s="111"/>
+      <c r="AC95" s="111"/>
+      <c r="AD95" s="111"/>
+      <c r="AE95" s="111"/>
+      <c r="AF95" s="111"/>
+      <c r="AG95" s="111"/>
+      <c r="AH95" s="111"/>
+      <c r="AI95" s="111"/>
+      <c r="AJ95" s="111"/>
+      <c r="AK95" s="111"/>
+      <c r="AL95" s="111"/>
+      <c r="AM95" s="111"/>
+      <c r="AN95" s="112"/>
     </row>
     <row r="96" spans="1:40">
-      <c r="A96" s="114" t="s">
+      <c r="A96" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B96" s="135" t="s">
+      <c r="B96" s="133" t="s">
         <v>312</v>
       </c>
       <c r="C96" s="85" t="s">
@@ -9274,10 +9317,10 @@
         <v>211</v>
       </c>
       <c r="E96" s="91"/>
-      <c r="F96" s="103" t="s">
+      <c r="F96" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G96" s="104">
+      <c r="G96" s="103">
         <v>100</v>
       </c>
       <c r="H96" s="19">
@@ -9307,44 +9350,113 @@
       <c r="Q96" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="R96" s="130" t="s">
+      <c r="R96" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S96" s="116"/>
-      <c r="T96" s="117"/>
-      <c r="U96" s="117"/>
-      <c r="V96" s="117"/>
-      <c r="W96" s="117"/>
-      <c r="X96" s="117"/>
-      <c r="Y96" s="117"/>
-      <c r="Z96" s="117"/>
-      <c r="AA96" s="117"/>
-      <c r="AB96" s="117"/>
-      <c r="AC96" s="117"/>
-      <c r="AD96" s="117"/>
-      <c r="AE96" s="117"/>
-      <c r="AF96" s="117"/>
-      <c r="AG96" s="117"/>
-      <c r="AH96" s="117"/>
-      <c r="AI96" s="117"/>
-      <c r="AJ96" s="117"/>
-      <c r="AK96" s="117"/>
-      <c r="AL96" s="117"/>
-      <c r="AM96" s="117"/>
-      <c r="AN96" s="118"/>
+      <c r="S96" s="115"/>
+      <c r="T96" s="116"/>
+      <c r="U96" s="116"/>
+      <c r="V96" s="116"/>
+      <c r="W96" s="116"/>
+      <c r="X96" s="116"/>
+      <c r="Y96" s="116"/>
+      <c r="Z96" s="116"/>
+      <c r="AA96" s="116"/>
+      <c r="AB96" s="116"/>
+      <c r="AC96" s="116"/>
+      <c r="AD96" s="116"/>
+      <c r="AE96" s="116"/>
+      <c r="AF96" s="116"/>
+      <c r="AG96" s="116"/>
+      <c r="AH96" s="116"/>
+      <c r="AI96" s="116"/>
+      <c r="AJ96" s="116"/>
+      <c r="AK96" s="116"/>
+      <c r="AL96" s="116"/>
+      <c r="AM96" s="116"/>
+      <c r="AN96" s="117"/>
+    </row>
+    <row r="97" spans="1:40" ht="25.5">
+      <c r="A97" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="136" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" s="137" t="s">
+        <v>314</v>
+      </c>
+      <c r="D97" s="138" t="s">
+        <v>315</v>
+      </c>
+      <c r="E97" s="139"/>
+      <c r="F97" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="G97" s="141">
+        <v>0</v>
+      </c>
+      <c r="H97" s="32">
+        <f>IF(OR(J97="",K97="",K97&lt;J97),0,NETWORKDAYS(J97,K97,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="142">
+        <v>46070</v>
+      </c>
+      <c r="J97" s="143"/>
+      <c r="K97" s="143"/>
+      <c r="L97" s="143"/>
+      <c r="M97" s="35">
+        <f ca="1">IF(OR(J97="",AND(L97="",TODAY()&lt;J97),AND(L97&lt;&gt;"",L97&lt;J97)),0,
+   IF(L97="",
+      NETWORKDAYS(J97,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J97,L97,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="143"/>
+      <c r="O97" s="143"/>
+      <c r="P97" s="143"/>
+      <c r="Q97" s="105"/>
+      <c r="R97" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="S97" s="105"/>
+      <c r="T97" s="105"/>
+      <c r="U97" s="105"/>
+      <c r="V97" s="105"/>
+      <c r="W97" s="105"/>
+      <c r="X97" s="105"/>
+      <c r="Y97" s="105"/>
+      <c r="Z97" s="105"/>
+      <c r="AA97" s="105"/>
+      <c r="AB97" s="105"/>
+      <c r="AC97" s="105"/>
+      <c r="AD97" s="105"/>
+      <c r="AE97" s="105"/>
+      <c r="AF97" s="105"/>
+      <c r="AG97" s="105"/>
+      <c r="AH97" s="105"/>
+      <c r="AI97" s="105"/>
+      <c r="AJ97" s="105"/>
+      <c r="AK97" s="105"/>
+      <c r="AL97" s="105"/>
+      <c r="AM97" s="105"/>
+      <c r="AN97" s="106"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN41"/>
-  <conditionalFormatting sqref="B2:B96">
+  <conditionalFormatting sqref="B2:B97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(B$2:B$16,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L9 J10:L10 I11:L54 N2:P54 I56:L96 N56:P96">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L9 J10:L10 I11:L54 N2:P54 I56:L97 N56:P97">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F96">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F97">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE,PASO A PRODUCCION"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9365,427 +9477,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="137">
+      <c r="A1" s="144">
         <v>45292</v>
       </c>
-      <c r="B1" s="138" t="s">
-        <v>313</v>
+      <c r="B1" s="145" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="137">
+      <c r="A2" s="144">
         <v>45299</v>
       </c>
-      <c r="B2" s="138" t="s">
-        <v>314</v>
+      <c r="B2" s="145" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="137">
+      <c r="A3" s="144">
         <v>45376</v>
       </c>
-      <c r="B3" s="138" t="s">
-        <v>315</v>
+      <c r="B3" s="145" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="137">
+      <c r="A4" s="144">
         <v>45379</v>
       </c>
-      <c r="B4" s="138" t="s">
-        <v>316</v>
+      <c r="B4" s="145" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A5" s="137">
+      <c r="A5" s="144">
         <v>45380</v>
       </c>
-      <c r="B5" s="138" t="s">
-        <v>317</v>
+      <c r="B5" s="145" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A6" s="137">
+      <c r="A6" s="144">
         <v>45413</v>
       </c>
-      <c r="B6" s="138" t="s">
-        <v>318</v>
+      <c r="B6" s="145" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A7" s="137">
+      <c r="A7" s="144">
         <v>45425</v>
       </c>
-      <c r="B7" s="138" t="s">
-        <v>319</v>
+      <c r="B7" s="145" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A8" s="137">
+      <c r="A8" s="144">
         <v>45446</v>
       </c>
-      <c r="B8" s="138" t="s">
-        <v>320</v>
+      <c r="B8" s="145" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A9" s="137">
+      <c r="A9" s="144">
         <v>45453</v>
       </c>
-      <c r="B9" s="138" t="s">
-        <v>321</v>
+      <c r="B9" s="145" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A10" s="137">
+      <c r="A10" s="144">
         <v>45474</v>
       </c>
-      <c r="B10" s="138" t="s">
-        <v>322</v>
+      <c r="B10" s="145" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A11" s="137">
+      <c r="A11" s="144">
         <v>45493</v>
       </c>
-      <c r="B11" s="138" t="s">
-        <v>323</v>
+      <c r="B11" s="145" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A12" s="137">
+      <c r="A12" s="144">
         <v>45511</v>
       </c>
-      <c r="B12" s="138" t="s">
-        <v>324</v>
+      <c r="B12" s="145" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A13" s="137">
+      <c r="A13" s="144">
         <v>45523</v>
       </c>
-      <c r="B13" s="138" t="s">
-        <v>325</v>
+      <c r="B13" s="145" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A14" s="137">
+      <c r="A14" s="144">
         <v>45579</v>
       </c>
-      <c r="B14" s="138" t="s">
-        <v>326</v>
+      <c r="B14" s="145" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A15" s="137">
+      <c r="A15" s="144">
         <v>45600</v>
       </c>
-      <c r="B15" s="138" t="s">
-        <v>327</v>
+      <c r="B15" s="145" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A16" s="137">
+      <c r="A16" s="144">
         <v>45607</v>
       </c>
-      <c r="B16" s="138" t="s">
-        <v>328</v>
+      <c r="B16" s="145" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A17" s="137">
+      <c r="A17" s="144">
         <v>45634</v>
       </c>
-      <c r="B17" s="138" t="s">
-        <v>329</v>
+      <c r="B17" s="145" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A18" s="137">
+      <c r="A18" s="144">
         <v>45651</v>
       </c>
-      <c r="B18" s="138" t="s">
-        <v>330</v>
+      <c r="B18" s="145" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A19" s="137">
+      <c r="A19" s="144">
         <v>45658</v>
       </c>
-      <c r="B19" s="139" t="s">
-        <v>331</v>
+      <c r="B19" s="146" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A20" s="137">
+      <c r="A20" s="144">
         <v>45663</v>
       </c>
-      <c r="B20" s="139" t="s">
-        <v>332</v>
+      <c r="B20" s="146" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A21" s="137">
+      <c r="A21" s="144">
         <v>45740</v>
       </c>
-      <c r="B21" s="139" t="s">
-        <v>333</v>
+      <c r="B21" s="146" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A22" s="137">
+      <c r="A22" s="144">
         <v>45764</v>
       </c>
-      <c r="B22" s="139" t="s">
+      <c r="B22" s="146" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A23" s="144">
+        <v>45765</v>
+      </c>
+      <c r="B23" s="146" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A24" s="144">
+        <v>45778</v>
+      </c>
+      <c r="B24" s="146" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A25" s="144">
+        <v>45810</v>
+      </c>
+      <c r="B25" s="146" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A26" s="144">
+        <v>45831</v>
+      </c>
+      <c r="B26" s="146" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A27" s="144">
+        <v>45838</v>
+      </c>
+      <c r="B27" s="146" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A28" s="144">
+        <v>45858</v>
+      </c>
+      <c r="B28" s="146" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A29" s="144">
+        <v>45876</v>
+      </c>
+      <c r="B29" s="146" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A30" s="144">
+        <v>45887</v>
+      </c>
+      <c r="B30" s="146" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A31" s="144">
+        <v>45943</v>
+      </c>
+      <c r="B31" s="146" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A32" s="144">
+        <v>45964</v>
+      </c>
+      <c r="B32" s="146" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A33" s="144">
+        <v>45978</v>
+      </c>
+      <c r="B33" s="146" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A34" s="144">
+        <v>45999</v>
+      </c>
+      <c r="B34" s="146" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A35" s="144">
+        <v>46016</v>
+      </c>
+      <c r="B35" s="146" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A36" s="144">
+        <v>46023</v>
+      </c>
+      <c r="B36" s="146" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A23" s="137">
-        <v>45765</v>
-      </c>
-      <c r="B23" s="139" t="s">
+    <row r="37" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A37" s="144">
+        <v>46034</v>
+      </c>
+      <c r="B37" s="146" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A24" s="137">
-        <v>45778</v>
-      </c>
-      <c r="B24" s="139" t="s">
+    <row r="38" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A38" s="144">
+        <v>46104</v>
+      </c>
+      <c r="B38" s="146" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A25" s="137">
-        <v>45810</v>
-      </c>
-      <c r="B25" s="139" t="s">
+    <row r="39" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A39" s="144">
+        <v>46114</v>
+      </c>
+      <c r="B39" s="146" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A26" s="137">
-        <v>45831</v>
-      </c>
-      <c r="B26" s="139" t="s">
+    <row r="40" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A40" s="144">
+        <v>46115</v>
+      </c>
+      <c r="B40" s="146" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A27" s="137">
-        <v>45838</v>
-      </c>
-      <c r="B27" s="139" t="s">
+    <row r="41" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A41" s="144">
+        <v>46143</v>
+      </c>
+      <c r="B41" s="146" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A28" s="137">
-        <v>45858</v>
-      </c>
-      <c r="B28" s="139" t="s">
+    <row r="42" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A42" s="144">
+        <v>46160</v>
+      </c>
+      <c r="B42" s="146" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A29" s="137">
-        <v>45876</v>
-      </c>
-      <c r="B29" s="139" t="s">
+    <row r="43" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A43" s="144">
+        <v>46181</v>
+      </c>
+      <c r="B43" s="146" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A30" s="137">
-        <v>45887</v>
-      </c>
-      <c r="B30" s="139" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A31" s="137">
-        <v>45943</v>
-      </c>
-      <c r="B31" s="139" t="s">
+    <row r="44" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A44" s="144">
+        <v>46188</v>
+      </c>
+      <c r="B44" s="146" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A45" s="144">
+        <v>46202</v>
+      </c>
+      <c r="B45" s="146" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A46" s="144">
+        <v>46223</v>
+      </c>
+      <c r="B46" s="146" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A32" s="137">
-        <v>45964</v>
-      </c>
-      <c r="B32" s="139" t="s">
+    <row r="47" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A47" s="144">
+        <v>46241</v>
+      </c>
+      <c r="B47" s="146" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A33" s="137">
-        <v>45978</v>
-      </c>
-      <c r="B33" s="139" t="s">
+    <row r="48" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A48" s="144">
+        <v>46251</v>
+      </c>
+      <c r="B48" s="146" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A34" s="137">
-        <v>45999</v>
-      </c>
-      <c r="B34" s="139" t="s">
+    <row r="49" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A49" s="144">
+        <v>46307</v>
+      </c>
+      <c r="B49" s="146" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A35" s="137">
-        <v>46016</v>
-      </c>
-      <c r="B35" s="139" t="s">
+    <row r="50" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A50" s="144">
+        <v>46328</v>
+      </c>
+      <c r="B50" s="146" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A36" s="137">
-        <v>46023</v>
-      </c>
-      <c r="B36" s="139" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A37" s="137">
-        <v>46034</v>
-      </c>
-      <c r="B37" s="139" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A38" s="137">
-        <v>46104</v>
-      </c>
-      <c r="B38" s="139" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A39" s="137">
-        <v>46114</v>
-      </c>
-      <c r="B39" s="139" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A40" s="137">
-        <v>46115</v>
-      </c>
-      <c r="B40" s="139" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A41" s="137">
-        <v>46143</v>
-      </c>
-      <c r="B41" s="139" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A42" s="137">
-        <v>46160</v>
-      </c>
-      <c r="B42" s="139" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A43" s="137">
-        <v>46181</v>
-      </c>
-      <c r="B43" s="139" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A44" s="137">
-        <v>46188</v>
-      </c>
-      <c r="B44" s="139" t="s">
+    <row r="51" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A51" s="144">
+        <v>46342</v>
+      </c>
+      <c r="B51" s="146" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A45" s="137">
-        <v>46202</v>
-      </c>
-      <c r="B45" s="139" t="s">
+    <row r="52" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A52" s="144">
+        <v>46364</v>
+      </c>
+      <c r="B52" s="146" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A46" s="137">
-        <v>46223</v>
-      </c>
-      <c r="B46" s="139" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A47" s="137">
-        <v>46241</v>
-      </c>
-      <c r="B47" s="139" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A48" s="137">
-        <v>46251</v>
-      </c>
-      <c r="B48" s="139" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A49" s="137">
-        <v>46307</v>
-      </c>
-      <c r="B49" s="139" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A50" s="137">
-        <v>46328</v>
-      </c>
-      <c r="B50" s="139" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A51" s="137">
-        <v>46342</v>
-      </c>
-      <c r="B51" s="139" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A52" s="137">
-        <v>46364</v>
-      </c>
-      <c r="B52" s="139" t="s">
-        <v>346</v>
-      </c>
-    </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A53" s="137">
+      <c r="A53" s="144">
         <v>46381</v>
       </c>
-      <c r="B53" s="139" t="s">
-        <v>347</v>
+      <c r="B53" s="146" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>

--- a/Tuya.xlsx
+++ b/Tuya.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="355">
   <si>
     <t>Asignado a</t>
   </si>
@@ -654,7 +654,11 @@
     <t>Se debe realilzar cambio de servidor donde se encuenta aplicativo</t>
   </si>
   <si>
-    <t>PENDIENTE</t>
+    <t>EN PROCESO</t>
+  </si>
+  <si>
+    <t>Se deben coordinar tiempos con Tuya
+24/02/2026: Se trae copia del aplicativo al servidor donde va a quedar</t>
   </si>
   <si>
     <t>302</t>
@@ -924,6 +928,9 @@
   </si>
   <si>
     <t>Se recibe requerimiento en el cual se solicita ajustar los logs del API de Imagine para que guarde el body que se esta enviando en las peticiones que fallan al entregar documentos al servicio del cliente</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
   </si>
   <si>
     <t>332</t>
@@ -1504,7 +1511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1661,26 +1668,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2067,33 +2059,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2331,7 +2296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2472,7 +2437,7 @@
       NETWORKDAYS(J2,L2,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -2541,7 +2506,7 @@
       NETWORKDAYS(J3,L3,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
@@ -2612,7 +2577,7 @@
       NETWORKDAYS(J4,L4,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -2683,7 +2648,7 @@
       NETWORKDAYS(J5,L5,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -2754,7 +2719,7 @@
       NETWORKDAYS(J6,L6,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -2825,7 +2790,7 @@
       NETWORKDAYS(J7,L7,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -2896,7 +2861,7 @@
       NETWORKDAYS(J8,L8,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -2967,7 +2932,7 @@
       NETWORKDAYS(J9,L9,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
@@ -3038,7 +3003,7 @@
       NETWORKDAYS(J10,L10,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -3107,7 +3072,7 @@
       NETWORKDAYS(J11,L11,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
@@ -3178,7 +3143,7 @@
       NETWORKDAYS(J12,L12,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -3320,7 +3285,7 @@
       NETWORKDAYS(J14,L14,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -3393,7 +3358,7 @@
       NETWORKDAYS(J15,L15,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
@@ -3541,7 +3506,7 @@
       NETWORKDAYS(J17,L17,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
@@ -3770,7 +3735,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
@@ -4849,7 +4814,7 @@
       NETWORKDAYS(J35,L35,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N35" s="73"/>
       <c r="O35" s="73">
@@ -5415,7 +5380,9 @@
       <c r="F43" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="101"/>
+      <c r="G43" s="101">
+        <v>20</v>
+      </c>
       <c r="H43" s="32">
         <f>IF(OR(J43="",K43="",K43&lt;J43),0,NETWORKDAYS(J43,K43,Hoja2!$A$2:$A$53))</f>
         <v>0</v>
@@ -5433,13 +5400,13 @@
       NETWORKDAYS(J43,L43,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
       <c r="Q43" s="97" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R43" s="37" t="s">
         <v>40</v>
@@ -5472,13 +5439,13 @@
         <v>18</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E44" s="91"/>
       <c r="F44" s="102" t="s">
@@ -5512,7 +5479,7 @@
       <c r="O44" s="43"/>
       <c r="P44" s="43"/>
       <c r="Q44" s="104" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R44" s="24" t="s">
         <v>40</v>
@@ -5545,7 +5512,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" s="82" t="s">
         <v>154</v>
@@ -5587,7 +5554,7 @@
         <v>45992</v>
       </c>
       <c r="Q45" s="97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R45" s="37" t="s">
         <v>40</v>
@@ -5620,13 +5587,13 @@
         <v>18</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E46" s="91"/>
       <c r="F46" s="102" t="s">
@@ -5660,7 +5627,7 @@
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="104" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="R46" s="24" t="s">
         <v>40</v>
@@ -5693,13 +5660,13 @@
         <v>18</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D47" s="88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E47" s="93"/>
       <c r="F47" s="100" t="s">
@@ -5764,13 +5731,13 @@
         <v>108</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C48" s="85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E48" s="91"/>
       <c r="F48" s="102" t="s">
@@ -5804,7 +5771,7 @@
       <c r="O48" s="43"/>
       <c r="P48" s="43"/>
       <c r="Q48" s="104" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R48" s="24" t="s">
         <v>40</v>
@@ -5837,13 +5804,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D49" s="88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E49" s="93"/>
       <c r="F49" s="100" t="s">
@@ -5877,7 +5844,7 @@
       <c r="O49" s="40"/>
       <c r="P49" s="40"/>
       <c r="Q49" s="97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R49" s="37" t="s">
         <v>40</v>
@@ -5910,13 +5877,13 @@
         <v>18</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" s="89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E50" s="91"/>
       <c r="F50" s="102" t="s">
@@ -5952,7 +5919,7 @@
       <c r="O50" s="43"/>
       <c r="P50" s="43"/>
       <c r="Q50" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R50" s="24" t="s">
         <v>40</v>
@@ -5985,13 +5952,13 @@
         <v>25</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D51" s="88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E51" s="93"/>
       <c r="F51" s="100" t="s">
@@ -6027,7 +5994,7 @@
       <c r="O51" s="40"/>
       <c r="P51" s="40"/>
       <c r="Q51" s="36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R51" s="37" t="s">
         <v>40</v>
@@ -6060,13 +6027,13 @@
         <v>18</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C52" s="85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D52" s="89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E52" s="91"/>
       <c r="F52" s="102" t="s">
@@ -6106,7 +6073,7 @@
         <v>46002</v>
       </c>
       <c r="Q52" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R52" s="24" t="s">
         <v>40</v>
@@ -6139,13 +6106,13 @@
         <v>18</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D53" s="88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E53" s="93"/>
       <c r="F53" s="100" t="s">
@@ -6187,7 +6154,7 @@
         <v>45992</v>
       </c>
       <c r="Q53" s="36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R53" s="37" t="s">
         <v>40</v>
@@ -6220,10 +6187,10 @@
         <v>108</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D54" s="89" t="s">
         <v>111</v>
@@ -6262,7 +6229,7 @@
       <c r="O54" s="43"/>
       <c r="P54" s="43"/>
       <c r="Q54" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R54" s="24" t="s">
         <v>40</v>
@@ -6295,13 +6262,13 @@
         <v>18</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D55" s="82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E55" s="93"/>
       <c r="F55" s="100" t="s">
@@ -6341,7 +6308,7 @@
       </c>
       <c r="P55" s="40"/>
       <c r="Q55" s="36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R55" s="37" t="s">
         <v>40</v>
@@ -6374,10 +6341,10 @@
         <v>108</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D56" s="89" t="s">
         <v>155</v>
@@ -6414,7 +6381,7 @@
       <c r="O56" s="43"/>
       <c r="P56" s="43"/>
       <c r="Q56" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R56" s="24" t="s">
         <v>40</v>
@@ -6447,13 +6414,13 @@
         <v>18</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D57" s="88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E57" s="93"/>
       <c r="F57" s="100" t="s">
@@ -6487,7 +6454,7 @@
       <c r="O57" s="40"/>
       <c r="P57" s="40"/>
       <c r="Q57" s="97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R57" s="37" t="s">
         <v>40</v>
@@ -6520,13 +6487,13 @@
         <v>25</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D58" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E58" s="91"/>
       <c r="F58" s="102" t="s">
@@ -6560,7 +6527,7 @@
       <c r="O58" s="43"/>
       <c r="P58" s="43"/>
       <c r="Q58" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R58" s="24" t="s">
         <v>40</v>
@@ -6593,13 +6560,13 @@
         <v>108</v>
       </c>
       <c r="B59" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="88" t="s">
         <v>212</v>
-      </c>
-      <c r="C59" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="88" t="s">
-        <v>211</v>
       </c>
       <c r="E59" s="93"/>
       <c r="F59" s="100" t="s">
@@ -6633,7 +6600,7 @@
       <c r="O59" s="40"/>
       <c r="P59" s="40"/>
       <c r="Q59" s="97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R59" s="37" t="s">
         <v>40</v>
@@ -6666,13 +6633,13 @@
         <v>108</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D60" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E60" s="91"/>
       <c r="F60" s="102" t="s">
@@ -6706,7 +6673,7 @@
       <c r="O60" s="43"/>
       <c r="P60" s="43"/>
       <c r="Q60" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R60" s="24" t="s">
         <v>40</v>
@@ -6739,13 +6706,13 @@
         <v>18</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E61" s="119"/>
       <c r="F61" s="100" t="s">
@@ -6779,7 +6746,7 @@
       <c r="O61" s="121"/>
       <c r="P61" s="121"/>
       <c r="Q61" s="122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R61" s="37" t="s">
         <v>40</v>
@@ -6812,13 +6779,13 @@
         <v>108</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D62" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E62" s="91"/>
       <c r="F62" s="102" t="s">
@@ -6852,7 +6819,7 @@
       <c r="O62" s="43"/>
       <c r="P62" s="43"/>
       <c r="Q62" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R62" s="24" t="s">
         <v>40</v>
@@ -6885,13 +6852,13 @@
         <v>108</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E63" s="93"/>
       <c r="F63" s="100" t="s">
@@ -6925,7 +6892,7 @@
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
       <c r="Q63" s="97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R63" s="37" t="s">
         <v>40</v>
@@ -6958,13 +6925,13 @@
         <v>18</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D64" s="89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E64" s="91"/>
       <c r="F64" s="102" t="s">
@@ -6998,7 +6965,7 @@
       <c r="O64" s="43"/>
       <c r="P64" s="43"/>
       <c r="Q64" s="104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R64" s="24" t="s">
         <v>40</v>
@@ -7031,10 +6998,10 @@
         <v>108</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C65" s="82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D65" s="88" t="s">
         <v>111</v>
@@ -7071,7 +7038,7 @@
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
       <c r="Q65" s="97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R65" s="37" t="s">
         <v>40</v>
@@ -7104,13 +7071,13 @@
         <v>25</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D66" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E66" s="91"/>
       <c r="F66" s="102" t="s">
@@ -7144,7 +7111,7 @@
       <c r="O66" s="43"/>
       <c r="P66" s="43"/>
       <c r="Q66" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R66" s="24" t="s">
         <v>40</v>
@@ -7177,13 +7144,13 @@
         <v>25</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C67" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E67" s="93"/>
       <c r="F67" s="100" t="s">
@@ -7217,7 +7184,7 @@
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
       <c r="Q67" s="97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R67" s="37" t="s">
         <v>40</v>
@@ -7247,16 +7214,16 @@
     </row>
     <row r="68" spans="1:40">
       <c r="A68" s="113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E68" s="91"/>
       <c r="F68" s="102" t="s">
@@ -7290,7 +7257,7 @@
       <c r="O68" s="43"/>
       <c r="P68" s="43"/>
       <c r="Q68" s="127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R68" s="128" t="s">
         <v>40</v>
@@ -7323,13 +7290,13 @@
         <v>18</v>
       </c>
       <c r="B69" s="129" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" s="130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D69" s="88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E69" s="93"/>
       <c r="F69" s="100" t="s">
@@ -7363,7 +7330,7 @@
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
       <c r="Q69" s="131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R69" s="132" t="s">
         <v>40</v>
@@ -7396,13 +7363,13 @@
         <v>18</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D70" s="89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E70" s="91"/>
       <c r="F70" s="102" t="s">
@@ -7436,7 +7403,7 @@
       <c r="O70" s="43"/>
       <c r="P70" s="43"/>
       <c r="Q70" s="127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R70" s="128" t="s">
         <v>40</v>
@@ -7469,13 +7436,13 @@
         <v>25</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E71" s="93"/>
       <c r="F71" s="100" t="s">
@@ -7509,7 +7476,7 @@
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
       <c r="Q71" s="97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R71" s="37" t="s">
         <v>40</v>
@@ -7542,13 +7509,13 @@
         <v>18</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D72" s="89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E72" s="91"/>
       <c r="F72" s="102" t="s">
@@ -7582,7 +7549,7 @@
       <c r="O72" s="43"/>
       <c r="P72" s="43"/>
       <c r="Q72" s="127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R72" s="128" t="s">
         <v>40</v>
@@ -7615,17 +7582,17 @@
         <v>18</v>
       </c>
       <c r="B73" s="129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C73" s="130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D73" s="88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E73" s="93"/>
       <c r="F73" s="100" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="G73" s="101"/>
       <c r="H73" s="32">
@@ -7680,13 +7647,13 @@
         <v>25</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D74" s="89" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E74" s="91"/>
       <c r="F74" s="102" t="s">
@@ -7720,7 +7687,7 @@
       <c r="O74" s="43"/>
       <c r="P74" s="43"/>
       <c r="Q74" s="104" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R74" s="24" t="s">
         <v>40</v>
@@ -7753,13 +7720,13 @@
         <v>18</v>
       </c>
       <c r="B75" s="129" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C75" s="82" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D75" s="88" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E75" s="93"/>
       <c r="F75" s="100" t="s">
@@ -7797,7 +7764,7 @@
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
       <c r="Q75" s="97" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R75" s="132" t="s">
         <v>40</v>
@@ -7830,13 +7797,13 @@
         <v>18</v>
       </c>
       <c r="B76" s="133" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C76" s="85" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D76" s="89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E76" s="91"/>
       <c r="F76" s="102" t="s">
@@ -7872,7 +7839,7 @@
       <c r="O76" s="43"/>
       <c r="P76" s="43"/>
       <c r="Q76" s="104" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="R76" s="128" t="s">
         <v>40</v>
@@ -7905,13 +7872,13 @@
         <v>18</v>
       </c>
       <c r="B77" s="129" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C77" s="82" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D77" s="88" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E77" s="93"/>
       <c r="F77" s="100" t="s">
@@ -7947,7 +7914,7 @@
       <c r="O77" s="40"/>
       <c r="P77" s="40"/>
       <c r="Q77" s="97" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="R77" s="132" t="s">
         <v>40</v>
@@ -7980,13 +7947,13 @@
         <v>18</v>
       </c>
       <c r="B78" s="133" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D78" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E78" s="91"/>
       <c r="F78" s="102" t="s">
@@ -8020,7 +7987,7 @@
       <c r="O78" s="43"/>
       <c r="P78" s="43"/>
       <c r="Q78" s="104" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R78" s="128" t="s">
         <v>40</v>
@@ -8053,13 +8020,13 @@
         <v>18</v>
       </c>
       <c r="B79" s="129" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C79" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D79" s="88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E79" s="93"/>
       <c r="F79" s="100" t="s">
@@ -8093,7 +8060,7 @@
       <c r="O79" s="40"/>
       <c r="P79" s="40"/>
       <c r="Q79" s="97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R79" s="132" t="s">
         <v>40</v>
@@ -8126,13 +8093,13 @@
         <v>18</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D80" s="89" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E80" s="91"/>
       <c r="F80" s="102" t="s">
@@ -8172,7 +8139,7 @@
         <v>46043</v>
       </c>
       <c r="Q80" s="104" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R80" s="128" t="s">
         <v>40</v>
@@ -8202,16 +8169,16 @@
     </row>
     <row r="81" spans="1:40">
       <c r="A81" s="109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B81" s="129" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C81" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D81" s="88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E81" s="93"/>
       <c r="F81" s="100" t="s">
@@ -8245,7 +8212,7 @@
       <c r="O81" s="40"/>
       <c r="P81" s="40"/>
       <c r="Q81" s="97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R81" s="132" t="s">
         <v>40</v>
@@ -8278,13 +8245,13 @@
         <v>18</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C82" s="85" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D82" s="89" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E82" s="91"/>
       <c r="F82" s="102" t="s">
@@ -8326,7 +8293,7 @@
         <v>46043</v>
       </c>
       <c r="Q82" s="52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R82" s="128" t="s">
         <v>40</v>
@@ -8359,13 +8326,13 @@
         <v>18</v>
       </c>
       <c r="B83" s="129" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C83" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D83" s="88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E83" s="93"/>
       <c r="F83" s="100" t="s">
@@ -8401,7 +8368,7 @@
       <c r="O83" s="40"/>
       <c r="P83" s="40"/>
       <c r="Q83" s="90" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R83" s="132" t="s">
         <v>40</v>
@@ -8431,16 +8398,16 @@
     </row>
     <row r="84" spans="1:40" ht="24">
       <c r="A84" s="113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B84" s="133" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C84" s="85" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D84" s="89" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E84" s="91"/>
       <c r="F84" s="102" t="s">
@@ -8474,7 +8441,7 @@
       <c r="O84" s="43"/>
       <c r="P84" s="43"/>
       <c r="Q84" s="52" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R84" s="128" t="s">
         <v>40</v>
@@ -8507,13 +8474,13 @@
         <v>18</v>
       </c>
       <c r="B85" s="129" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C85" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D85" s="88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E85" s="93"/>
       <c r="F85" s="100" t="s">
@@ -8547,7 +8514,7 @@
       <c r="O85" s="40"/>
       <c r="P85" s="40"/>
       <c r="Q85" s="90" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="R85" s="132" t="s">
         <v>40</v>
@@ -8577,13 +8544,13 @@
     </row>
     <row r="86" spans="1:40" ht="38.25">
       <c r="A86" s="113" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B86" s="133" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C86" s="85" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D86" s="89" t="s">
         <v>111</v>
@@ -8620,7 +8587,7 @@
       <c r="O86" s="43"/>
       <c r="P86" s="43"/>
       <c r="Q86" s="52" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R86" s="128" t="s">
         <v>40</v>
@@ -8653,17 +8620,17 @@
         <v>18</v>
       </c>
       <c r="B87" s="129" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C87" s="82" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D87" s="88" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E87" s="93"/>
       <c r="F87" s="100" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="G87" s="101">
         <v>0</v>
@@ -8720,13 +8687,13 @@
         <v>18</v>
       </c>
       <c r="B88" s="133" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C88" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D88" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E88" s="91"/>
       <c r="F88" s="102" t="s">
@@ -8762,7 +8729,7 @@
       <c r="O88" s="43"/>
       <c r="P88" s="43"/>
       <c r="Q88" s="52" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R88" s="128" t="s">
         <v>40</v>
@@ -8795,13 +8762,13 @@
         <v>18</v>
       </c>
       <c r="B89" s="129" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C89" s="82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D89" s="88" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E89" s="93"/>
       <c r="F89" s="100" t="s">
@@ -8839,7 +8806,7 @@
       <c r="O89" s="40"/>
       <c r="P89" s="40"/>
       <c r="Q89" s="90" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R89" s="132" t="s">
         <v>40</v>
@@ -8869,16 +8836,16 @@
     </row>
     <row r="90" spans="1:40">
       <c r="A90" s="113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C90" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D90" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E90" s="91"/>
       <c r="F90" s="102" t="s">
@@ -8912,7 +8879,7 @@
       <c r="O90" s="43"/>
       <c r="P90" s="43"/>
       <c r="Q90" s="52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R90" s="128" t="s">
         <v>40</v>
@@ -8945,13 +8912,13 @@
         <v>25</v>
       </c>
       <c r="B91" s="129" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C91" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" s="88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E91" s="93"/>
       <c r="F91" s="100" t="s">
@@ -8985,7 +8952,7 @@
       <c r="O91" s="40"/>
       <c r="P91" s="40"/>
       <c r="Q91" s="90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R91" s="132" t="s">
         <v>40</v>
@@ -9015,16 +8982,16 @@
     </row>
     <row r="92" spans="1:40" ht="38.25">
       <c r="A92" s="113" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B92" s="133" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C92" s="126" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D92" s="89" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E92" s="91"/>
       <c r="F92" s="102" t="s">
@@ -9058,7 +9025,7 @@
       <c r="O92" s="43"/>
       <c r="P92" s="43"/>
       <c r="Q92" s="127" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="R92" s="128" t="s">
         <v>40</v>
@@ -9088,16 +9055,16 @@
     </row>
     <row r="93" spans="1:40">
       <c r="A93" s="109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B93" s="129" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C93" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D93" s="88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E93" s="93"/>
       <c r="F93" s="100" t="s">
@@ -9131,7 +9098,7 @@
       <c r="O93" s="40"/>
       <c r="P93" s="40"/>
       <c r="Q93" s="90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R93" s="132" t="s">
         <v>40</v>
@@ -9164,13 +9131,13 @@
         <v>18</v>
       </c>
       <c r="B94" s="133" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C94" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D94" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E94" s="91"/>
       <c r="F94" s="102" t="s">
@@ -9204,7 +9171,7 @@
       <c r="O94" s="43"/>
       <c r="P94" s="43"/>
       <c r="Q94" s="52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R94" s="128" t="s">
         <v>40</v>
@@ -9237,13 +9204,13 @@
         <v>18</v>
       </c>
       <c r="B95" s="129" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C95" s="130" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D95" s="88" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E95" s="93"/>
       <c r="F95" s="100" t="s">
@@ -9277,9 +9244,11 @@
       <c r="O95" s="40"/>
       <c r="P95" s="40"/>
       <c r="Q95" s="131" t="s">
-        <v>311</v>
-      </c>
-      <c r="R95" s="132"/>
+        <v>313</v>
+      </c>
+      <c r="R95" s="128" t="s">
+        <v>40</v>
+      </c>
       <c r="S95" s="110"/>
       <c r="T95" s="111"/>
       <c r="U95" s="111"/>
@@ -9305,16 +9274,16 @@
     </row>
     <row r="96" spans="1:40">
       <c r="A96" s="113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B96" s="133" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C96" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D96" s="89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E96" s="91"/>
       <c r="F96" s="102" t="s">
@@ -9348,7 +9317,7 @@
       <c r="O96" s="43"/>
       <c r="P96" s="43"/>
       <c r="Q96" s="52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R96" s="128" t="s">
         <v>40</v>
@@ -9377,35 +9346,37 @@
       <c r="AN96" s="117"/>
     </row>
     <row r="97" spans="1:40" ht="25.5">
-      <c r="A97" s="135" t="s">
+      <c r="A97" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="136" t="s">
-        <v>313</v>
-      </c>
-      <c r="C97" s="137" t="s">
-        <v>314</v>
-      </c>
-      <c r="D97" s="138" t="s">
+      <c r="B97" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="E97" s="139"/>
-      <c r="F97" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="G97" s="141">
+      <c r="C97" s="82" t="s">
+        <v>316</v>
+      </c>
+      <c r="D97" s="88" t="s">
+        <v>317</v>
+      </c>
+      <c r="E97" s="93"/>
+      <c r="F97" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="101">
         <v>0</v>
       </c>
       <c r="H97" s="32">
         <f>IF(OR(J97="",K97="",K97&lt;J97),0,NETWORKDAYS(J97,K97,Hoja2!$A$2:$A$53))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="142">
+      <c r="I97" s="40">
         <v>46070</v>
       </c>
-      <c r="J97" s="143"/>
-      <c r="K97" s="143"/>
-      <c r="L97" s="143"/>
+      <c r="J97" s="73"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="73">
+        <v>46073</v>
+      </c>
       <c r="M97" s="35">
         <f ca="1">IF(OR(J97="",AND(L97="",TODAY()&lt;J97),AND(L97&lt;&gt;"",L97&lt;J97)),0,
    IF(L97="",
@@ -9415,35 +9386,35 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="N97" s="143"/>
-      <c r="O97" s="143"/>
-      <c r="P97" s="143"/>
-      <c r="Q97" s="105"/>
+      <c r="N97" s="40"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="90"/>
       <c r="R97" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="S97" s="105"/>
-      <c r="T97" s="105"/>
-      <c r="U97" s="105"/>
-      <c r="V97" s="105"/>
-      <c r="W97" s="105"/>
-      <c r="X97" s="105"/>
-      <c r="Y97" s="105"/>
-      <c r="Z97" s="105"/>
-      <c r="AA97" s="105"/>
-      <c r="AB97" s="105"/>
-      <c r="AC97" s="105"/>
-      <c r="AD97" s="105"/>
-      <c r="AE97" s="105"/>
-      <c r="AF97" s="105"/>
-      <c r="AG97" s="105"/>
-      <c r="AH97" s="105"/>
-      <c r="AI97" s="105"/>
-      <c r="AJ97" s="105"/>
-      <c r="AK97" s="105"/>
-      <c r="AL97" s="105"/>
-      <c r="AM97" s="105"/>
-      <c r="AN97" s="106"/>
+      <c r="S97" s="110"/>
+      <c r="T97" s="111"/>
+      <c r="U97" s="111"/>
+      <c r="V97" s="111"/>
+      <c r="W97" s="111"/>
+      <c r="X97" s="111"/>
+      <c r="Y97" s="111"/>
+      <c r="Z97" s="111"/>
+      <c r="AA97" s="111"/>
+      <c r="AB97" s="111"/>
+      <c r="AC97" s="111"/>
+      <c r="AD97" s="111"/>
+      <c r="AE97" s="111"/>
+      <c r="AF97" s="111"/>
+      <c r="AG97" s="111"/>
+      <c r="AH97" s="111"/>
+      <c r="AI97" s="111"/>
+      <c r="AJ97" s="111"/>
+      <c r="AK97" s="111"/>
+      <c r="AL97" s="111"/>
+      <c r="AM97" s="111"/>
+      <c r="AN97" s="112"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN41"/>
@@ -9477,427 +9448,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="144">
+      <c r="A1" s="135">
         <v>45292</v>
       </c>
-      <c r="B1" s="145" t="s">
-        <v>316</v>
+      <c r="B1" s="136" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="144">
+      <c r="A2" s="135">
         <v>45299</v>
       </c>
-      <c r="B2" s="145" t="s">
-        <v>317</v>
+      <c r="B2" s="136" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="144">
+      <c r="A3" s="135">
         <v>45376</v>
       </c>
-      <c r="B3" s="145" t="s">
-        <v>318</v>
+      <c r="B3" s="136" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="144">
+      <c r="A4" s="135">
         <v>45379</v>
       </c>
-      <c r="B4" s="145" t="s">
-        <v>319</v>
+      <c r="B4" s="136" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A5" s="144">
+      <c r="A5" s="135">
         <v>45380</v>
       </c>
-      <c r="B5" s="145" t="s">
-        <v>320</v>
+      <c r="B5" s="136" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A6" s="144">
+      <c r="A6" s="135">
         <v>45413</v>
       </c>
-      <c r="B6" s="145" t="s">
-        <v>321</v>
+      <c r="B6" s="136" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A7" s="144">
+      <c r="A7" s="135">
         <v>45425</v>
       </c>
-      <c r="B7" s="145" t="s">
-        <v>322</v>
+      <c r="B7" s="136" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A8" s="144">
+      <c r="A8" s="135">
         <v>45446</v>
       </c>
-      <c r="B8" s="145" t="s">
-        <v>323</v>
+      <c r="B8" s="136" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A9" s="144">
+      <c r="A9" s="135">
         <v>45453</v>
       </c>
-      <c r="B9" s="145" t="s">
-        <v>324</v>
+      <c r="B9" s="136" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A10" s="144">
+      <c r="A10" s="135">
         <v>45474</v>
       </c>
-      <c r="B10" s="145" t="s">
-        <v>325</v>
+      <c r="B10" s="136" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A11" s="144">
+      <c r="A11" s="135">
         <v>45493</v>
       </c>
-      <c r="B11" s="145" t="s">
-        <v>326</v>
+      <c r="B11" s="136" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A12" s="144">
+      <c r="A12" s="135">
         <v>45511</v>
       </c>
-      <c r="B12" s="145" t="s">
-        <v>327</v>
+      <c r="B12" s="136" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A13" s="144">
+      <c r="A13" s="135">
         <v>45523</v>
       </c>
-      <c r="B13" s="145" t="s">
-        <v>328</v>
+      <c r="B13" s="136" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A14" s="144">
+      <c r="A14" s="135">
         <v>45579</v>
       </c>
-      <c r="B14" s="145" t="s">
-        <v>329</v>
+      <c r="B14" s="136" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A15" s="144">
+      <c r="A15" s="135">
         <v>45600</v>
       </c>
-      <c r="B15" s="145" t="s">
-        <v>330</v>
+      <c r="B15" s="136" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A16" s="144">
+      <c r="A16" s="135">
         <v>45607</v>
       </c>
-      <c r="B16" s="145" t="s">
-        <v>331</v>
+      <c r="B16" s="136" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A17" s="144">
+      <c r="A17" s="135">
         <v>45634</v>
       </c>
-      <c r="B17" s="145" t="s">
-        <v>332</v>
+      <c r="B17" s="136" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A18" s="144">
+      <c r="A18" s="135">
         <v>45651</v>
       </c>
-      <c r="B18" s="145" t="s">
-        <v>333</v>
+      <c r="B18" s="136" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A19" s="144">
+      <c r="A19" s="135">
         <v>45658</v>
       </c>
-      <c r="B19" s="146" t="s">
-        <v>334</v>
+      <c r="B19" s="137" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A20" s="144">
+      <c r="A20" s="135">
         <v>45663</v>
       </c>
-      <c r="B20" s="146" t="s">
-        <v>335</v>
+      <c r="B20" s="137" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A21" s="144">
+      <c r="A21" s="135">
         <v>45740</v>
       </c>
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="137" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A22" s="135">
+        <v>45764</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A23" s="135">
+        <v>45765</v>
+      </c>
+      <c r="B23" s="137" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A24" s="135">
+        <v>45778</v>
+      </c>
+      <c r="B24" s="137" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A25" s="135">
+        <v>45810</v>
+      </c>
+      <c r="B25" s="137" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A26" s="135">
+        <v>45831</v>
+      </c>
+      <c r="B26" s="137" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A27" s="135">
+        <v>45838</v>
+      </c>
+      <c r="B27" s="137" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A28" s="135">
+        <v>45858</v>
+      </c>
+      <c r="B28" s="137" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A29" s="135">
+        <v>45876</v>
+      </c>
+      <c r="B29" s="137" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A30" s="135">
+        <v>45887</v>
+      </c>
+      <c r="B30" s="137" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A31" s="135">
+        <v>45943</v>
+      </c>
+      <c r="B31" s="137" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A32" s="135">
+        <v>45964</v>
+      </c>
+      <c r="B32" s="137" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A33" s="135">
+        <v>45978</v>
+      </c>
+      <c r="B33" s="137" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A34" s="135">
+        <v>45999</v>
+      </c>
+      <c r="B34" s="137" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A35" s="135">
+        <v>46016</v>
+      </c>
+      <c r="B35" s="137" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A36" s="135">
+        <v>46023</v>
+      </c>
+      <c r="B36" s="137" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A22" s="144">
-        <v>45764</v>
-      </c>
-      <c r="B22" s="146" t="s">
+    <row r="37" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A37" s="135">
+        <v>46034</v>
+      </c>
+      <c r="B37" s="137" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A23" s="144">
-        <v>45765</v>
-      </c>
-      <c r="B23" s="146" t="s">
+    <row r="38" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A38" s="135">
+        <v>46104</v>
+      </c>
+      <c r="B38" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A24" s="144">
-        <v>45778</v>
-      </c>
-      <c r="B24" s="146" t="s">
+    <row r="39" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A39" s="135">
+        <v>46114</v>
+      </c>
+      <c r="B39" s="137" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A25" s="144">
-        <v>45810</v>
-      </c>
-      <c r="B25" s="146" t="s">
+    <row r="40" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A40" s="135">
+        <v>46115</v>
+      </c>
+      <c r="B40" s="137" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A26" s="144">
-        <v>45831</v>
-      </c>
-      <c r="B26" s="146" t="s">
+    <row r="41" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A41" s="135">
+        <v>46143</v>
+      </c>
+      <c r="B41" s="137" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A27" s="144">
-        <v>45838</v>
-      </c>
-      <c r="B27" s="146" t="s">
+    <row r="42" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A42" s="135">
+        <v>46160</v>
+      </c>
+      <c r="B42" s="137" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A28" s="144">
-        <v>45858</v>
-      </c>
-      <c r="B28" s="146" t="s">
+    <row r="43" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A43" s="135">
+        <v>46181</v>
+      </c>
+      <c r="B43" s="137" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A29" s="144">
-        <v>45876</v>
-      </c>
-      <c r="B29" s="146" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A30" s="144">
-        <v>45887</v>
-      </c>
-      <c r="B30" s="146" t="s">
+    <row r="44" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A44" s="135">
+        <v>46188</v>
+      </c>
+      <c r="B44" s="137" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A45" s="135">
+        <v>46202</v>
+      </c>
+      <c r="B45" s="137" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A46" s="135">
+        <v>46223</v>
+      </c>
+      <c r="B46" s="137" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A31" s="144">
-        <v>45943</v>
-      </c>
-      <c r="B31" s="146" t="s">
+    <row r="47" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A47" s="135">
+        <v>46241</v>
+      </c>
+      <c r="B47" s="137" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A32" s="144">
-        <v>45964</v>
-      </c>
-      <c r="B32" s="146" t="s">
+    <row r="48" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A48" s="135">
+        <v>46251</v>
+      </c>
+      <c r="B48" s="137" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A33" s="144">
-        <v>45978</v>
-      </c>
-      <c r="B33" s="146" t="s">
+    <row r="49" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A49" s="135">
+        <v>46307</v>
+      </c>
+      <c r="B49" s="137" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A34" s="144">
-        <v>45999</v>
-      </c>
-      <c r="B34" s="146" t="s">
+    <row r="50" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A50" s="135">
+        <v>46328</v>
+      </c>
+      <c r="B50" s="137" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A35" s="144">
-        <v>46016</v>
-      </c>
-      <c r="B35" s="146" t="s">
+    <row r="51" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A51" s="135">
+        <v>46342</v>
+      </c>
+      <c r="B51" s="137" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A36" s="144">
-        <v>46023</v>
-      </c>
-      <c r="B36" s="146" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A37" s="144">
-        <v>46034</v>
-      </c>
-      <c r="B37" s="146" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A38" s="144">
-        <v>46104</v>
-      </c>
-      <c r="B38" s="146" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A39" s="144">
-        <v>46114</v>
-      </c>
-      <c r="B39" s="146" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A40" s="144">
-        <v>46115</v>
-      </c>
-      <c r="B40" s="146" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A41" s="144">
-        <v>46143</v>
-      </c>
-      <c r="B41" s="146" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A42" s="144">
-        <v>46160</v>
-      </c>
-      <c r="B42" s="146" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A43" s="144">
-        <v>46181</v>
-      </c>
-      <c r="B43" s="146" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A44" s="144">
-        <v>46188</v>
-      </c>
-      <c r="B44" s="146" t="s">
+    <row r="52" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A52" s="135">
+        <v>46364</v>
+      </c>
+      <c r="B52" s="137" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A45" s="144">
-        <v>46202</v>
-      </c>
-      <c r="B45" s="146" t="s">
+    <row r="53" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A53" s="135">
+        <v>46381</v>
+      </c>
+      <c r="B53" s="137" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A46" s="144">
-        <v>46223</v>
-      </c>
-      <c r="B46" s="146" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A47" s="144">
-        <v>46241</v>
-      </c>
-      <c r="B47" s="146" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A48" s="144">
-        <v>46251</v>
-      </c>
-      <c r="B48" s="146" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A49" s="144">
-        <v>46307</v>
-      </c>
-      <c r="B49" s="146" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A50" s="144">
-        <v>46328</v>
-      </c>
-      <c r="B50" s="146" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A51" s="144">
-        <v>46342</v>
-      </c>
-      <c r="B51" s="146" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A52" s="144">
-        <v>46364</v>
-      </c>
-      <c r="B52" s="146" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A53" s="144">
-        <v>46381</v>
-      </c>
-      <c r="B53" s="146" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>

--- a/Tuya.xlsx
+++ b/Tuya.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="357">
   <si>
     <t>Asignado a</t>
   </si>
@@ -1126,6 +1126,12 @@
   </si>
   <si>
     <t>Solicitan entregar un reporte de documentos para validar la posibilidad para venta de cartera</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>Se realiza proceso de generacion de documentación para el reporte de morosos del mes de Febrero de acuerdo a la solicitud, se entrega información.</t>
   </si>
   <si>
     <t xml:space="preserve"> Año Nuevo</t>
@@ -2292,11 +2298,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2306,7 +2312,7 @@
     <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
     <col min="8" max="8" width="10.21875" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" customWidth="1"/>
@@ -2437,7 +2443,7 @@
       NETWORKDAYS(J2,L2,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -2506,7 +2512,7 @@
       NETWORKDAYS(J3,L3,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
@@ -2577,7 +2583,7 @@
       NETWORKDAYS(J4,L4,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -2648,7 +2654,7 @@
       NETWORKDAYS(J5,L5,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -2719,7 +2725,7 @@
       NETWORKDAYS(J6,L6,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -2790,7 +2796,7 @@
       NETWORKDAYS(J7,L7,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -2861,7 +2867,7 @@
       NETWORKDAYS(J8,L8,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -2932,7 +2938,7 @@
       NETWORKDAYS(J9,L9,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
@@ -3003,7 +3009,7 @@
       NETWORKDAYS(J10,L10,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -3072,7 +3078,7 @@
       NETWORKDAYS(J11,L11,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
@@ -3143,7 +3149,7 @@
       NETWORKDAYS(J12,L12,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -3285,7 +3291,7 @@
       NETWORKDAYS(J14,L14,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -3358,7 +3364,7 @@
       NETWORKDAYS(J15,L15,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
@@ -3506,7 +3512,7 @@
       NETWORKDAYS(J17,L17,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
@@ -3735,7 +3741,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
@@ -4814,7 +4820,7 @@
       NETWORKDAYS(J35,L35,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N35" s="73"/>
       <c r="O35" s="73">
@@ -5400,7 +5406,7 @@
       NETWORKDAYS(J43,L43,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
@@ -8987,7 +8993,7 @@
       <c r="B92" s="133" t="s">
         <v>304</v>
       </c>
-      <c r="C92" s="126" t="s">
+      <c r="C92" s="85" t="s">
         <v>305</v>
       </c>
       <c r="D92" s="89" t="s">
@@ -9024,7 +9030,7 @@
       <c r="N92" s="43"/>
       <c r="O92" s="43"/>
       <c r="P92" s="43"/>
-      <c r="Q92" s="127" t="s">
+      <c r="Q92" s="52" t="s">
         <v>307</v>
       </c>
       <c r="R92" s="128" t="s">
@@ -9206,7 +9212,7 @@
       <c r="B95" s="129" t="s">
         <v>310</v>
       </c>
-      <c r="C95" s="130" t="s">
+      <c r="C95" s="82" t="s">
         <v>311</v>
       </c>
       <c r="D95" s="88" t="s">
@@ -9243,7 +9249,7 @@
       <c r="N95" s="40"/>
       <c r="O95" s="40"/>
       <c r="P95" s="40"/>
-      <c r="Q95" s="131" t="s">
+      <c r="Q95" s="90" t="s">
         <v>313</v>
       </c>
       <c r="R95" s="128" t="s">
@@ -9363,16 +9369,16 @@
         <v>38</v>
       </c>
       <c r="G97" s="101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H97" s="32">
         <f>IF(OR(J97="",K97="",K97&lt;J97),0,NETWORKDAYS(J97,K97,Hoja2!$A$2:$A$53))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="40"/>
+      <c r="J97" s="73">
         <v>46070</v>
       </c>
-      <c r="J97" s="73"/>
       <c r="K97" s="40"/>
       <c r="L97" s="73">
         <v>46073</v>
@@ -9384,7 +9390,7 @@
       NETWORKDAYS(J97,L97,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N97" s="40"/>
       <c r="O97" s="40"/>
@@ -9416,18 +9422,89 @@
       <c r="AM97" s="111"/>
       <c r="AN97" s="112"/>
     </row>
+    <row r="98" spans="1:40" ht="38.25">
+      <c r="A98" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" s="133" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="91"/>
+      <c r="F98" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="103">
+        <v>100</v>
+      </c>
+      <c r="H98" s="19">
+        <f>IF(OR(J98="",K98="",K98&lt;J98),0,NETWORKDAYS(J98,K98,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="43"/>
+      <c r="J98" s="64">
+        <v>46076</v>
+      </c>
+      <c r="K98" s="43"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="22">
+        <f ca="1">IF(OR(J98="",AND(L98="",TODAY()&lt;J98),AND(L98&lt;&gt;"",L98&lt;J98)),0,
+   IF(L98="",
+      NETWORKDAYS(J98,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J98,L98,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>3</v>
+      </c>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="R98" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="S98" s="115"/>
+      <c r="T98" s="116"/>
+      <c r="U98" s="116"/>
+      <c r="V98" s="116"/>
+      <c r="W98" s="116"/>
+      <c r="X98" s="116"/>
+      <c r="Y98" s="116"/>
+      <c r="Z98" s="116"/>
+      <c r="AA98" s="116"/>
+      <c r="AB98" s="116"/>
+      <c r="AC98" s="116"/>
+      <c r="AD98" s="116"/>
+      <c r="AE98" s="116"/>
+      <c r="AF98" s="116"/>
+      <c r="AG98" s="116"/>
+      <c r="AH98" s="116"/>
+      <c r="AI98" s="116"/>
+      <c r="AJ98" s="116"/>
+      <c r="AK98" s="116"/>
+      <c r="AL98" s="116"/>
+      <c r="AM98" s="116"/>
+      <c r="AN98" s="117"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AN41"/>
-  <conditionalFormatting sqref="B2:B97">
+  <conditionalFormatting sqref="B2:B98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(B$2:B$16,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L9 J10:L10 I11:L54 N2:P54 I56:L97 N56:P97">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L9 J10:L10 I11:L54 N2:P54 I56:L98 N56:P98">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F97">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F98">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE,PASO A PRODUCCION"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9452,7 +9529,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="136" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -9460,7 +9537,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -9468,7 +9545,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="136" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -9476,7 +9553,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="136" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -9484,7 +9561,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="136" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -9492,7 +9569,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="136" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -9500,7 +9577,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="136" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -9508,7 +9585,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="136" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -9516,7 +9593,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -9524,7 +9601,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="136" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -9532,7 +9609,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -9540,7 +9617,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -9548,7 +9625,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="136" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -9556,7 +9633,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="136" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -9564,7 +9641,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -9572,7 +9649,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="136" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -9580,7 +9657,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="136" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -9588,7 +9665,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="136" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -9596,7 +9673,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -9604,7 +9681,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="137" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -9612,7 +9689,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -9620,7 +9697,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="137" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -9628,7 +9705,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="137" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -9636,7 +9713,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="137" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -9644,7 +9721,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -9652,7 +9729,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -9660,7 +9737,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -9668,7 +9745,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="137" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -9676,7 +9753,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="137" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -9684,7 +9761,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="137" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -9692,7 +9769,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="137" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -9700,7 +9777,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="137" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -9708,7 +9785,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="137" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -9716,7 +9793,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -9724,7 +9801,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="137" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -9732,7 +9809,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -9740,7 +9817,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="137" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -9748,7 +9825,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="137" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -9756,7 +9833,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="137" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -9764,7 +9841,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="137" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -9772,7 +9849,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="137" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -9780,7 +9857,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="137" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -9788,7 +9865,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="137" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -9796,7 +9873,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="137" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -9804,7 +9881,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="137" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -9812,7 +9889,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="137" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -9820,7 +9897,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="137" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -9828,7 +9905,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="137" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -9836,7 +9913,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="137" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -9844,7 +9921,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="137" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -9852,7 +9929,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="137" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -9860,7 +9937,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="137" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -9868,7 +9945,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="137" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>
